--- a/BackTest/2020-01-16 BackTest GXC.xlsx
+++ b/BackTest/2020-01-16 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M248"/>
+  <dimension ref="A1:M249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>460</v>
+        <v>453.5</v>
       </c>
       <c r="C2" t="n">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D2" t="n">
-        <v>460</v>
+        <v>453.5</v>
       </c>
       <c r="E2" t="n">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>466.5833333333333</v>
+        <v>467.0666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -468,159 +468,163 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>460</v>
+      </c>
+      <c r="C3" t="n">
+        <v>460</v>
+      </c>
+      <c r="D3" t="n">
+        <v>460</v>
+      </c>
+      <c r="E3" t="n">
+        <v>460</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>466.5833333333333</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>452</v>
+      </c>
+      <c r="K3" t="n">
+        <v>452</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>457</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>456</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>457</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>456</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>160.8059</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>466.0333333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>460</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="K4" t="n">
+        <v>452</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>453</v>
+      </c>
+      <c r="C5" t="n">
+        <v>453</v>
+      </c>
+      <c r="D5" t="n">
+        <v>453</v>
+      </c>
+      <c r="E5" t="n">
+        <v>453</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2053.3665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>465.5666666666666</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>452</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>453</v>
+      </c>
+      <c r="C6" t="n">
+        <v>455</v>
+      </c>
+      <c r="D6" t="n">
+        <v>455</v>
+      </c>
+      <c r="E6" t="n">
+        <v>453</v>
+      </c>
+      <c r="F6" t="n">
+        <v>502.8001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>465.0216666666666</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>453</v>
+      </c>
+      <c r="K6" t="n">
+        <v>452</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>453</v>
-      </c>
-      <c r="C4" t="n">
-        <v>453</v>
-      </c>
-      <c r="D4" t="n">
-        <v>453</v>
-      </c>
-      <c r="E4" t="n">
-        <v>453</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2053.3665</v>
-      </c>
-      <c r="G4" t="n">
-        <v>465.5666666666666</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>456</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>453</v>
-      </c>
-      <c r="C5" t="n">
-        <v>455</v>
-      </c>
-      <c r="D5" t="n">
-        <v>455</v>
-      </c>
-      <c r="E5" t="n">
-        <v>453</v>
-      </c>
-      <c r="F5" t="n">
-        <v>502.8001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>465.0216666666666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>453</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>452.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>454.9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>454.9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>452.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1450.0294</v>
-      </c>
-      <c r="G6" t="n">
-        <v>464.3366666666666</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -630,31 +634,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>451</v>
+        <v>452.2</v>
       </c>
       <c r="C7" t="n">
-        <v>448.7</v>
+        <v>454.9</v>
       </c>
       <c r="D7" t="n">
-        <v>451</v>
+        <v>454.9</v>
       </c>
       <c r="E7" t="n">
-        <v>448.7</v>
+        <v>452.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1424.2599</v>
+        <v>1450.0294</v>
       </c>
       <c r="G7" t="n">
-        <v>463.605</v>
+        <v>464.3366666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>455</v>
+      </c>
+      <c r="K7" t="n">
+        <v>452</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -669,31 +677,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>453.9</v>
+        <v>451</v>
       </c>
       <c r="C8" t="n">
-        <v>455</v>
+        <v>448.7</v>
       </c>
       <c r="D8" t="n">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E8" t="n">
-        <v>452.7</v>
+        <v>448.7</v>
       </c>
       <c r="F8" t="n">
-        <v>990.539</v>
+        <v>1424.2599</v>
       </c>
       <c r="G8" t="n">
-        <v>463.05</v>
+        <v>463.605</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>452</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -708,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>453.8</v>
+        <v>453.9</v>
       </c>
       <c r="C9" t="n">
-        <v>453.8</v>
+        <v>455</v>
       </c>
       <c r="D9" t="n">
-        <v>453.8</v>
+        <v>455</v>
       </c>
       <c r="E9" t="n">
-        <v>453.8</v>
+        <v>452.7</v>
       </c>
       <c r="F9" t="n">
-        <v>85.7</v>
+        <v>990.539</v>
       </c>
       <c r="G9" t="n">
-        <v>462.57</v>
+        <v>463.05</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -732,7 +744,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>452</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -747,22 +761,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456</v>
+        <v>453.8</v>
       </c>
       <c r="C10" t="n">
-        <v>456</v>
+        <v>453.8</v>
       </c>
       <c r="D10" t="n">
-        <v>456</v>
+        <v>453.8</v>
       </c>
       <c r="E10" t="n">
-        <v>456</v>
+        <v>453.8</v>
       </c>
       <c r="F10" t="n">
-        <v>577.8493999999999</v>
+        <v>85.7</v>
       </c>
       <c r="G10" t="n">
-        <v>462.1366666666667</v>
+        <v>462.57</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -771,7 +785,9 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>452</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -786,22 +802,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>458.5</v>
+        <v>456</v>
       </c>
       <c r="C11" t="n">
-        <v>458.5</v>
+        <v>456</v>
       </c>
       <c r="D11" t="n">
-        <v>458.5</v>
+        <v>456</v>
       </c>
       <c r="E11" t="n">
-        <v>458.5</v>
+        <v>456</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>577.8493999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>461.735</v>
+        <v>462.1366666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -810,7 +826,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>452</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -837,10 +855,10 @@
         <v>458.5</v>
       </c>
       <c r="F12" t="n">
-        <v>336.2973</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>461.3766666666667</v>
+        <v>461.735</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -849,7 +867,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>452</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -864,22 +884,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>460.5</v>
+        <v>458.5</v>
       </c>
       <c r="C13" t="n">
-        <v>460.5</v>
+        <v>458.5</v>
       </c>
       <c r="D13" t="n">
-        <v>460.5</v>
+        <v>458.5</v>
       </c>
       <c r="E13" t="n">
-        <v>460.5</v>
+        <v>458.5</v>
       </c>
       <c r="F13" t="n">
-        <v>693.2079</v>
+        <v>336.2973</v>
       </c>
       <c r="G13" t="n">
-        <v>461.1183333333334</v>
+        <v>461.3766666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -888,7 +908,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>452</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -903,22 +925,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>460.6</v>
+        <v>460.5</v>
       </c>
       <c r="C14" t="n">
-        <v>460.6</v>
+        <v>460.5</v>
       </c>
       <c r="D14" t="n">
-        <v>460.6</v>
+        <v>460.5</v>
       </c>
       <c r="E14" t="n">
-        <v>460.6</v>
+        <v>460.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1</v>
+        <v>693.2079</v>
       </c>
       <c r="G14" t="n">
-        <v>460.7633333333333</v>
+        <v>461.1183333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -927,7 +949,9 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>452</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -945,19 +969,19 @@
         <v>460.6</v>
       </c>
       <c r="C15" t="n">
-        <v>461</v>
+        <v>460.6</v>
       </c>
       <c r="D15" t="n">
-        <v>461</v>
+        <v>460.6</v>
       </c>
       <c r="E15" t="n">
         <v>460.6</v>
       </c>
       <c r="F15" t="n">
-        <v>140</v>
+        <v>1.1</v>
       </c>
       <c r="G15" t="n">
-        <v>460.18</v>
+        <v>460.7633333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -966,7 +990,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>452</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -981,22 +1007,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459</v>
+        <v>460.6</v>
       </c>
       <c r="C16" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D16" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E16" t="n">
-        <v>459</v>
+        <v>460.6</v>
       </c>
       <c r="F16" t="n">
-        <v>63.9618</v>
+        <v>140</v>
       </c>
       <c r="G16" t="n">
-        <v>459.8633333333333</v>
+        <v>460.18</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1005,7 +1031,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>452</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1032,10 +1060,10 @@
         <v>459</v>
       </c>
       <c r="F17" t="n">
-        <v>282.9821</v>
+        <v>63.9618</v>
       </c>
       <c r="G17" t="n">
-        <v>459.4966666666667</v>
+        <v>459.8633333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1044,7 +1072,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>452</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1071,10 +1101,10 @@
         <v>459</v>
       </c>
       <c r="F18" t="n">
-        <v>90.3994</v>
+        <v>282.9821</v>
       </c>
       <c r="G18" t="n">
-        <v>459.13</v>
+        <v>459.4966666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1083,7 +1113,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>452</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1110,10 +1142,10 @@
         <v>459</v>
       </c>
       <c r="F19" t="n">
-        <v>421.7501</v>
+        <v>90.3994</v>
       </c>
       <c r="G19" t="n">
-        <v>458.78</v>
+        <v>459.13</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1122,7 +1154,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>452</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1137,22 +1171,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C20" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D20" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E20" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F20" t="n">
-        <v>34.4644</v>
+        <v>421.7501</v>
       </c>
       <c r="G20" t="n">
-        <v>458.6133333333333</v>
+        <v>458.78</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1161,7 +1195,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>452</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1176,22 +1212,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C21" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D21" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E21" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>34.4644</v>
       </c>
       <c r="G21" t="n">
-        <v>458.2166666666666</v>
+        <v>458.6133333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1200,7 +1236,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>452</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1215,22 +1253,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C22" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D22" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E22" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F22" t="n">
-        <v>635.8735</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>458.24</v>
+        <v>458.2166666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1239,7 +1277,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>452</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1254,22 +1294,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>456.5</v>
+        <v>460</v>
       </c>
       <c r="C23" t="n">
-        <v>456.5</v>
+        <v>458</v>
       </c>
       <c r="D23" t="n">
-        <v>456.5</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>456.5</v>
+        <v>458</v>
       </c>
       <c r="F23" t="n">
-        <v>1657.491</v>
+        <v>635.8735</v>
       </c>
       <c r="G23" t="n">
-        <v>458.05</v>
+        <v>458.24</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1278,7 +1318,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>452</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1293,22 +1335,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>459.9</v>
+        <v>456.5</v>
       </c>
       <c r="C24" t="n">
-        <v>460</v>
+        <v>456.5</v>
       </c>
       <c r="D24" t="n">
-        <v>460</v>
+        <v>456.5</v>
       </c>
       <c r="E24" t="n">
-        <v>459</v>
+        <v>456.5</v>
       </c>
       <c r="F24" t="n">
-        <v>435.16721738</v>
+        <v>1657.491</v>
       </c>
       <c r="G24" t="n">
-        <v>458.0466666666667</v>
+        <v>458.05</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1317,7 +1359,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>452</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1332,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>459</v>
+        <v>459.9</v>
       </c>
       <c r="C25" t="n">
         <v>460</v>
@@ -1344,10 +1388,10 @@
         <v>459</v>
       </c>
       <c r="F25" t="n">
-        <v>2942.8518</v>
+        <v>435.16721738</v>
       </c>
       <c r="G25" t="n">
-        <v>457.865</v>
+        <v>458.0466666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1356,7 +1400,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>452</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1371,22 +1417,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>461.9</v>
+        <v>459</v>
       </c>
       <c r="C26" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D26" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E26" t="n">
-        <v>461.9</v>
+        <v>459</v>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>2942.8518</v>
       </c>
       <c r="G26" t="n">
-        <v>458.0233333333333</v>
+        <v>457.865</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1395,7 +1441,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>452</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1410,22 +1458,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>461.9</v>
+      </c>
+      <c r="C27" t="n">
         <v>463</v>
       </c>
-      <c r="C27" t="n">
-        <v>468.9</v>
-      </c>
       <c r="D27" t="n">
-        <v>468.9</v>
+        <v>463</v>
       </c>
       <c r="E27" t="n">
-        <v>463</v>
+        <v>461.9</v>
       </c>
       <c r="F27" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>458.0216666666666</v>
+        <v>458.0233333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1434,7 +1482,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>452</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1449,22 +1499,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C28" t="n">
-        <v>469</v>
+        <v>468.9</v>
       </c>
       <c r="D28" t="n">
-        <v>469</v>
+        <v>468.9</v>
       </c>
       <c r="E28" t="n">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F28" t="n">
-        <v>2.339</v>
+        <v>120</v>
       </c>
       <c r="G28" t="n">
-        <v>458.1383333333333</v>
+        <v>458.0216666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1473,7 +1523,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>452</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1491,19 +1543,19 @@
         <v>469</v>
       </c>
       <c r="C29" t="n">
-        <v>466.1</v>
+        <v>469</v>
       </c>
       <c r="D29" t="n">
         <v>469</v>
       </c>
       <c r="E29" t="n">
-        <v>465.1</v>
+        <v>469</v>
       </c>
       <c r="F29" t="n">
-        <v>1222.6059</v>
+        <v>2.339</v>
       </c>
       <c r="G29" t="n">
-        <v>458.1066666666666</v>
+        <v>458.1383333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1512,7 +1564,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>452</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1527,22 +1581,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C30" t="n">
-        <v>465</v>
+        <v>466.1</v>
       </c>
       <c r="D30" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E30" t="n">
-        <v>465</v>
+        <v>465.1</v>
       </c>
       <c r="F30" t="n">
-        <v>338.1418</v>
+        <v>1222.6059</v>
       </c>
       <c r="G30" t="n">
-        <v>458.04</v>
+        <v>458.1066666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1551,7 +1605,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>452</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1566,7 +1622,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C31" t="n">
         <v>465</v>
@@ -1578,10 +1634,10 @@
         <v>465</v>
       </c>
       <c r="F31" t="n">
-        <v>2568.9158</v>
+        <v>338.1418</v>
       </c>
       <c r="G31" t="n">
-        <v>458.0249999999999</v>
+        <v>458.04</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1590,7 +1646,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>452</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1605,22 +1663,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C32" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D32" t="n">
         <v>466</v>
       </c>
       <c r="E32" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F32" t="n">
-        <v>439.0842</v>
+        <v>2568.9158</v>
       </c>
       <c r="G32" t="n">
-        <v>458.0266666666666</v>
+        <v>458.0249999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1629,7 +1687,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>452</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1656,10 +1716,10 @@
         <v>466</v>
       </c>
       <c r="F33" t="n">
-        <v>160</v>
+        <v>439.0842</v>
       </c>
       <c r="G33" t="n">
-        <v>458.0816666666666</v>
+        <v>458.0266666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1668,7 +1728,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>452</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1686,19 +1748,19 @@
         <v>466</v>
       </c>
       <c r="C34" t="n">
-        <v>465.5</v>
+        <v>466</v>
       </c>
       <c r="D34" t="n">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E34" t="n">
-        <v>465.5</v>
+        <v>466</v>
       </c>
       <c r="F34" t="n">
-        <v>1655.3965</v>
+        <v>160</v>
       </c>
       <c r="G34" t="n">
-        <v>458.1066666666666</v>
+        <v>458.0816666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1707,7 +1769,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>452</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1722,22 +1786,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C35" t="n">
-        <v>470.9</v>
+        <v>465.5</v>
       </c>
       <c r="D35" t="n">
-        <v>470.9</v>
+        <v>470</v>
       </c>
       <c r="E35" t="n">
         <v>465.5</v>
       </c>
       <c r="F35" t="n">
-        <v>2947.2867</v>
+        <v>1655.3965</v>
       </c>
       <c r="G35" t="n">
-        <v>458.2883333333332</v>
+        <v>458.1066666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1746,7 +1810,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>452</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1761,7 +1827,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>467.5</v>
+        <v>467</v>
       </c>
       <c r="C36" t="n">
         <v>470.9</v>
@@ -1770,13 +1836,13 @@
         <v>470.9</v>
       </c>
       <c r="E36" t="n">
-        <v>467.5</v>
+        <v>465.5</v>
       </c>
       <c r="F36" t="n">
-        <v>120</v>
+        <v>2947.2867</v>
       </c>
       <c r="G36" t="n">
-        <v>458.4366666666666</v>
+        <v>458.2883333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1785,7 +1851,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>452</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1800,7 +1868,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>470.9</v>
+        <v>467.5</v>
       </c>
       <c r="C37" t="n">
         <v>470.9</v>
@@ -1809,13 +1877,13 @@
         <v>470.9</v>
       </c>
       <c r="E37" t="n">
-        <v>470.9</v>
+        <v>467.5</v>
       </c>
       <c r="F37" t="n">
-        <v>10.61796559</v>
+        <v>120</v>
       </c>
       <c r="G37" t="n">
-        <v>458.5566666666666</v>
+        <v>458.4366666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1824,7 +1892,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>452</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1839,22 +1909,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>466.1</v>
+        <v>470.9</v>
       </c>
       <c r="C38" t="n">
-        <v>465.5</v>
+        <v>470.9</v>
       </c>
       <c r="D38" t="n">
-        <v>470</v>
+        <v>470.9</v>
       </c>
       <c r="E38" t="n">
-        <v>465.5</v>
+        <v>470.9</v>
       </c>
       <c r="F38" t="n">
-        <v>314.3944</v>
+        <v>10.61796559</v>
       </c>
       <c r="G38" t="n">
-        <v>458.59</v>
+        <v>458.5566666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1863,7 +1933,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>452</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1878,22 +1950,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>468</v>
+        <v>466.1</v>
       </c>
       <c r="C39" t="n">
-        <v>467</v>
+        <v>465.5</v>
       </c>
       <c r="D39" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>467</v>
+        <v>465.5</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>314.3944</v>
       </c>
       <c r="G39" t="n">
-        <v>458.6483333333333</v>
+        <v>458.59</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1902,7 +1974,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>452</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1917,22 +1991,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>465.5</v>
+        <v>468</v>
       </c>
       <c r="C40" t="n">
-        <v>464.5</v>
+        <v>467</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5</v>
+        <v>468</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5</v>
+        <v>467</v>
       </c>
       <c r="F40" t="n">
-        <v>384.6514</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>458.6733333333333</v>
+        <v>458.6483333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1941,7 +2015,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>452</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1956,22 +2032,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>464.5</v>
+        <v>465.5</v>
       </c>
       <c r="C41" t="n">
         <v>464.5</v>
       </c>
       <c r="D41" t="n">
-        <v>464.5</v>
+        <v>465.5</v>
       </c>
       <c r="E41" t="n">
         <v>464.5</v>
       </c>
       <c r="F41" t="n">
-        <v>3658.1671</v>
+        <v>384.6514</v>
       </c>
       <c r="G41" t="n">
-        <v>458.665</v>
+        <v>458.6733333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1980,7 +2056,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>452</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2007,10 +2085,10 @@
         <v>464.5</v>
       </c>
       <c r="F42" t="n">
-        <v>453.8673</v>
+        <v>3658.1671</v>
       </c>
       <c r="G42" t="n">
-        <v>458.7566666666666</v>
+        <v>458.665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2019,7 +2097,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>452</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2034,22 +2114,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>461</v>
+        <v>464.5</v>
       </c>
       <c r="C43" t="n">
-        <v>461</v>
+        <v>464.5</v>
       </c>
       <c r="D43" t="n">
-        <v>461</v>
+        <v>464.5</v>
       </c>
       <c r="E43" t="n">
-        <v>461</v>
+        <v>464.5</v>
       </c>
       <c r="F43" t="n">
-        <v>79.9907</v>
+        <v>453.8673</v>
       </c>
       <c r="G43" t="n">
-        <v>458.7733333333333</v>
+        <v>458.7566666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2058,7 +2138,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>452</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2073,22 +2155,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>464.6</v>
+        <v>461</v>
       </c>
       <c r="C44" t="n">
-        <v>464.6</v>
+        <v>461</v>
       </c>
       <c r="D44" t="n">
-        <v>464.6</v>
+        <v>461</v>
       </c>
       <c r="E44" t="n">
-        <v>464.6</v>
+        <v>461</v>
       </c>
       <c r="F44" t="n">
-        <v>1.1</v>
+        <v>79.9907</v>
       </c>
       <c r="G44" t="n">
-        <v>458.9166666666666</v>
+        <v>458.7733333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2097,7 +2179,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>452</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2112,22 +2196,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>462</v>
+        <v>464.6</v>
       </c>
       <c r="C45" t="n">
-        <v>461</v>
+        <v>464.6</v>
       </c>
       <c r="D45" t="n">
-        <v>462</v>
+        <v>464.6</v>
       </c>
       <c r="E45" t="n">
-        <v>461</v>
+        <v>464.6</v>
       </c>
       <c r="F45" t="n">
-        <v>148.8321</v>
+        <v>1.1</v>
       </c>
       <c r="G45" t="n">
-        <v>458.8849999999999</v>
+        <v>458.9166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2136,7 +2220,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>452</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2154,19 +2240,19 @@
         <v>462</v>
       </c>
       <c r="C46" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D46" t="n">
         <v>462</v>
       </c>
       <c r="E46" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F46" t="n">
-        <v>49.5217</v>
+        <v>148.8321</v>
       </c>
       <c r="G46" t="n">
-        <v>458.8749999999999</v>
+        <v>458.8849999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2175,7 +2261,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>452</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2202,10 +2290,10 @@
         <v>462</v>
       </c>
       <c r="F47" t="n">
-        <v>42.0397</v>
+        <v>49.5217</v>
       </c>
       <c r="G47" t="n">
-        <v>458.975</v>
+        <v>458.8749999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2214,7 +2302,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>452</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2229,22 +2319,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C48" t="n">
-        <v>464.6</v>
+        <v>462</v>
       </c>
       <c r="D48" t="n">
-        <v>464.6</v>
+        <v>462</v>
       </c>
       <c r="E48" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>42.0397</v>
       </c>
       <c r="G48" t="n">
-        <v>459.1366666666665</v>
+        <v>458.975</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2253,7 +2343,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>452</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2268,22 +2360,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>463</v>
+      </c>
+      <c r="C49" t="n">
         <v>464.6</v>
       </c>
-      <c r="C49" t="n">
-        <v>467.9</v>
-      </c>
       <c r="D49" t="n">
-        <v>467.9</v>
+        <v>464.6</v>
       </c>
       <c r="E49" t="n">
-        <v>464.6</v>
+        <v>463</v>
       </c>
       <c r="F49" t="n">
-        <v>88.0992</v>
+        <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>459.3516666666666</v>
+        <v>459.1366666666665</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2292,7 +2384,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>452</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2307,7 +2401,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>466.9</v>
+        <v>464.6</v>
       </c>
       <c r="C50" t="n">
         <v>467.9</v>
@@ -2316,13 +2410,13 @@
         <v>467.9</v>
       </c>
       <c r="E50" t="n">
-        <v>466.9</v>
+        <v>464.6</v>
       </c>
       <c r="F50" t="n">
-        <v>449.6722</v>
+        <v>88.0992</v>
       </c>
       <c r="G50" t="n">
-        <v>459.6</v>
+        <v>459.3516666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2331,7 +2425,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>452</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2346,22 +2442,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>469</v>
+        <v>466.9</v>
       </c>
       <c r="C51" t="n">
-        <v>475.8</v>
+        <v>467.9</v>
       </c>
       <c r="D51" t="n">
-        <v>475.8</v>
+        <v>467.9</v>
       </c>
       <c r="E51" t="n">
-        <v>469</v>
+        <v>466.9</v>
       </c>
       <c r="F51" t="n">
-        <v>465.0703</v>
+        <v>449.6722</v>
       </c>
       <c r="G51" t="n">
-        <v>459.9983333333332</v>
+        <v>459.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2370,7 +2466,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>452</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2385,22 +2483,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>475.9</v>
+        <v>469</v>
       </c>
       <c r="C52" t="n">
-        <v>478</v>
+        <v>475.8</v>
       </c>
       <c r="D52" t="n">
-        <v>479</v>
+        <v>475.8</v>
       </c>
       <c r="E52" t="n">
-        <v>475.9</v>
+        <v>469</v>
       </c>
       <c r="F52" t="n">
-        <v>2791.1452</v>
+        <v>465.0703</v>
       </c>
       <c r="G52" t="n">
-        <v>460.4966666666666</v>
+        <v>459.9983333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2409,7 +2507,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>452</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2424,22 +2524,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>491.8</v>
+        <v>475.9</v>
       </c>
       <c r="C53" t="n">
-        <v>491.8</v>
+        <v>478</v>
       </c>
       <c r="D53" t="n">
-        <v>491.8</v>
+        <v>479</v>
       </c>
       <c r="E53" t="n">
-        <v>491.8</v>
+        <v>475.9</v>
       </c>
       <c r="F53" t="n">
-        <v>1.11</v>
+        <v>2791.1452</v>
       </c>
       <c r="G53" t="n">
-        <v>461.225</v>
+        <v>460.4966666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2448,7 +2548,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>452</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2463,22 +2565,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>477</v>
+        <v>491.8</v>
       </c>
       <c r="C54" t="n">
-        <v>477</v>
+        <v>491.8</v>
       </c>
       <c r="D54" t="n">
-        <v>477</v>
+        <v>491.8</v>
       </c>
       <c r="E54" t="n">
-        <v>477</v>
+        <v>491.8</v>
       </c>
       <c r="F54" t="n">
-        <v>49.6813</v>
+        <v>1.11</v>
       </c>
       <c r="G54" t="n">
-        <v>461.6783333333333</v>
+        <v>461.225</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2487,7 +2589,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>452</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2502,22 +2606,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>481.9</v>
+        <v>477</v>
       </c>
       <c r="C55" t="n">
-        <v>481.9</v>
+        <v>477</v>
       </c>
       <c r="D55" t="n">
-        <v>481.9</v>
+        <v>477</v>
       </c>
       <c r="E55" t="n">
-        <v>481.9</v>
+        <v>477</v>
       </c>
       <c r="F55" t="n">
-        <v>3.654</v>
+        <v>49.6813</v>
       </c>
       <c r="G55" t="n">
-        <v>462.2133333333333</v>
+        <v>461.6783333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2526,41 +2630,45 @@
         <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>452</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1.050309734513274</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>481</v>
+        <v>481.9</v>
       </c>
       <c r="C56" t="n">
-        <v>481</v>
+        <v>481.9</v>
       </c>
       <c r="D56" t="n">
-        <v>481</v>
+        <v>481.9</v>
       </c>
       <c r="E56" t="n">
-        <v>481</v>
+        <v>481.9</v>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>3.654</v>
       </c>
       <c r="G56" t="n">
-        <v>462.735</v>
+        <v>462.2133333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2586,16 +2694,16 @@
         <v>481</v>
       </c>
       <c r="F57" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G57" t="n">
-        <v>463.2566666666666</v>
+        <v>462.735</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2609,28 +2717,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C58" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D58" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E58" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F58" t="n">
-        <v>643.3691</v>
+        <v>80</v>
       </c>
       <c r="G58" t="n">
-        <v>463.7883333333333</v>
+        <v>463.2566666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2644,7 +2752,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C59" t="n">
         <v>482</v>
@@ -2653,13 +2761,13 @@
         <v>482</v>
       </c>
       <c r="E59" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F59" t="n">
-        <v>120.9211</v>
+        <v>643.3691</v>
       </c>
       <c r="G59" t="n">
-        <v>464.3866666666667</v>
+        <v>463.7883333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2691,10 +2799,10 @@
         <v>482</v>
       </c>
       <c r="F60" t="n">
-        <v>1599.7531</v>
+        <v>120.9211</v>
       </c>
       <c r="G60" t="n">
-        <v>464.8616666666667</v>
+        <v>464.3866666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2726,10 +2834,10 @@
         <v>482</v>
       </c>
       <c r="F61" t="n">
-        <v>597.6312</v>
+        <v>1599.7531</v>
       </c>
       <c r="G61" t="n">
-        <v>465.3616666666667</v>
+        <v>464.8616666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2752,19 +2860,19 @@
         <v>482</v>
       </c>
       <c r="C62" t="n">
-        <v>481.1</v>
+        <v>482</v>
       </c>
       <c r="D62" t="n">
         <v>482</v>
       </c>
       <c r="E62" t="n">
-        <v>481.1</v>
+        <v>482</v>
       </c>
       <c r="F62" t="n">
-        <v>334.3841</v>
+        <v>597.6312</v>
       </c>
       <c r="G62" t="n">
-        <v>465.7133333333333</v>
+        <v>465.3616666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2784,22 +2892,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>480.1</v>
+        <v>482</v>
       </c>
       <c r="C63" t="n">
-        <v>476</v>
+        <v>481.1</v>
       </c>
       <c r="D63" t="n">
         <v>482</v>
       </c>
       <c r="E63" t="n">
-        <v>476</v>
+        <v>481.1</v>
       </c>
       <c r="F63" t="n">
-        <v>122</v>
+        <v>334.3841</v>
       </c>
       <c r="G63" t="n">
-        <v>466.0466666666667</v>
+        <v>465.7133333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2819,22 +2927,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>482</v>
+        <v>480.1</v>
       </c>
       <c r="C64" t="n">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
         <v>482</v>
       </c>
       <c r="E64" t="n">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
-        <v>466.53</v>
+        <v>466.0466666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2854,22 +2962,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C65" t="n">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D65" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="E65" t="n">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="F65" t="n">
-        <v>93.6618</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>466.78</v>
+        <v>466.53</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2889,22 +2997,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C66" t="n">
         <v>470</v>
       </c>
       <c r="D66" t="n">
+        <v>472</v>
+      </c>
+      <c r="E66" t="n">
         <v>470</v>
       </c>
-      <c r="E66" t="n">
-        <v>468</v>
-      </c>
       <c r="F66" t="n">
-        <v>1460.3172</v>
+        <v>93.6618</v>
       </c>
       <c r="G66" t="n">
-        <v>467.0316666666666</v>
+        <v>466.78</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2924,22 +3032,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C67" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D67" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E67" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F67" t="n">
-        <v>92.3455</v>
+        <v>1460.3172</v>
       </c>
       <c r="G67" t="n">
-        <v>467.3699999999999</v>
+        <v>467.0316666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2959,22 +3067,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C68" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D68" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E68" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F68" t="n">
-        <v>85.477</v>
+        <v>92.3455</v>
       </c>
       <c r="G68" t="n">
-        <v>467.5866666666666</v>
+        <v>467.3699999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3006,10 +3114,10 @@
         <v>468</v>
       </c>
       <c r="F69" t="n">
-        <v>8.5197</v>
+        <v>85.477</v>
       </c>
       <c r="G69" t="n">
-        <v>467.8233333333333</v>
+        <v>467.5866666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3041,10 +3149,10 @@
         <v>468</v>
       </c>
       <c r="F70" t="n">
-        <v>253.4995</v>
+        <v>8.5197</v>
       </c>
       <c r="G70" t="n">
-        <v>468.0233333333333</v>
+        <v>467.8233333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3064,22 +3172,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>475.8</v>
+        <v>468</v>
       </c>
       <c r="C71" t="n">
-        <v>475.8</v>
+        <v>468</v>
       </c>
       <c r="D71" t="n">
-        <v>475.8</v>
+        <v>468</v>
       </c>
       <c r="E71" t="n">
-        <v>475.8</v>
+        <v>468</v>
       </c>
       <c r="F71" t="n">
-        <v>1.1</v>
+        <v>253.4995</v>
       </c>
       <c r="G71" t="n">
-        <v>468.3116666666666</v>
+        <v>468.0233333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3099,22 +3207,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>465.2</v>
+        <v>475.8</v>
       </c>
       <c r="C72" t="n">
-        <v>465.2</v>
+        <v>475.8</v>
       </c>
       <c r="D72" t="n">
-        <v>465.2</v>
+        <v>475.8</v>
       </c>
       <c r="E72" t="n">
-        <v>465.2</v>
+        <v>475.8</v>
       </c>
       <c r="F72" t="n">
-        <v>119.8806</v>
+        <v>1.1</v>
       </c>
       <c r="G72" t="n">
-        <v>468.4233333333333</v>
+        <v>468.3116666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3134,22 +3242,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>474.8</v>
+        <v>465.2</v>
       </c>
       <c r="C73" t="n">
-        <v>474.8</v>
+        <v>465.2</v>
       </c>
       <c r="D73" t="n">
-        <v>474.8</v>
+        <v>465.2</v>
       </c>
       <c r="E73" t="n">
-        <v>474.8</v>
+        <v>465.2</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>119.8806</v>
       </c>
       <c r="G73" t="n">
-        <v>468.6616666666666</v>
+        <v>468.4233333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3169,22 +3277,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>475.8</v>
+        <v>474.8</v>
       </c>
       <c r="C74" t="n">
-        <v>475.8</v>
+        <v>474.8</v>
       </c>
       <c r="D74" t="n">
-        <v>475.8</v>
+        <v>474.8</v>
       </c>
       <c r="E74" t="n">
-        <v>475.8</v>
+        <v>474.8</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>468.915</v>
+        <v>468.6616666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3204,22 +3312,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>475</v>
+        <v>475.8</v>
       </c>
       <c r="C75" t="n">
-        <v>469</v>
+        <v>475.8</v>
       </c>
       <c r="D75" t="n">
-        <v>479</v>
+        <v>475.8</v>
       </c>
       <c r="E75" t="n">
-        <v>466.2</v>
+        <v>475.8</v>
       </c>
       <c r="F75" t="n">
-        <v>1563.7498</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>469.0483333333333</v>
+        <v>468.915</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3239,22 +3347,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>477.9</v>
+        <v>475</v>
       </c>
       <c r="C76" t="n">
-        <v>477.9</v>
+        <v>469</v>
       </c>
       <c r="D76" t="n">
-        <v>477.9</v>
+        <v>479</v>
       </c>
       <c r="E76" t="n">
-        <v>477.9</v>
+        <v>466.2</v>
       </c>
       <c r="F76" t="n">
-        <v>1.1</v>
+        <v>1563.7498</v>
       </c>
       <c r="G76" t="n">
-        <v>469.3633333333333</v>
+        <v>469.0483333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3274,22 +3382,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>477</v>
+        <v>477.9</v>
       </c>
       <c r="C77" t="n">
-        <v>477</v>
+        <v>477.9</v>
       </c>
       <c r="D77" t="n">
-        <v>477</v>
+        <v>477.9</v>
       </c>
       <c r="E77" t="n">
-        <v>477</v>
+        <v>477.9</v>
       </c>
       <c r="F77" t="n">
-        <v>1132</v>
+        <v>1.1</v>
       </c>
       <c r="G77" t="n">
-        <v>469.6633333333333</v>
+        <v>469.3633333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3309,22 +3417,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C78" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D78" t="n">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E78" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F78" t="n">
-        <v>1739.6031</v>
+        <v>1132</v>
       </c>
       <c r="G78" t="n">
-        <v>469.8466666666666</v>
+        <v>469.6633333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3344,22 +3452,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C79" t="n">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D79" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E79" t="n">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F79" t="n">
-        <v>787</v>
+        <v>1739.6031</v>
       </c>
       <c r="G79" t="n">
-        <v>470.23</v>
+        <v>469.8466666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3379,22 +3487,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C80" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D80" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E80" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>787</v>
       </c>
       <c r="G80" t="n">
-        <v>470.4966666666667</v>
+        <v>470.23</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3414,22 +3522,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C81" t="n">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D81" t="n">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E81" t="n">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F81" t="n">
-        <v>951</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>470.8466666666666</v>
+        <v>470.4966666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3452,19 +3560,19 @@
         <v>482</v>
       </c>
       <c r="C82" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D82" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E82" t="n">
         <v>482</v>
       </c>
       <c r="F82" t="n">
-        <v>1403.7738</v>
+        <v>951</v>
       </c>
       <c r="G82" t="n">
-        <v>471.2633333333333</v>
+        <v>470.8466666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3484,22 +3592,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>482</v>
+      </c>
+      <c r="C83" t="n">
         <v>483</v>
       </c>
-      <c r="C83" t="n">
-        <v>484</v>
-      </c>
       <c r="D83" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E83" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F83" t="n">
-        <v>1046.5009</v>
+        <v>1403.7738</v>
       </c>
       <c r="G83" t="n">
-        <v>471.7216666666666</v>
+        <v>471.2633333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3519,22 +3627,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C84" t="n">
         <v>484</v>
       </c>
       <c r="D84" t="n">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E84" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F84" t="n">
-        <v>1074.8758</v>
+        <v>1046.5009</v>
       </c>
       <c r="G84" t="n">
-        <v>472.1216666666667</v>
+        <v>471.7216666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3554,22 +3662,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C85" t="n">
         <v>484</v>
       </c>
       <c r="D85" t="n">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E85" t="n">
         <v>484</v>
       </c>
       <c r="F85" t="n">
-        <v>64.50490000000001</v>
+        <v>1074.8758</v>
       </c>
       <c r="G85" t="n">
-        <v>472.5216666666666</v>
+        <v>472.1216666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3589,22 +3697,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C86" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D86" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E86" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F86" t="n">
-        <v>30.9011</v>
+        <v>64.50490000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>472.9383333333333</v>
+        <v>472.5216666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3624,22 +3732,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C87" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D87" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E87" t="n">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="F87" t="n">
-        <v>84.7174</v>
+        <v>30.9011</v>
       </c>
       <c r="G87" t="n">
-        <v>473.24</v>
+        <v>472.9383333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3659,7 +3767,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C88" t="n">
         <v>487</v>
@@ -3668,13 +3776,13 @@
         <v>487</v>
       </c>
       <c r="E88" t="n">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F88" t="n">
-        <v>11.5218</v>
+        <v>84.7174</v>
       </c>
       <c r="G88" t="n">
-        <v>473.54</v>
+        <v>473.24</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3694,22 +3802,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C89" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D89" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E89" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F89" t="n">
-        <v>168.3371</v>
+        <v>11.5218</v>
       </c>
       <c r="G89" t="n">
-        <v>473.8716666666667</v>
+        <v>473.54</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3729,22 +3837,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>489.9</v>
+        <v>486</v>
       </c>
       <c r="C90" t="n">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D90" t="n">
-        <v>489.9</v>
+        <v>486</v>
       </c>
       <c r="E90" t="n">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F90" t="n">
-        <v>1641.6896</v>
+        <v>168.3371</v>
       </c>
       <c r="G90" t="n">
-        <v>474.055</v>
+        <v>473.8716666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3764,22 +3872,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>486</v>
+        <v>489.9</v>
       </c>
       <c r="C91" t="n">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D91" t="n">
-        <v>489</v>
+        <v>489.9</v>
       </c>
       <c r="E91" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F91" t="n">
-        <v>520</v>
+        <v>1641.6896</v>
       </c>
       <c r="G91" t="n">
-        <v>474.455</v>
+        <v>474.055</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3799,22 +3907,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>490.9</v>
+        <v>486</v>
       </c>
       <c r="C92" t="n">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D92" t="n">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E92" t="n">
-        <v>490.9</v>
+        <v>486</v>
       </c>
       <c r="F92" t="n">
-        <v>850</v>
+        <v>520</v>
       </c>
       <c r="G92" t="n">
-        <v>474.8883333333333</v>
+        <v>474.455</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3834,7 +3942,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>492</v>
+        <v>490.9</v>
       </c>
       <c r="C93" t="n">
         <v>492</v>
@@ -3843,13 +3951,13 @@
         <v>492</v>
       </c>
       <c r="E93" t="n">
-        <v>492</v>
+        <v>490.9</v>
       </c>
       <c r="F93" t="n">
-        <v>30.5897</v>
+        <v>850</v>
       </c>
       <c r="G93" t="n">
-        <v>475.3216666666667</v>
+        <v>474.8883333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3869,22 +3977,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C94" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D94" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E94" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F94" t="n">
-        <v>639</v>
+        <v>30.5897</v>
       </c>
       <c r="G94" t="n">
-        <v>475.78</v>
+        <v>475.3216666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3907,19 +4015,19 @@
         <v>493</v>
       </c>
       <c r="C95" t="n">
-        <v>493.2</v>
+        <v>493</v>
       </c>
       <c r="D95" t="n">
-        <v>493.2</v>
+        <v>493</v>
       </c>
       <c r="E95" t="n">
         <v>493</v>
       </c>
       <c r="F95" t="n">
-        <v>900</v>
+        <v>639</v>
       </c>
       <c r="G95" t="n">
-        <v>476.1516666666666</v>
+        <v>475.78</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3939,22 +4047,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C96" t="n">
-        <v>488</v>
+        <v>493.2</v>
       </c>
       <c r="D96" t="n">
-        <v>488</v>
+        <v>493.2</v>
       </c>
       <c r="E96" t="n">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="F96" t="n">
-        <v>350.9527</v>
+        <v>900</v>
       </c>
       <c r="G96" t="n">
-        <v>476.4366666666666</v>
+        <v>476.1516666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3974,22 +4082,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C97" t="n">
-        <v>495.2</v>
+        <v>488</v>
       </c>
       <c r="D97" t="n">
-        <v>495.2</v>
+        <v>488</v>
       </c>
       <c r="E97" t="n">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F97" t="n">
-        <v>2083.1087</v>
+        <v>350.9527</v>
       </c>
       <c r="G97" t="n">
-        <v>476.8416666666666</v>
+        <v>476.4366666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4012,19 +4120,19 @@
         <v>490</v>
       </c>
       <c r="C98" t="n">
-        <v>496.2</v>
+        <v>495.2</v>
       </c>
       <c r="D98" t="n">
-        <v>496.2</v>
+        <v>495.2</v>
       </c>
       <c r="E98" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F98" t="n">
-        <v>623.3674999999999</v>
+        <v>2083.1087</v>
       </c>
       <c r="G98" t="n">
-        <v>477.3533333333333</v>
+        <v>476.8416666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4044,22 +4152,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>495.2</v>
+        <v>490</v>
       </c>
       <c r="C99" t="n">
-        <v>495.2</v>
+        <v>496.2</v>
       </c>
       <c r="D99" t="n">
         <v>496.2</v>
       </c>
       <c r="E99" t="n">
-        <v>495.2</v>
+        <v>489</v>
       </c>
       <c r="F99" t="n">
-        <v>298</v>
+        <v>623.3674999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>477.8233333333333</v>
+        <v>477.3533333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4082,19 +4190,19 @@
         <v>495.2</v>
       </c>
       <c r="C100" t="n">
-        <v>491</v>
+        <v>495.2</v>
       </c>
       <c r="D100" t="n">
-        <v>499</v>
+        <v>496.2</v>
       </c>
       <c r="E100" t="n">
-        <v>491</v>
+        <v>495.2</v>
       </c>
       <c r="F100" t="n">
-        <v>399.1506</v>
+        <v>298</v>
       </c>
       <c r="G100" t="n">
-        <v>478.265</v>
+        <v>477.8233333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4114,22 +4222,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>495.2</v>
+      </c>
+      <c r="C101" t="n">
         <v>491</v>
       </c>
-      <c r="C101" t="n">
-        <v>484</v>
-      </c>
       <c r="D101" t="n">
+        <v>499</v>
+      </c>
+      <c r="E101" t="n">
         <v>491</v>
       </c>
-      <c r="E101" t="n">
-        <v>483</v>
-      </c>
       <c r="F101" t="n">
-        <v>826.8638</v>
+        <v>399.1506</v>
       </c>
       <c r="G101" t="n">
-        <v>478.59</v>
+        <v>478.265</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4149,22 +4257,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C102" t="n">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="D102" t="n">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E102" t="n">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F102" t="n">
-        <v>1300</v>
+        <v>826.8638</v>
       </c>
       <c r="G102" t="n">
-        <v>479.1483333333333</v>
+        <v>478.59</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4184,22 +4292,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>495.7</v>
+        <v>493</v>
       </c>
       <c r="C103" t="n">
-        <v>495.7</v>
+        <v>498</v>
       </c>
       <c r="D103" t="n">
-        <v>495.7</v>
+        <v>498</v>
       </c>
       <c r="E103" t="n">
-        <v>495.7</v>
+        <v>493</v>
       </c>
       <c r="F103" t="n">
-        <v>3.2106</v>
+        <v>1300</v>
       </c>
       <c r="G103" t="n">
-        <v>479.7266666666666</v>
+        <v>479.1483333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4222,19 +4330,19 @@
         <v>495.7</v>
       </c>
       <c r="C104" t="n">
-        <v>484</v>
+        <v>495.7</v>
       </c>
       <c r="D104" t="n">
-        <v>497.9</v>
+        <v>495.7</v>
       </c>
       <c r="E104" t="n">
-        <v>484</v>
+        <v>495.7</v>
       </c>
       <c r="F104" t="n">
-        <v>3705.9434</v>
+        <v>3.2106</v>
       </c>
       <c r="G104" t="n">
-        <v>480.05</v>
+        <v>479.7266666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4254,22 +4362,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>490.1</v>
+        <v>495.7</v>
       </c>
       <c r="C105" t="n">
-        <v>490.1</v>
+        <v>484</v>
       </c>
       <c r="D105" t="n">
-        <v>491</v>
+        <v>497.9</v>
       </c>
       <c r="E105" t="n">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F105" t="n">
-        <v>654.6337</v>
+        <v>3705.9434</v>
       </c>
       <c r="G105" t="n">
-        <v>480.535</v>
+        <v>480.05</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4289,22 +4397,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>495</v>
+        <v>490.1</v>
       </c>
       <c r="C106" t="n">
-        <v>496.9</v>
+        <v>490.1</v>
       </c>
       <c r="D106" t="n">
-        <v>496.9</v>
+        <v>491</v>
       </c>
       <c r="E106" t="n">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F106" t="n">
-        <v>1000</v>
+        <v>654.6337</v>
       </c>
       <c r="G106" t="n">
-        <v>481.1166666666667</v>
+        <v>480.535</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4324,22 +4432,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C107" t="n">
-        <v>493.1</v>
+        <v>496.9</v>
       </c>
       <c r="D107" t="n">
-        <v>494</v>
+        <v>496.9</v>
       </c>
       <c r="E107" t="n">
-        <v>490.1</v>
+        <v>495</v>
       </c>
       <c r="F107" t="n">
-        <v>239.7603</v>
+        <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>481.635</v>
+        <v>481.1166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4362,19 +4470,19 @@
         <v>494</v>
       </c>
       <c r="C108" t="n">
+        <v>493.1</v>
+      </c>
+      <c r="D108" t="n">
         <v>494</v>
       </c>
-      <c r="D108" t="n">
-        <v>500</v>
-      </c>
       <c r="E108" t="n">
-        <v>494</v>
+        <v>490.1</v>
       </c>
       <c r="F108" t="n">
-        <v>1280.2058</v>
+        <v>239.7603</v>
       </c>
       <c r="G108" t="n">
-        <v>482.125</v>
+        <v>481.635</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4397,19 +4505,19 @@
         <v>494</v>
       </c>
       <c r="C109" t="n">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D109" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E109" t="n">
         <v>494</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>1280.2058</v>
       </c>
       <c r="G109" t="n">
-        <v>482.6266666666667</v>
+        <v>482.125</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4429,7 +4537,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C110" t="n">
         <v>498</v>
@@ -4438,13 +4546,13 @@
         <v>498</v>
       </c>
       <c r="E110" t="n">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>483.1283333333333</v>
+        <v>482.6266666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4464,22 +4572,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C111" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D111" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E111" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F111" t="n">
-        <v>1036.585</v>
+        <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>483.5316666666666</v>
+        <v>483.1283333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4499,7 +4607,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C112" t="n">
         <v>500</v>
@@ -4508,13 +4616,13 @@
         <v>500</v>
       </c>
       <c r="E112" t="n">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F112" t="n">
-        <v>514</v>
+        <v>1036.585</v>
       </c>
       <c r="G112" t="n">
-        <v>483.8983333333333</v>
+        <v>483.5316666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4534,22 +4642,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C113" t="n">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D113" t="n">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E113" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F113" t="n">
-        <v>7571.69700648</v>
+        <v>514</v>
       </c>
       <c r="G113" t="n">
-        <v>484.085</v>
+        <v>483.8983333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4569,22 +4677,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>497</v>
+      </c>
+      <c r="C114" t="n">
         <v>503</v>
       </c>
-      <c r="C114" t="n">
-        <v>501.1</v>
-      </c>
       <c r="D114" t="n">
-        <v>504.9</v>
+        <v>503</v>
       </c>
       <c r="E114" t="n">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F114" t="n">
-        <v>10166.84</v>
+        <v>7571.69700648</v>
       </c>
       <c r="G114" t="n">
-        <v>484.4866666666666</v>
+        <v>484.085</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4604,22 +4712,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C115" t="n">
-        <v>504.9</v>
+        <v>501.1</v>
       </c>
       <c r="D115" t="n">
         <v>504.9</v>
       </c>
       <c r="E115" t="n">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F115" t="n">
-        <v>1301</v>
+        <v>10166.84</v>
       </c>
       <c r="G115" t="n">
-        <v>484.8699999999999</v>
+        <v>484.4866666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4639,22 +4747,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C116" t="n">
-        <v>505</v>
+        <v>504.9</v>
       </c>
       <c r="D116" t="n">
-        <v>505</v>
+        <v>504.9</v>
       </c>
       <c r="E116" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F116" t="n">
-        <v>43.9</v>
+        <v>1301</v>
       </c>
       <c r="G116" t="n">
-        <v>485.2699999999999</v>
+        <v>484.8699999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4674,22 +4782,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>505.8</v>
+        <v>505</v>
       </c>
       <c r="C117" t="n">
-        <v>505.8</v>
+        <v>505</v>
       </c>
       <c r="D117" t="n">
-        <v>505.8</v>
+        <v>505</v>
       </c>
       <c r="E117" t="n">
-        <v>505.8</v>
+        <v>505</v>
       </c>
       <c r="F117" t="n">
-        <v>79.60380000000001</v>
+        <v>43.9</v>
       </c>
       <c r="G117" t="n">
-        <v>485.6833333333333</v>
+        <v>485.2699999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4709,22 +4817,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>502</v>
+        <v>505.8</v>
       </c>
       <c r="C118" t="n">
-        <v>500.1</v>
+        <v>505.8</v>
       </c>
       <c r="D118" t="n">
-        <v>502</v>
+        <v>505.8</v>
       </c>
       <c r="E118" t="n">
-        <v>500.1</v>
+        <v>505.8</v>
       </c>
       <c r="F118" t="n">
-        <v>3148.2944</v>
+        <v>79.60380000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>485.9849999999999</v>
+        <v>485.6833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4744,22 +4852,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C119" t="n">
-        <v>505</v>
+        <v>500.1</v>
       </c>
       <c r="D119" t="n">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E119" t="n">
-        <v>505</v>
+        <v>500.1</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>3148.2944</v>
       </c>
       <c r="G119" t="n">
-        <v>486.3683333333332</v>
+        <v>485.9849999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4779,22 +4887,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C120" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D120" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E120" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F120" t="n">
-        <v>324.8258</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>486.6849999999999</v>
+        <v>486.3683333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4814,7 +4922,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>500.1</v>
+        <v>501</v>
       </c>
       <c r="C121" t="n">
         <v>501</v>
@@ -4823,13 +4931,13 @@
         <v>501</v>
       </c>
       <c r="E121" t="n">
-        <v>500.1</v>
+        <v>501</v>
       </c>
       <c r="F121" t="n">
-        <v>239.1847</v>
+        <v>324.8258</v>
       </c>
       <c r="G121" t="n">
-        <v>487.0016666666666</v>
+        <v>486.6849999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4849,22 +4957,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>504.9</v>
+        <v>500.1</v>
       </c>
       <c r="C122" t="n">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D122" t="n">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E122" t="n">
-        <v>504.9</v>
+        <v>500.1</v>
       </c>
       <c r="F122" t="n">
-        <v>531.726</v>
+        <v>239.1847</v>
       </c>
       <c r="G122" t="n">
-        <v>487.3999999999999</v>
+        <v>487.0016666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4884,22 +4992,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>505.5</v>
+        <v>504.9</v>
       </c>
       <c r="C123" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D123" t="n">
-        <v>511.6</v>
+        <v>505</v>
       </c>
       <c r="E123" t="n">
-        <v>502</v>
+        <v>504.9</v>
       </c>
       <c r="F123" t="n">
-        <v>15819.18905543</v>
+        <v>531.726</v>
       </c>
       <c r="G123" t="n">
-        <v>487.8333333333333</v>
+        <v>487.3999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4919,22 +5027,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>505.5</v>
+      </c>
+      <c r="C124" t="n">
         <v>502</v>
       </c>
-      <c r="C124" t="n">
-        <v>503</v>
-      </c>
       <c r="D124" t="n">
-        <v>503.1</v>
+        <v>511.6</v>
       </c>
       <c r="E124" t="n">
         <v>502</v>
       </c>
       <c r="F124" t="n">
-        <v>141.9492</v>
+        <v>15819.18905543</v>
       </c>
       <c r="G124" t="n">
-        <v>488.1833333333333</v>
+        <v>487.8333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4954,22 +5062,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C125" t="n">
         <v>503</v>
       </c>
       <c r="D125" t="n">
-        <v>503</v>
+        <v>503.1</v>
       </c>
       <c r="E125" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F125" t="n">
-        <v>62.9397</v>
+        <v>141.9492</v>
       </c>
       <c r="G125" t="n">
-        <v>488.7333333333333</v>
+        <v>488.1833333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4989,22 +5097,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>502.7</v>
+        <v>503</v>
       </c>
       <c r="C126" t="n">
-        <v>502.7</v>
+        <v>503</v>
       </c>
       <c r="D126" t="n">
-        <v>502.7</v>
+        <v>503</v>
       </c>
       <c r="E126" t="n">
-        <v>502.7</v>
+        <v>503</v>
       </c>
       <c r="F126" t="n">
-        <v>36.585</v>
+        <v>62.9397</v>
       </c>
       <c r="G126" t="n">
-        <v>489.2783333333333</v>
+        <v>488.7333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5027,19 +5135,19 @@
         <v>502.7</v>
       </c>
       <c r="C127" t="n">
-        <v>507.8</v>
+        <v>502.7</v>
       </c>
       <c r="D127" t="n">
-        <v>507.8</v>
+        <v>502.7</v>
       </c>
       <c r="E127" t="n">
         <v>502.7</v>
       </c>
       <c r="F127" t="n">
-        <v>873.17</v>
+        <v>36.585</v>
       </c>
       <c r="G127" t="n">
-        <v>489.925</v>
+        <v>489.2783333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5059,22 +5167,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>503.1</v>
+        <v>502.7</v>
       </c>
       <c r="C128" t="n">
-        <v>503.1</v>
+        <v>507.8</v>
       </c>
       <c r="D128" t="n">
-        <v>503.1</v>
+        <v>507.8</v>
       </c>
       <c r="E128" t="n">
-        <v>503.1</v>
+        <v>502.7</v>
       </c>
       <c r="F128" t="n">
-        <v>114.755</v>
+        <v>873.17</v>
       </c>
       <c r="G128" t="n">
-        <v>490.5099999999999</v>
+        <v>489.925</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5094,22 +5202,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>507.5</v>
+        <v>503.1</v>
       </c>
       <c r="C129" t="n">
-        <v>503.4</v>
+        <v>503.1</v>
       </c>
       <c r="D129" t="n">
-        <v>507.5</v>
+        <v>503.1</v>
       </c>
       <c r="E129" t="n">
-        <v>503.4</v>
+        <v>503.1</v>
       </c>
       <c r="F129" t="n">
-        <v>445.0009</v>
+        <v>114.755</v>
       </c>
       <c r="G129" t="n">
-        <v>491.1</v>
+        <v>490.5099999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5129,22 +5237,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>503.1</v>
+        <v>507.5</v>
       </c>
       <c r="C130" t="n">
-        <v>503.1</v>
+        <v>503.4</v>
       </c>
       <c r="D130" t="n">
-        <v>503.1</v>
+        <v>507.5</v>
       </c>
       <c r="E130" t="n">
-        <v>503.1</v>
+        <v>503.4</v>
       </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>445.0009</v>
       </c>
       <c r="G130" t="n">
-        <v>491.6849999999999</v>
+        <v>491.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5176,10 +5284,10 @@
         <v>503.1</v>
       </c>
       <c r="F131" t="n">
-        <v>199.0479</v>
+        <v>5</v>
       </c>
       <c r="G131" t="n">
-        <v>492.1399999999999</v>
+        <v>491.6849999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5199,22 +5307,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>500.1</v>
+        <v>503.1</v>
       </c>
       <c r="C132" t="n">
-        <v>500.1</v>
+        <v>503.1</v>
       </c>
       <c r="D132" t="n">
-        <v>500.1</v>
+        <v>503.1</v>
       </c>
       <c r="E132" t="n">
-        <v>500.1</v>
+        <v>503.1</v>
       </c>
       <c r="F132" t="n">
-        <v>95</v>
+        <v>199.0479</v>
       </c>
       <c r="G132" t="n">
-        <v>492.7216666666665</v>
+        <v>492.1399999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5234,22 +5342,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>503.1</v>
+        <v>500.1</v>
       </c>
       <c r="C133" t="n">
-        <v>506.7</v>
+        <v>500.1</v>
       </c>
       <c r="D133" t="n">
-        <v>506.7</v>
+        <v>500.1</v>
       </c>
       <c r="E133" t="n">
-        <v>503.1</v>
+        <v>500.1</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="G133" t="n">
-        <v>493.2533333333332</v>
+        <v>492.7216666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5269,22 +5377,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>501</v>
+        <v>503.1</v>
       </c>
       <c r="C134" t="n">
-        <v>501</v>
+        <v>506.7</v>
       </c>
       <c r="D134" t="n">
-        <v>501</v>
+        <v>506.7</v>
       </c>
       <c r="E134" t="n">
-        <v>501</v>
+        <v>503.1</v>
       </c>
       <c r="F134" t="n">
-        <v>19.4924</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>493.6733333333332</v>
+        <v>493.2533333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5307,19 +5415,19 @@
         <v>501</v>
       </c>
       <c r="C135" t="n">
-        <v>506.2</v>
+        <v>501</v>
       </c>
       <c r="D135" t="n">
-        <v>506.2</v>
+        <v>501</v>
       </c>
       <c r="E135" t="n">
         <v>501</v>
       </c>
       <c r="F135" t="n">
-        <v>1940.7224</v>
+        <v>19.4924</v>
       </c>
       <c r="G135" t="n">
-        <v>494.2933333333332</v>
+        <v>493.6733333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5342,19 +5450,19 @@
         <v>501</v>
       </c>
       <c r="C136" t="n">
-        <v>500</v>
+        <v>506.2</v>
       </c>
       <c r="D136" t="n">
+        <v>506.2</v>
+      </c>
+      <c r="E136" t="n">
         <v>501</v>
       </c>
-      <c r="E136" t="n">
-        <v>500</v>
-      </c>
       <c r="F136" t="n">
-        <v>380</v>
+        <v>1940.7224</v>
       </c>
       <c r="G136" t="n">
-        <v>494.6616666666666</v>
+        <v>494.2933333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5374,22 +5482,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>500.9</v>
+        <v>501</v>
       </c>
       <c r="C137" t="n">
+        <v>500</v>
+      </c>
+      <c r="D137" t="n">
         <v>501</v>
       </c>
-      <c r="D137" t="n">
-        <v>504</v>
-      </c>
       <c r="E137" t="n">
-        <v>500.9</v>
+        <v>500</v>
       </c>
       <c r="F137" t="n">
-        <v>672.8098</v>
+        <v>380</v>
       </c>
       <c r="G137" t="n">
-        <v>495.0616666666666</v>
+        <v>494.6616666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5409,22 +5517,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>500.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>501</v>
+      </c>
+      <c r="D138" t="n">
         <v>504</v>
       </c>
-      <c r="C138" t="n">
-        <v>503.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>506</v>
-      </c>
       <c r="E138" t="n">
-        <v>503.5</v>
+        <v>500.9</v>
       </c>
       <c r="F138" t="n">
-        <v>3811.7971</v>
+        <v>672.8098</v>
       </c>
       <c r="G138" t="n">
-        <v>495.6199999999999</v>
+        <v>495.0616666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5444,22 +5552,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>504.5</v>
+        <v>504</v>
       </c>
       <c r="C139" t="n">
-        <v>501</v>
+        <v>503.5</v>
       </c>
       <c r="D139" t="n">
-        <v>504.5</v>
+        <v>506</v>
       </c>
       <c r="E139" t="n">
-        <v>501</v>
+        <v>503.5</v>
       </c>
       <c r="F139" t="n">
-        <v>1931.56384568</v>
+        <v>3811.7971</v>
       </c>
       <c r="G139" t="n">
-        <v>495.9366666666666</v>
+        <v>495.6199999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5482,19 +5590,19 @@
         <v>504.5</v>
       </c>
       <c r="C140" t="n">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D140" t="n">
-        <v>506</v>
+        <v>504.5</v>
       </c>
       <c r="E140" t="n">
-        <v>504.5</v>
+        <v>501</v>
       </c>
       <c r="F140" t="n">
-        <v>1618.0582</v>
+        <v>1931.56384568</v>
       </c>
       <c r="G140" t="n">
-        <v>496.4366666666666</v>
+        <v>495.9366666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5514,22 +5622,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>501</v>
+        <v>504.5</v>
       </c>
       <c r="C141" t="n">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D141" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E141" t="n">
-        <v>501</v>
+        <v>504.5</v>
       </c>
       <c r="F141" t="n">
-        <v>192.2107</v>
+        <v>1618.0582</v>
       </c>
       <c r="G141" t="n">
-        <v>496.7533333333332</v>
+        <v>496.4366666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5555,16 +5663,16 @@
         <v>501</v>
       </c>
       <c r="D142" t="n">
+        <v>505</v>
+      </c>
+      <c r="E142" t="n">
         <v>501</v>
       </c>
-      <c r="E142" t="n">
-        <v>500</v>
-      </c>
       <c r="F142" t="n">
-        <v>197.585</v>
+        <v>192.2107</v>
       </c>
       <c r="G142" t="n">
-        <v>497.0533333333332</v>
+        <v>496.7533333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5584,22 +5692,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C143" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D143" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E143" t="n">
         <v>500</v>
       </c>
       <c r="F143" t="n">
-        <v>2554.6509</v>
+        <v>197.585</v>
       </c>
       <c r="G143" t="n">
-        <v>497.3199999999999</v>
+        <v>497.0533333333332</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5631,10 +5739,10 @@
         <v>500</v>
       </c>
       <c r="F144" t="n">
-        <v>3459.8279</v>
+        <v>2554.6509</v>
       </c>
       <c r="G144" t="n">
-        <v>497.5866666666665</v>
+        <v>497.3199999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5657,19 +5765,19 @@
         <v>500</v>
       </c>
       <c r="C145" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D145" t="n">
         <v>500</v>
       </c>
       <c r="E145" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F145" t="n">
-        <v>1592.3213</v>
+        <v>3459.8279</v>
       </c>
       <c r="G145" t="n">
-        <v>497.8033333333332</v>
+        <v>497.5866666666665</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5689,22 +5797,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C146" t="n">
         <v>497</v>
       </c>
       <c r="D146" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E146" t="n">
         <v>497</v>
       </c>
       <c r="F146" t="n">
-        <v>1437.7161</v>
+        <v>1592.3213</v>
       </c>
       <c r="G146" t="n">
-        <v>497.9533333333332</v>
+        <v>497.8033333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5736,10 +5844,10 @@
         <v>497</v>
       </c>
       <c r="F147" t="n">
-        <v>1342.514</v>
+        <v>1437.7161</v>
       </c>
       <c r="G147" t="n">
-        <v>498.1199999999999</v>
+        <v>497.9533333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5759,22 +5867,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C148" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D148" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E148" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F148" t="n">
-        <v>1077.2263</v>
+        <v>1342.514</v>
       </c>
       <c r="G148" t="n">
-        <v>498.2699999999999</v>
+        <v>498.1199999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5794,22 +5902,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C149" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D149" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E149" t="n">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="F149" t="n">
-        <v>3758.6816</v>
+        <v>1077.2263</v>
       </c>
       <c r="G149" t="n">
-        <v>498.4033333333333</v>
+        <v>498.2699999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5829,22 +5937,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>488</v>
+      </c>
+      <c r="C150" t="n">
         <v>494</v>
       </c>
-      <c r="C150" t="n">
-        <v>496</v>
-      </c>
       <c r="D150" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E150" t="n">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F150" t="n">
-        <v>3000</v>
+        <v>3758.6816</v>
       </c>
       <c r="G150" t="n">
-        <v>498.7366666666666</v>
+        <v>498.4033333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5864,22 +5972,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C151" t="n">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D151" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E151" t="n">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F151" t="n">
-        <v>732.5</v>
+        <v>3000</v>
       </c>
       <c r="G151" t="n">
-        <v>498.7199999999999</v>
+        <v>498.7366666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5899,22 +6007,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C152" t="n">
         <v>488</v>
       </c>
       <c r="D152" t="n">
+        <v>490</v>
+      </c>
+      <c r="E152" t="n">
         <v>488</v>
       </c>
-      <c r="E152" t="n">
-        <v>487</v>
-      </c>
       <c r="F152" t="n">
-        <v>1462.2491</v>
+        <v>732.5</v>
       </c>
       <c r="G152" t="n">
-        <v>498.6533333333333</v>
+        <v>498.7199999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5943,13 +6051,13 @@
         <v>488</v>
       </c>
       <c r="E153" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F153" t="n">
-        <v>2853.7737</v>
+        <v>1462.2491</v>
       </c>
       <c r="G153" t="n">
-        <v>498.5866666666665</v>
+        <v>498.6533333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5981,10 +6089,10 @@
         <v>488</v>
       </c>
       <c r="F154" t="n">
-        <v>1175.502</v>
+        <v>2853.7737</v>
       </c>
       <c r="G154" t="n">
-        <v>498.5033333333332</v>
+        <v>498.5866666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6007,19 +6115,19 @@
         <v>488</v>
       </c>
       <c r="C155" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D155" t="n">
         <v>488</v>
       </c>
       <c r="E155" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F155" t="n">
-        <v>2876.7582</v>
+        <v>1175.502</v>
       </c>
       <c r="G155" t="n">
-        <v>498.3666666666666</v>
+        <v>498.5033333333332</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6039,22 +6147,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>488</v>
+      </c>
+      <c r="C156" t="n">
         <v>485</v>
       </c>
-      <c r="C156" t="n">
-        <v>481</v>
-      </c>
       <c r="D156" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E156" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F156" t="n">
-        <v>6833.3342</v>
+        <v>2876.7582</v>
       </c>
       <c r="G156" t="n">
-        <v>498.2499999999999</v>
+        <v>498.3666666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6077,19 +6185,19 @@
         <v>485</v>
       </c>
       <c r="C157" t="n">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D157" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E157" t="n">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F157" t="n">
-        <v>100</v>
+        <v>6833.3342</v>
       </c>
       <c r="G157" t="n">
-        <v>498.0799999999999</v>
+        <v>498.2499999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6109,22 +6217,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C158" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D158" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E158" t="n">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F158" t="n">
-        <v>504.4414</v>
+        <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>497.7933333333332</v>
+        <v>498.0799999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6144,22 +6252,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>481</v>
+      </c>
+      <c r="C159" t="n">
         <v>479</v>
       </c>
-      <c r="C159" t="n">
-        <v>477</v>
-      </c>
       <c r="D159" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E159" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F159" t="n">
-        <v>1135.7518</v>
+        <v>504.4414</v>
       </c>
       <c r="G159" t="n">
-        <v>497.4899999999998</v>
+        <v>497.7933333333332</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6179,22 +6287,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C160" t="n">
         <v>477</v>
       </c>
       <c r="D160" t="n">
+        <v>480</v>
+      </c>
+      <c r="E160" t="n">
         <v>477</v>
       </c>
-      <c r="E160" t="n">
-        <v>476</v>
-      </c>
       <c r="F160" t="n">
-        <v>1733.7602</v>
+        <v>1135.7518</v>
       </c>
       <c r="G160" t="n">
-        <v>497.2566666666665</v>
+        <v>497.4899999999998</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6223,13 +6331,13 @@
         <v>477</v>
       </c>
       <c r="E161" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F161" t="n">
-        <v>96.0159</v>
+        <v>1733.7602</v>
       </c>
       <c r="G161" t="n">
-        <v>497.1399999999998</v>
+        <v>497.2566666666665</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6249,7 +6357,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C162" t="n">
         <v>477</v>
@@ -6258,13 +6366,13 @@
         <v>477</v>
       </c>
       <c r="E162" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F162" t="n">
-        <v>163.1244</v>
+        <v>96.0159</v>
       </c>
       <c r="G162" t="n">
-        <v>496.7899999999998</v>
+        <v>497.1399999999998</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6284,7 +6392,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C163" t="n">
         <v>477</v>
@@ -6293,13 +6401,13 @@
         <v>477</v>
       </c>
       <c r="E163" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F163" t="n">
-        <v>227.4393</v>
+        <v>163.1244</v>
       </c>
       <c r="G163" t="n">
-        <v>496.4783333333332</v>
+        <v>496.7899999999998</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6331,10 +6439,10 @@
         <v>477</v>
       </c>
       <c r="F164" t="n">
-        <v>301.4904</v>
+        <v>227.4393</v>
       </c>
       <c r="G164" t="n">
-        <v>496.3616666666665</v>
+        <v>496.4783333333332</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6366,10 +6474,10 @@
         <v>477</v>
       </c>
       <c r="F165" t="n">
-        <v>38.7769</v>
+        <v>301.4904</v>
       </c>
       <c r="G165" t="n">
-        <v>496.1433333333332</v>
+        <v>496.3616666666665</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6392,19 +6500,19 @@
         <v>477</v>
       </c>
       <c r="C166" t="n">
-        <v>482.9</v>
+        <v>477</v>
       </c>
       <c r="D166" t="n">
-        <v>482.9</v>
+        <v>477</v>
       </c>
       <c r="E166" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F166" t="n">
-        <v>2595.7217</v>
+        <v>38.7769</v>
       </c>
       <c r="G166" t="n">
-        <v>495.9099999999999</v>
+        <v>496.1433333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6427,19 +6535,19 @@
         <v>477</v>
       </c>
       <c r="C167" t="n">
-        <v>481.9</v>
+        <v>482.9</v>
       </c>
       <c r="D167" t="n">
-        <v>485</v>
+        <v>482.9</v>
       </c>
       <c r="E167" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F167" t="n">
-        <v>19117.8397</v>
+        <v>2595.7217</v>
       </c>
       <c r="G167" t="n">
-        <v>495.7233333333332</v>
+        <v>495.9099999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6459,22 +6567,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>473.1</v>
+        <v>477</v>
       </c>
       <c r="C168" t="n">
-        <v>482</v>
+        <v>481.9</v>
       </c>
       <c r="D168" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E168" t="n">
         <v>471</v>
       </c>
       <c r="F168" t="n">
-        <v>1547.0239</v>
+        <v>19117.8397</v>
       </c>
       <c r="G168" t="n">
-        <v>495.5233333333333</v>
+        <v>495.7233333333332</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6494,22 +6602,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>481.3</v>
+        <v>473.1</v>
       </c>
       <c r="C169" t="n">
-        <v>481.3</v>
+        <v>482</v>
       </c>
       <c r="D169" t="n">
-        <v>481.3</v>
+        <v>482</v>
       </c>
       <c r="E169" t="n">
-        <v>481.3</v>
+        <v>471</v>
       </c>
       <c r="F169" t="n">
-        <v>563.9647</v>
+        <v>1547.0239</v>
       </c>
       <c r="G169" t="n">
-        <v>495.2449999999999</v>
+        <v>495.5233333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6529,22 +6637,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>480.8</v>
+        <v>481.3</v>
       </c>
       <c r="C170" t="n">
-        <v>480.8</v>
+        <v>481.3</v>
       </c>
       <c r="D170" t="n">
-        <v>480.8</v>
+        <v>481.3</v>
       </c>
       <c r="E170" t="n">
-        <v>480.8</v>
+        <v>481.3</v>
       </c>
       <c r="F170" t="n">
-        <v>1555.8047</v>
+        <v>563.9647</v>
       </c>
       <c r="G170" t="n">
-        <v>494.9583333333332</v>
+        <v>495.2449999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6564,22 +6672,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>480.7</v>
+        <v>480.8</v>
       </c>
       <c r="C171" t="n">
-        <v>480.7</v>
+        <v>480.8</v>
       </c>
       <c r="D171" t="n">
-        <v>480.7</v>
+        <v>480.8</v>
       </c>
       <c r="E171" t="n">
-        <v>480.7</v>
+        <v>480.8</v>
       </c>
       <c r="F171" t="n">
-        <v>240</v>
+        <v>1555.8047</v>
       </c>
       <c r="G171" t="n">
-        <v>494.6366666666665</v>
+        <v>494.9583333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6602,19 +6710,19 @@
         <v>480.7</v>
       </c>
       <c r="C172" t="n">
-        <v>480.4</v>
+        <v>480.7</v>
       </c>
       <c r="D172" t="n">
         <v>480.7</v>
       </c>
       <c r="E172" t="n">
-        <v>480.4</v>
+        <v>480.7</v>
       </c>
       <c r="F172" t="n">
-        <v>938.3683</v>
+        <v>240</v>
       </c>
       <c r="G172" t="n">
-        <v>494.3099999999999</v>
+        <v>494.6366666666665</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6634,22 +6742,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>480.7</v>
+      </c>
+      <c r="C173" t="n">
         <v>480.4</v>
       </c>
-      <c r="C173" t="n">
-        <v>480.3</v>
-      </c>
       <c r="D173" t="n">
+        <v>480.7</v>
+      </c>
+      <c r="E173" t="n">
         <v>480.4</v>
       </c>
-      <c r="E173" t="n">
-        <v>480.3</v>
-      </c>
       <c r="F173" t="n">
-        <v>2697</v>
+        <v>938.3683</v>
       </c>
       <c r="G173" t="n">
-        <v>493.9316666666666</v>
+        <v>494.3099999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6669,22 +6777,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>480.3</v>
+        <v>480.4</v>
       </c>
       <c r="C174" t="n">
         <v>480.3</v>
       </c>
       <c r="D174" t="n">
-        <v>480.3</v>
+        <v>480.4</v>
       </c>
       <c r="E174" t="n">
         <v>480.3</v>
       </c>
       <c r="F174" t="n">
-        <v>640</v>
+        <v>2697</v>
       </c>
       <c r="G174" t="n">
-        <v>493.5849999999999</v>
+        <v>493.9316666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6713,13 +6821,13 @@
         <v>480.3</v>
       </c>
       <c r="E175" t="n">
-        <v>475</v>
+        <v>480.3</v>
       </c>
       <c r="F175" t="n">
-        <v>333.5499</v>
+        <v>640</v>
       </c>
       <c r="G175" t="n">
-        <v>493.1749999999999</v>
+        <v>493.5849999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6739,22 +6847,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>480.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>480.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>480.3</v>
+      </c>
+      <c r="E176" t="n">
         <v>475</v>
       </c>
-      <c r="C176" t="n">
-        <v>468</v>
-      </c>
-      <c r="D176" t="n">
-        <v>475</v>
-      </c>
-      <c r="E176" t="n">
-        <v>468</v>
-      </c>
       <c r="F176" t="n">
-        <v>8351.4745</v>
+        <v>333.5499</v>
       </c>
       <c r="G176" t="n">
-        <v>492.5583333333332</v>
+        <v>493.1749999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6774,22 +6882,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C177" t="n">
+        <v>468</v>
+      </c>
+      <c r="D177" t="n">
         <v>475</v>
       </c>
-      <c r="D177" t="n">
-        <v>476</v>
-      </c>
       <c r="E177" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F177" t="n">
-        <v>477.8373</v>
+        <v>8351.4745</v>
       </c>
       <c r="G177" t="n">
-        <v>492.0449999999999</v>
+        <v>492.5583333333332</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6809,22 +6917,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>476</v>
+      </c>
+      <c r="C178" t="n">
         <v>475</v>
       </c>
-      <c r="C178" t="n">
-        <v>477.8</v>
-      </c>
       <c r="D178" t="n">
-        <v>477.9</v>
+        <v>476</v>
       </c>
       <c r="E178" t="n">
-        <v>474.9</v>
+        <v>474</v>
       </c>
       <c r="F178" t="n">
-        <v>5716.8034</v>
+        <v>477.8373</v>
       </c>
       <c r="G178" t="n">
-        <v>491.6733333333332</v>
+        <v>492.0449999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6844,22 +6952,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>475</v>
+      </c>
+      <c r="C179" t="n">
+        <v>477.8</v>
+      </c>
+      <c r="D179" t="n">
         <v>477.9</v>
       </c>
-      <c r="C179" t="n">
-        <v>478</v>
-      </c>
-      <c r="D179" t="n">
-        <v>478</v>
-      </c>
       <c r="E179" t="n">
-        <v>477.9</v>
+        <v>474.9</v>
       </c>
       <c r="F179" t="n">
-        <v>1253.1817</v>
+        <v>5716.8034</v>
       </c>
       <c r="G179" t="n">
-        <v>491.2233333333332</v>
+        <v>491.6733333333332</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6879,22 +6987,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>482.2</v>
+        <v>477.9</v>
       </c>
       <c r="C180" t="n">
-        <v>482.2</v>
+        <v>478</v>
       </c>
       <c r="D180" t="n">
-        <v>482.2</v>
+        <v>478</v>
       </c>
       <c r="E180" t="n">
-        <v>482.2</v>
+        <v>477.9</v>
       </c>
       <c r="F180" t="n">
-        <v>2.5</v>
+        <v>1253.1817</v>
       </c>
       <c r="G180" t="n">
-        <v>490.9099999999999</v>
+        <v>491.2233333333332</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6926,10 +7034,10 @@
         <v>482.2</v>
       </c>
       <c r="F181" t="n">
-        <v>1180.5675</v>
+        <v>2.5</v>
       </c>
       <c r="G181" t="n">
-        <v>490.5966666666666</v>
+        <v>490.9099999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6949,22 +7057,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>480</v>
+        <v>482.2</v>
       </c>
       <c r="C182" t="n">
-        <v>475</v>
+        <v>482.2</v>
       </c>
       <c r="D182" t="n">
-        <v>480</v>
+        <v>482.2</v>
       </c>
       <c r="E182" t="n">
-        <v>475</v>
+        <v>482.2</v>
       </c>
       <c r="F182" t="n">
-        <v>1786.0206</v>
+        <v>1180.5675</v>
       </c>
       <c r="G182" t="n">
-        <v>490.0966666666666</v>
+        <v>490.5966666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6984,22 +7092,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C183" t="n">
         <v>475</v>
       </c>
       <c r="D183" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E183" t="n">
         <v>475</v>
       </c>
       <c r="F183" t="n">
-        <v>470.341</v>
+        <v>1786.0206</v>
       </c>
       <c r="G183" t="n">
-        <v>489.6466666666666</v>
+        <v>490.0966666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7031,10 +7139,10 @@
         <v>475</v>
       </c>
       <c r="F184" t="n">
-        <v>269.3666</v>
+        <v>470.341</v>
       </c>
       <c r="G184" t="n">
-        <v>489.1799999999999</v>
+        <v>489.6466666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7066,10 +7174,10 @@
         <v>475</v>
       </c>
       <c r="F185" t="n">
-        <v>1.1161</v>
+        <v>269.3666</v>
       </c>
       <c r="G185" t="n">
-        <v>488.7133333333333</v>
+        <v>489.1799999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7101,10 +7209,10 @@
         <v>475</v>
       </c>
       <c r="F186" t="n">
-        <v>21.05263157</v>
+        <v>1.1161</v>
       </c>
       <c r="G186" t="n">
-        <v>488.2516666666666</v>
+        <v>488.7133333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7124,22 +7232,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C187" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D187" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E187" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F187" t="n">
-        <v>20.7161</v>
+        <v>21.05263157</v>
       </c>
       <c r="G187" t="n">
-        <v>487.6883333333333</v>
+        <v>488.2516666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7171,10 +7279,10 @@
         <v>474</v>
       </c>
       <c r="F188" t="n">
-        <v>6.2071</v>
+        <v>20.7161</v>
       </c>
       <c r="G188" t="n">
-        <v>487.2033333333333</v>
+        <v>487.6883333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7194,22 +7302,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C189" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D189" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E189" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F189" t="n">
-        <v>72.4525</v>
+        <v>6.2071</v>
       </c>
       <c r="G189" t="n">
-        <v>486.6466666666666</v>
+        <v>487.2033333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7229,22 +7337,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C190" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D190" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E190" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F190" t="n">
-        <v>21.5345</v>
+        <v>72.4525</v>
       </c>
       <c r="G190" t="n">
-        <v>486.0116666666666</v>
+        <v>486.6466666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7264,22 +7372,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C191" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D191" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E191" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F191" t="n">
-        <v>999.0700000000001</v>
+        <v>21.5345</v>
       </c>
       <c r="G191" t="n">
-        <v>485.3266666666667</v>
+        <v>486.0116666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7299,22 +7407,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C192" t="n">
         <v>462</v>
       </c>
       <c r="D192" t="n">
+        <v>463</v>
+      </c>
+      <c r="E192" t="n">
         <v>462</v>
       </c>
-      <c r="E192" t="n">
-        <v>454</v>
-      </c>
       <c r="F192" t="n">
-        <v>3893.8677</v>
+        <v>999.0700000000001</v>
       </c>
       <c r="G192" t="n">
-        <v>484.6916666666667</v>
+        <v>485.3266666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7334,7 +7442,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C193" t="n">
         <v>462</v>
@@ -7343,13 +7451,13 @@
         <v>462</v>
       </c>
       <c r="E193" t="n">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F193" t="n">
-        <v>64.93940000000001</v>
+        <v>3893.8677</v>
       </c>
       <c r="G193" t="n">
-        <v>483.9466666666667</v>
+        <v>484.6916666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7369,7 +7477,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C194" t="n">
         <v>462</v>
@@ -7378,13 +7486,13 @@
         <v>462</v>
       </c>
       <c r="E194" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F194" t="n">
-        <v>635.4112</v>
+        <v>64.93940000000001</v>
       </c>
       <c r="G194" t="n">
-        <v>483.2966666666667</v>
+        <v>483.9466666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7416,10 +7524,10 @@
         <v>462</v>
       </c>
       <c r="F195" t="n">
-        <v>2428.7285</v>
+        <v>635.4112</v>
       </c>
       <c r="G195" t="n">
-        <v>482.56</v>
+        <v>483.2966666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7442,19 +7550,19 @@
         <v>462</v>
       </c>
       <c r="C196" t="n">
-        <v>453.4</v>
+        <v>462</v>
       </c>
       <c r="D196" t="n">
         <v>462</v>
       </c>
       <c r="E196" t="n">
-        <v>453.4</v>
+        <v>462</v>
       </c>
       <c r="F196" t="n">
-        <v>2118.436</v>
+        <v>2428.7285</v>
       </c>
       <c r="G196" t="n">
-        <v>481.7833333333334</v>
+        <v>482.56</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7477,19 +7585,19 @@
         <v>462</v>
       </c>
       <c r="C197" t="n">
-        <v>462</v>
+        <v>453.4</v>
       </c>
       <c r="D197" t="n">
         <v>462</v>
       </c>
       <c r="E197" t="n">
-        <v>461</v>
+        <v>453.4</v>
       </c>
       <c r="F197" t="n">
-        <v>1040.6276</v>
+        <v>2118.436</v>
       </c>
       <c r="G197" t="n">
-        <v>481.1333333333333</v>
+        <v>481.7833333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7512,19 +7620,19 @@
         <v>462</v>
       </c>
       <c r="C198" t="n">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D198" t="n">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E198" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F198" t="n">
-        <v>158.0234</v>
+        <v>1040.6276</v>
       </c>
       <c r="G198" t="n">
-        <v>480.475</v>
+        <v>481.1333333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7544,22 +7652,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>462</v>
+      </c>
+      <c r="C199" t="n">
         <v>464</v>
       </c>
-      <c r="C199" t="n">
-        <v>465</v>
-      </c>
       <c r="D199" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E199" t="n">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F199" t="n">
-        <v>2411.7766</v>
+        <v>158.0234</v>
       </c>
       <c r="G199" t="n">
-        <v>479.875</v>
+        <v>480.475</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7579,22 +7687,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>465.6</v>
+        <v>464</v>
       </c>
       <c r="C200" t="n">
-        <v>465.6</v>
+        <v>465</v>
       </c>
       <c r="D200" t="n">
-        <v>465.6</v>
+        <v>465</v>
       </c>
       <c r="E200" t="n">
-        <v>465.6</v>
+        <v>464</v>
       </c>
       <c r="F200" t="n">
-        <v>664.1992</v>
+        <v>2411.7766</v>
       </c>
       <c r="G200" t="n">
-        <v>479.2016666666667</v>
+        <v>479.875</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7614,22 +7722,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>469.6</v>
+        <v>465.6</v>
       </c>
       <c r="C201" t="n">
-        <v>469.6</v>
+        <v>465.6</v>
       </c>
       <c r="D201" t="n">
-        <v>469.6</v>
+        <v>465.6</v>
       </c>
       <c r="E201" t="n">
-        <v>469.6</v>
+        <v>465.6</v>
       </c>
       <c r="F201" t="n">
-        <v>1.1</v>
+        <v>664.1992</v>
       </c>
       <c r="G201" t="n">
-        <v>478.6783333333333</v>
+        <v>479.2016666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7649,22 +7757,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>469.7</v>
+        <v>469.6</v>
       </c>
       <c r="C202" t="n">
-        <v>469.7</v>
+        <v>469.6</v>
       </c>
       <c r="D202" t="n">
-        <v>469.7</v>
+        <v>469.6</v>
       </c>
       <c r="E202" t="n">
-        <v>469.7</v>
+        <v>469.6</v>
       </c>
       <c r="F202" t="n">
-        <v>779</v>
+        <v>1.1</v>
       </c>
       <c r="G202" t="n">
-        <v>478.1566666666666</v>
+        <v>478.6783333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7684,22 +7792,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>467</v>
+        <v>469.7</v>
       </c>
       <c r="C203" t="n">
-        <v>467</v>
+        <v>469.7</v>
       </c>
       <c r="D203" t="n">
-        <v>467</v>
+        <v>469.7</v>
       </c>
       <c r="E203" t="n">
-        <v>467</v>
+        <v>469.7</v>
       </c>
       <c r="F203" t="n">
-        <v>19.3889</v>
+        <v>779</v>
       </c>
       <c r="G203" t="n">
-        <v>477.6066666666666</v>
+        <v>478.1566666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7719,22 +7827,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C204" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D204" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E204" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F204" t="n">
-        <v>579.8882</v>
+        <v>19.3889</v>
       </c>
       <c r="G204" t="n">
-        <v>477.0066666666666</v>
+        <v>477.6066666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7754,22 +7862,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>464.7</v>
+        <v>464</v>
       </c>
       <c r="C205" t="n">
-        <v>464.7</v>
+        <v>464</v>
       </c>
       <c r="D205" t="n">
-        <v>464.7</v>
+        <v>464</v>
       </c>
       <c r="E205" t="n">
-        <v>464.7</v>
+        <v>464</v>
       </c>
       <c r="F205" t="n">
-        <v>1.1</v>
+        <v>579.8882</v>
       </c>
       <c r="G205" t="n">
-        <v>476.4683333333333</v>
+        <v>477.0066666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7789,22 +7897,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>465.9</v>
+        <v>464.7</v>
       </c>
       <c r="C206" t="n">
-        <v>466</v>
+        <v>464.7</v>
       </c>
       <c r="D206" t="n">
-        <v>466</v>
+        <v>464.7</v>
       </c>
       <c r="E206" t="n">
-        <v>465.9</v>
+        <v>464.7</v>
       </c>
       <c r="F206" t="n">
-        <v>578.7881</v>
+        <v>1.1</v>
       </c>
       <c r="G206" t="n">
-        <v>475.9516666666667</v>
+        <v>476.4683333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7824,22 +7932,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>466.6</v>
+        <v>465.9</v>
       </c>
       <c r="C207" t="n">
-        <v>466.6</v>
+        <v>466</v>
       </c>
       <c r="D207" t="n">
-        <v>466.6</v>
+        <v>466</v>
       </c>
       <c r="E207" t="n">
-        <v>466.6</v>
+        <v>465.9</v>
       </c>
       <c r="F207" t="n">
-        <v>5.61</v>
+        <v>578.7881</v>
       </c>
       <c r="G207" t="n">
-        <v>475.4449999999999</v>
+        <v>475.9516666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7871,10 +7979,10 @@
         <v>466.6</v>
       </c>
       <c r="F208" t="n">
-        <v>30.3855</v>
+        <v>5.61</v>
       </c>
       <c r="G208" t="n">
-        <v>474.9549999999999</v>
+        <v>475.4449999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7894,22 +8002,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>469.7</v>
+        <v>466.6</v>
       </c>
       <c r="C209" t="n">
-        <v>470</v>
+        <v>466.6</v>
       </c>
       <c r="D209" t="n">
-        <v>470</v>
+        <v>466.6</v>
       </c>
       <c r="E209" t="n">
-        <v>469.7</v>
+        <v>466.6</v>
       </c>
       <c r="F209" t="n">
-        <v>340</v>
+        <v>30.3855</v>
       </c>
       <c r="G209" t="n">
-        <v>474.5549999999999</v>
+        <v>474.9549999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7929,22 +8037,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>469.1</v>
+        <v>469.7</v>
       </c>
       <c r="C210" t="n">
-        <v>469.1</v>
+        <v>470</v>
       </c>
       <c r="D210" t="n">
-        <v>469.1</v>
+        <v>470</v>
       </c>
       <c r="E210" t="n">
-        <v>469.1</v>
+        <v>469.7</v>
       </c>
       <c r="F210" t="n">
-        <v>1.2</v>
+        <v>340</v>
       </c>
       <c r="G210" t="n">
-        <v>474.1066666666666</v>
+        <v>474.5549999999999</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7964,22 +8072,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>479.8</v>
+        <v>469.1</v>
       </c>
       <c r="C211" t="n">
-        <v>479.8</v>
+        <v>469.1</v>
       </c>
       <c r="D211" t="n">
-        <v>479.8</v>
+        <v>469.1</v>
       </c>
       <c r="E211" t="n">
-        <v>479.8</v>
+        <v>469.1</v>
       </c>
       <c r="F211" t="n">
-        <v>1.1674</v>
+        <v>1.2</v>
       </c>
       <c r="G211" t="n">
-        <v>473.9699999999999</v>
+        <v>474.1066666666666</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8011,10 +8119,10 @@
         <v>479.8</v>
       </c>
       <c r="F212" t="n">
-        <v>866.0587</v>
+        <v>1.1674</v>
       </c>
       <c r="G212" t="n">
-        <v>473.8333333333332</v>
+        <v>473.9699999999999</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8034,22 +8142,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>473.4</v>
+        <v>479.8</v>
       </c>
       <c r="C213" t="n">
-        <v>478.8</v>
+        <v>479.8</v>
       </c>
       <c r="D213" t="n">
-        <v>478.8</v>
+        <v>479.8</v>
       </c>
       <c r="E213" t="n">
-        <v>471.1</v>
+        <v>479.8</v>
       </c>
       <c r="F213" t="n">
-        <v>1357.2097</v>
+        <v>866.0587</v>
       </c>
       <c r="G213" t="n">
-        <v>473.6799999999999</v>
+        <v>473.8333333333332</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8069,22 +8177,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>474</v>
+        <v>473.4</v>
       </c>
       <c r="C214" t="n">
-        <v>474</v>
+        <v>478.8</v>
       </c>
       <c r="D214" t="n">
-        <v>474</v>
+        <v>478.8</v>
       </c>
       <c r="E214" t="n">
-        <v>474</v>
+        <v>471.1</v>
       </c>
       <c r="F214" t="n">
-        <v>24</v>
+        <v>1357.2097</v>
       </c>
       <c r="G214" t="n">
-        <v>473.4466666666665</v>
+        <v>473.6799999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8104,22 +8212,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>475.9</v>
+        <v>474</v>
       </c>
       <c r="C215" t="n">
-        <v>475.9</v>
+        <v>474</v>
       </c>
       <c r="D215" t="n">
-        <v>475.9</v>
+        <v>474</v>
       </c>
       <c r="E215" t="n">
-        <v>475.9</v>
+        <v>474</v>
       </c>
       <c r="F215" t="n">
-        <v>5.271</v>
+        <v>24</v>
       </c>
       <c r="G215" t="n">
-        <v>473.2949999999999</v>
+        <v>473.4466666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8151,10 +8259,10 @@
         <v>475.9</v>
       </c>
       <c r="F216" t="n">
-        <v>182.925</v>
+        <v>5.271</v>
       </c>
       <c r="G216" t="n">
-        <v>473.2099999999999</v>
+        <v>473.2949999999999</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8177,19 +8285,19 @@
         <v>475.9</v>
       </c>
       <c r="C217" t="n">
-        <v>476</v>
+        <v>475.9</v>
       </c>
       <c r="D217" t="n">
-        <v>476</v>
+        <v>475.9</v>
       </c>
       <c r="E217" t="n">
         <v>475.9</v>
       </c>
       <c r="F217" t="n">
-        <v>89.7</v>
+        <v>182.925</v>
       </c>
       <c r="G217" t="n">
-        <v>473.0599999999999</v>
+        <v>473.2099999999999</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8209,22 +8317,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>477</v>
+        <v>475.9</v>
       </c>
       <c r="C218" t="n">
-        <v>477.1</v>
+        <v>476</v>
       </c>
       <c r="D218" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E218" t="n">
-        <v>477</v>
+        <v>475.9</v>
       </c>
       <c r="F218" t="n">
-        <v>7497.9198</v>
+        <v>89.7</v>
       </c>
       <c r="G218" t="n">
-        <v>473.0283333333333</v>
+        <v>473.0599999999999</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8244,22 +8352,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C219" t="n">
-        <v>479.9</v>
+        <v>477.1</v>
       </c>
       <c r="D219" t="n">
-        <v>479.9</v>
+        <v>478</v>
       </c>
       <c r="E219" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F219" t="n">
-        <v>303.9847</v>
+        <v>7497.9198</v>
       </c>
       <c r="G219" t="n">
-        <v>473.0766666666666</v>
+        <v>473.0283333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8279,22 +8387,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C220" t="n">
-        <v>480</v>
+        <v>479.9</v>
       </c>
       <c r="D220" t="n">
-        <v>480</v>
+        <v>479.9</v>
       </c>
       <c r="E220" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F220" t="n">
-        <v>112.9527</v>
+        <v>303.9847</v>
       </c>
       <c r="G220" t="n">
-        <v>473.1266666666666</v>
+        <v>473.0766666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8314,22 +8422,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>479.9</v>
+        <v>480</v>
       </c>
       <c r="C221" t="n">
-        <v>479.9</v>
+        <v>480</v>
       </c>
       <c r="D221" t="n">
-        <v>479.9</v>
+        <v>480</v>
       </c>
       <c r="E221" t="n">
-        <v>479.9</v>
+        <v>480</v>
       </c>
       <c r="F221" t="n">
-        <v>53.7952</v>
+        <v>112.9527</v>
       </c>
       <c r="G221" t="n">
-        <v>473.175</v>
+        <v>473.1266666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8361,10 +8469,10 @@
         <v>479.9</v>
       </c>
       <c r="F222" t="n">
-        <v>69.93380000000001</v>
+        <v>53.7952</v>
       </c>
       <c r="G222" t="n">
-        <v>473.2233333333333</v>
+        <v>473.175</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8384,22 +8492,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>479</v>
+        <v>479.9</v>
       </c>
       <c r="C223" t="n">
-        <v>479</v>
+        <v>479.9</v>
       </c>
       <c r="D223" t="n">
-        <v>479</v>
+        <v>479.9</v>
       </c>
       <c r="E223" t="n">
-        <v>479</v>
+        <v>479.9</v>
       </c>
       <c r="F223" t="n">
-        <v>39.7391</v>
+        <v>69.93380000000001</v>
       </c>
       <c r="G223" t="n">
-        <v>473.2566666666666</v>
+        <v>473.2233333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8419,22 +8527,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C224" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D224" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E224" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F224" t="n">
-        <v>165.5981</v>
+        <v>39.7391</v>
       </c>
       <c r="G224" t="n">
-        <v>473.3066666666666</v>
+        <v>473.2566666666666</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8457,19 +8565,19 @@
         <v>480</v>
       </c>
       <c r="C225" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D225" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E225" t="n">
         <v>480</v>
       </c>
       <c r="F225" t="n">
-        <v>40</v>
+        <v>165.5981</v>
       </c>
       <c r="G225" t="n">
-        <v>473.4233333333333</v>
+        <v>473.3066666666666</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8489,22 +8597,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>480</v>
+      </c>
+      <c r="C226" t="n">
         <v>484</v>
       </c>
-      <c r="C226" t="n">
-        <v>487.1</v>
-      </c>
       <c r="D226" t="n">
-        <v>487.1</v>
+        <v>484</v>
       </c>
       <c r="E226" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F226" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G226" t="n">
-        <v>473.4933333333332</v>
+        <v>473.4233333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8524,22 +8632,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C227" t="n">
-        <v>487.9</v>
+        <v>487.1</v>
       </c>
       <c r="D227" t="n">
-        <v>487.9</v>
+        <v>487.1</v>
       </c>
       <c r="E227" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F227" t="n">
-        <v>2689.4058</v>
+        <v>80</v>
       </c>
       <c r="G227" t="n">
-        <v>473.5933333333332</v>
+        <v>473.4933333333332</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8559,22 +8667,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>483.1</v>
+        <v>483</v>
       </c>
       <c r="C228" t="n">
-        <v>483</v>
+        <v>487.9</v>
       </c>
       <c r="D228" t="n">
-        <v>483.1</v>
+        <v>487.9</v>
       </c>
       <c r="E228" t="n">
         <v>483</v>
       </c>
       <c r="F228" t="n">
-        <v>2609.4058</v>
+        <v>2689.4058</v>
       </c>
       <c r="G228" t="n">
-        <v>473.6099999999999</v>
+        <v>473.5933333333332</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8594,22 +8702,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>482</v>
+        <v>483.1</v>
       </c>
       <c r="C229" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D229" t="n">
-        <v>482</v>
+        <v>483.1</v>
       </c>
       <c r="E229" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F229" t="n">
-        <v>152.6802</v>
+        <v>2609.4058</v>
       </c>
       <c r="G229" t="n">
-        <v>473.6216666666666</v>
+        <v>473.6099999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8629,22 +8737,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C230" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D230" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E230" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F230" t="n">
-        <v>1.1</v>
+        <v>152.6802</v>
       </c>
       <c r="G230" t="n">
-        <v>473.6583333333332</v>
+        <v>473.6216666666666</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8664,22 +8772,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>480.2</v>
+        <v>483</v>
       </c>
       <c r="C231" t="n">
-        <v>475.1</v>
+        <v>483</v>
       </c>
       <c r="D231" t="n">
-        <v>480.2</v>
+        <v>483</v>
       </c>
       <c r="E231" t="n">
-        <v>475.1</v>
+        <v>483</v>
       </c>
       <c r="F231" t="n">
-        <v>2366.5155</v>
+        <v>1.1</v>
       </c>
       <c r="G231" t="n">
-        <v>473.5649999999999</v>
+        <v>473.6583333333332</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8699,22 +8807,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>479</v>
+        <v>480.2</v>
       </c>
       <c r="C232" t="n">
-        <v>479</v>
+        <v>475.1</v>
       </c>
       <c r="D232" t="n">
-        <v>479</v>
+        <v>480.2</v>
       </c>
       <c r="E232" t="n">
-        <v>479</v>
+        <v>475.1</v>
       </c>
       <c r="F232" t="n">
-        <v>81.29859999999999</v>
+        <v>2366.5155</v>
       </c>
       <c r="G232" t="n">
-        <v>473.5416666666666</v>
+        <v>473.5649999999999</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8734,22 +8842,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C233" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D233" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E233" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F233" t="n">
-        <v>160.9662</v>
+        <v>81.29859999999999</v>
       </c>
       <c r="G233" t="n">
-        <v>473.5366666666666</v>
+        <v>473.5416666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8769,22 +8877,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>480.1</v>
+        <v>480</v>
       </c>
       <c r="C234" t="n">
-        <v>480.1</v>
+        <v>480</v>
       </c>
       <c r="D234" t="n">
-        <v>480.1</v>
+        <v>480</v>
       </c>
       <c r="E234" t="n">
-        <v>480.1</v>
+        <v>480</v>
       </c>
       <c r="F234" t="n">
-        <v>1.1</v>
+        <v>160.9662</v>
       </c>
       <c r="G234" t="n">
-        <v>473.5333333333332</v>
+        <v>473.5366666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8819,7 +8927,7 @@
         <v>1.1</v>
       </c>
       <c r="G235" t="n">
-        <v>473.5299999999999</v>
+        <v>473.5333333333332</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8839,22 +8947,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>477.2</v>
+        <v>480.1</v>
       </c>
       <c r="C236" t="n">
-        <v>476.9</v>
+        <v>480.1</v>
       </c>
       <c r="D236" t="n">
-        <v>477.2</v>
+        <v>480.1</v>
       </c>
       <c r="E236" t="n">
-        <v>470.1</v>
+        <v>480.1</v>
       </c>
       <c r="F236" t="n">
-        <v>1698.5039</v>
+        <v>1.1</v>
       </c>
       <c r="G236" t="n">
-        <v>473.6783333333332</v>
+        <v>473.5299999999999</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8874,22 +8982,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>477</v>
+        <v>477.2</v>
       </c>
       <c r="C237" t="n">
-        <v>477</v>
+        <v>476.9</v>
       </c>
       <c r="D237" t="n">
-        <v>477</v>
+        <v>477.2</v>
       </c>
       <c r="E237" t="n">
-        <v>477</v>
+        <v>470.1</v>
       </c>
       <c r="F237" t="n">
-        <v>1.1</v>
+        <v>1698.5039</v>
       </c>
       <c r="G237" t="n">
-        <v>473.7116666666665</v>
+        <v>473.6783333333332</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8909,22 +9017,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>477.9</v>
+        <v>477</v>
       </c>
       <c r="C238" t="n">
-        <v>477.9</v>
+        <v>477</v>
       </c>
       <c r="D238" t="n">
-        <v>477.9</v>
+        <v>477</v>
       </c>
       <c r="E238" t="n">
-        <v>477.9</v>
+        <v>477</v>
       </c>
       <c r="F238" t="n">
         <v>1.1</v>
       </c>
       <c r="G238" t="n">
-        <v>473.7133333333333</v>
+        <v>473.7116666666665</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8944,22 +9052,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>479</v>
+        <v>477.9</v>
       </c>
       <c r="C239" t="n">
-        <v>479</v>
+        <v>477.9</v>
       </c>
       <c r="D239" t="n">
-        <v>479</v>
+        <v>477.9</v>
       </c>
       <c r="E239" t="n">
-        <v>479</v>
+        <v>477.9</v>
       </c>
       <c r="F239" t="n">
         <v>1.1</v>
       </c>
       <c r="G239" t="n">
-        <v>473.7299999999999</v>
+        <v>473.7133333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8982,19 +9090,19 @@
         <v>479</v>
       </c>
       <c r="C240" t="n">
-        <v>480.9</v>
+        <v>479</v>
       </c>
       <c r="D240" t="n">
-        <v>480.9</v>
+        <v>479</v>
       </c>
       <c r="E240" t="n">
         <v>479</v>
       </c>
       <c r="F240" t="n">
-        <v>840</v>
+        <v>1.1</v>
       </c>
       <c r="G240" t="n">
-        <v>473.7083333333333</v>
+        <v>473.7299999999999</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9014,7 +9122,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>480.9</v>
+        <v>479</v>
       </c>
       <c r="C241" t="n">
         <v>480.9</v>
@@ -9023,13 +9131,13 @@
         <v>480.9</v>
       </c>
       <c r="E241" t="n">
-        <v>480.9</v>
+        <v>479</v>
       </c>
       <c r="F241" t="n">
-        <v>71.8976</v>
+        <v>840</v>
       </c>
       <c r="G241" t="n">
-        <v>473.6866666666666</v>
+        <v>473.7083333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9049,22 +9157,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>482</v>
+        <v>480.9</v>
       </c>
       <c r="C242" t="n">
-        <v>482.3</v>
+        <v>480.9</v>
       </c>
       <c r="D242" t="n">
-        <v>482.3</v>
+        <v>480.9</v>
       </c>
       <c r="E242" t="n">
-        <v>482</v>
+        <v>480.9</v>
       </c>
       <c r="F242" t="n">
-        <v>273.19</v>
+        <v>71.8976</v>
       </c>
       <c r="G242" t="n">
-        <v>473.8083333333333</v>
+        <v>473.6866666666666</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9084,22 +9192,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>480.3</v>
+        <v>482</v>
       </c>
       <c r="C243" t="n">
-        <v>478.2</v>
+        <v>482.3</v>
       </c>
       <c r="D243" t="n">
-        <v>480.3</v>
+        <v>482.3</v>
       </c>
       <c r="E243" t="n">
-        <v>478.2</v>
+        <v>482</v>
       </c>
       <c r="F243" t="n">
-        <v>1585.9924</v>
+        <v>273.19</v>
       </c>
       <c r="G243" t="n">
-        <v>473.8616666666666</v>
+        <v>473.8083333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9119,22 +9227,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>482.3</v>
+        <v>480.3</v>
       </c>
       <c r="C244" t="n">
-        <v>482.3</v>
+        <v>478.2</v>
       </c>
       <c r="D244" t="n">
-        <v>482.3</v>
+        <v>480.3</v>
       </c>
       <c r="E244" t="n">
-        <v>482.3</v>
+        <v>478.2</v>
       </c>
       <c r="F244" t="n">
-        <v>1.1</v>
+        <v>1585.9924</v>
       </c>
       <c r="G244" t="n">
-        <v>473.9833333333333</v>
+        <v>473.8616666666666</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9157,19 +9265,19 @@
         <v>482.3</v>
       </c>
       <c r="C245" t="n">
-        <v>486</v>
+        <v>482.3</v>
       </c>
       <c r="D245" t="n">
-        <v>486</v>
+        <v>482.3</v>
       </c>
       <c r="E245" t="n">
         <v>482.3</v>
       </c>
       <c r="F245" t="n">
-        <v>80</v>
+        <v>1.1</v>
       </c>
       <c r="G245" t="n">
-        <v>474.1666666666666</v>
+        <v>473.9833333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9189,22 +9297,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>487</v>
+        <v>482.3</v>
       </c>
       <c r="C246" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D246" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E246" t="n">
-        <v>487</v>
+        <v>482.3</v>
       </c>
       <c r="F246" t="n">
-        <v>1.1</v>
+        <v>80</v>
       </c>
       <c r="G246" t="n">
-        <v>474.3666666666666</v>
+        <v>474.1666666666666</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9236,10 +9344,10 @@
         <v>487</v>
       </c>
       <c r="F247" t="n">
-        <v>114.0402</v>
+        <v>1.1</v>
       </c>
       <c r="G247" t="n">
-        <v>474.5833333333333</v>
+        <v>474.3666666666666</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9259,22 +9367,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C248" t="n">
-        <v>488.4</v>
+        <v>487</v>
       </c>
       <c r="D248" t="n">
-        <v>488.4</v>
+        <v>487</v>
       </c>
       <c r="E248" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F248" t="n">
-        <v>51.1</v>
+        <v>114.0402</v>
       </c>
       <c r="G248" t="n">
-        <v>474.8233333333333</v>
+        <v>474.5833333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9289,6 +9397,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>488</v>
+      </c>
+      <c r="C249" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="D249" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="E249" t="n">
+        <v>488</v>
+      </c>
+      <c r="F249" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>474.8233333333333</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest GXC.xlsx
+++ b/BackTest/2020-01-16 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M249"/>
+  <dimension ref="A1:N259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>44</v>
       </c>
       <c r="G2" t="n">
+        <v>451.1800000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>467.0666666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,21 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
+        <v>451.4466666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>466.5833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>452</v>
-      </c>
-      <c r="K3" t="n">
-        <v>452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,26 +529,21 @@
         <v>160.8059</v>
       </c>
       <c r="G4" t="n">
+        <v>451.5200000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>466.0333333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>460</v>
-      </c>
-      <c r="K4" t="n">
-        <v>452</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,24 +567,21 @@
         <v>2053.3665</v>
       </c>
       <c r="G5" t="n">
+        <v>451.3866666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>465.5666666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>452</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,26 +605,21 @@
         <v>502.8001</v>
       </c>
       <c r="G6" t="n">
+        <v>451.5200000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>465.0216666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>453</v>
-      </c>
-      <c r="K6" t="n">
-        <v>452</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,26 +643,21 @@
         <v>1450.0294</v>
       </c>
       <c r="G7" t="n">
+        <v>451.7200000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>464.3366666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>455</v>
-      </c>
-      <c r="K7" t="n">
-        <v>452</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,26 +681,21 @@
         <v>1424.2599</v>
       </c>
       <c r="G8" t="n">
+        <v>451.76</v>
+      </c>
+      <c r="H8" t="n">
         <v>463.605</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>454.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>452</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,24 +719,21 @@
         <v>990.539</v>
       </c>
       <c r="G9" t="n">
+        <v>452.22</v>
+      </c>
+      <c r="H9" t="n">
         <v>463.05</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>452</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -776,24 +757,21 @@
         <v>85.7</v>
       </c>
       <c r="G10" t="n">
+        <v>452.4866666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>462.57</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>452</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -817,24 +795,21 @@
         <v>577.8493999999999</v>
       </c>
       <c r="G11" t="n">
+        <v>452.9</v>
+      </c>
+      <c r="H11" t="n">
         <v>462.1366666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>452</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -858,24 +833,21 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
+        <v>453.4866666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>461.735</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>452</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -899,24 +871,21 @@
         <v>336.2973</v>
       </c>
       <c r="G13" t="n">
+        <v>454.0733333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>461.3766666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>452</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -940,24 +909,21 @@
         <v>693.2079</v>
       </c>
       <c r="G14" t="n">
+        <v>454.7666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>461.1183333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>452</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -981,24 +947,21 @@
         <v>1.1</v>
       </c>
       <c r="G15" t="n">
+        <v>455.7333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>460.7633333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>452</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1022,24 +985,21 @@
         <v>140</v>
       </c>
       <c r="G16" t="n">
+        <v>456.2333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>460.18</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>452</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,24 +1023,21 @@
         <v>63.9618</v>
       </c>
       <c r="G17" t="n">
+        <v>456.7</v>
+      </c>
+      <c r="H17" t="n">
         <v>459.8633333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>452</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1104,24 +1061,21 @@
         <v>282.9821</v>
       </c>
       <c r="G18" t="n">
+        <v>456.6333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>459.4966666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>452</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1145,24 +1099,21 @@
         <v>90.3994</v>
       </c>
       <c r="G19" t="n">
+        <v>456.8333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>459.13</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>452</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1186,24 +1137,21 @@
         <v>421.7501</v>
       </c>
       <c r="G20" t="n">
+        <v>457.2333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>458.78</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>452</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1227,24 +1175,25 @@
         <v>34.4644</v>
       </c>
       <c r="G21" t="n">
+        <v>457.5666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>458.6133333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="n">
-        <v>452</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+        <v>459</v>
+      </c>
+      <c r="L21" t="n">
+        <v>459</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,24 +1217,29 @@
         <v>2</v>
       </c>
       <c r="G22" t="n">
+        <v>457.9733333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>458.2166666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="n">
-        <v>452</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>460</v>
+      </c>
+      <c r="L22" t="n">
+        <v>459</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1309,24 +1263,29 @@
         <v>635.8735</v>
       </c>
       <c r="G23" t="n">
+        <v>458.5933333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>458.24</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
-        <v>452</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+        <v>461</v>
+      </c>
+      <c r="L23" t="n">
+        <v>459</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,24 +1309,29 @@
         <v>1657.491</v>
       </c>
       <c r="G24" t="n">
+        <v>458.6933333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>458.05</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="n">
-        <v>452</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>458</v>
+      </c>
+      <c r="L24" t="n">
+        <v>459</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,24 +1355,29 @@
         <v>435.16721738</v>
       </c>
       <c r="G25" t="n">
+        <v>459.1066666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>458.0466666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
-        <v>452</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>456.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>459</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,24 +1401,29 @@
         <v>2942.8518</v>
       </c>
       <c r="G26" t="n">
+        <v>459.3733333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>457.865</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="n">
-        <v>452</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>460</v>
+      </c>
+      <c r="L26" t="n">
+        <v>459</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1473,24 +1447,29 @@
         <v>40</v>
       </c>
       <c r="G27" t="n">
+        <v>459.6733333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>458.0233333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="n">
-        <v>452</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>460</v>
+      </c>
+      <c r="L27" t="n">
+        <v>459</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,24 +1493,29 @@
         <v>120</v>
       </c>
       <c r="G28" t="n">
+        <v>460.3666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>458.0216666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="n">
-        <v>452</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>463</v>
+      </c>
+      <c r="L28" t="n">
+        <v>459</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1555,24 +1539,29 @@
         <v>2.339</v>
       </c>
       <c r="G29" t="n">
+        <v>460.9333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>458.1383333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="n">
-        <v>452</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>468.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>459</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,24 +1585,27 @@
         <v>1222.6059</v>
       </c>
       <c r="G30" t="n">
+        <v>461.3</v>
+      </c>
+      <c r="H30" t="n">
         <v>458.1066666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>452</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>459</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1637,24 +1629,27 @@
         <v>338.1418</v>
       </c>
       <c r="G31" t="n">
+        <v>461.5666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>458.04</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>452</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>459</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,24 +1673,27 @@
         <v>2568.9158</v>
       </c>
       <c r="G32" t="n">
+        <v>461.9666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>458.0249999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>452</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>459</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1719,24 +1717,27 @@
         <v>439.0842</v>
       </c>
       <c r="G33" t="n">
+        <v>462.4333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>458.0266666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>452</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>459</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1760,24 +1761,27 @@
         <v>160</v>
       </c>
       <c r="G34" t="n">
+        <v>462.9</v>
+      </c>
+      <c r="H34" t="n">
         <v>458.0816666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>452</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>459</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1801,24 +1805,27 @@
         <v>1655.3965</v>
       </c>
       <c r="G35" t="n">
+        <v>463.3333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>458.1066666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>452</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>459</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,24 +1849,27 @@
         <v>2947.2867</v>
       </c>
       <c r="G36" t="n">
+        <v>464.06</v>
+      </c>
+      <c r="H36" t="n">
         <v>458.2883333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>452</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>459</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,24 +1893,27 @@
         <v>120</v>
       </c>
       <c r="G37" t="n">
+        <v>464.72</v>
+      </c>
+      <c r="H37" t="n">
         <v>458.4366666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>452</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>459</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,24 +1937,27 @@
         <v>10.61796559</v>
       </c>
       <c r="G38" t="n">
+        <v>465.5799999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>458.5566666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>452</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>459</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1965,24 +1981,27 @@
         <v>314.3944</v>
       </c>
       <c r="G39" t="n">
+        <v>466.1799999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>458.59</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>452</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>459</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,24 +2025,27 @@
         <v>3</v>
       </c>
       <c r="G40" t="n">
+        <v>466.6466666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>458.6483333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>452</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>459</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2047,24 +2069,27 @@
         <v>384.6514</v>
       </c>
       <c r="G41" t="n">
+        <v>466.9466666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>458.6733333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>452</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>459</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,24 +2113,29 @@
         <v>3658.1671</v>
       </c>
       <c r="G42" t="n">
+        <v>467.0466666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>458.665</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
-        <v>452</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>464.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>459</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2129,24 +2159,29 @@
         <v>453.8673</v>
       </c>
       <c r="G43" t="n">
+        <v>466.7533333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>458.7566666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="n">
-        <v>452</v>
-      </c>
-      <c r="L43" t="inlineStr">
+        <v>464.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>459</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,24 +2205,29 @@
         <v>79.9907</v>
       </c>
       <c r="G44" t="n">
+        <v>466.22</v>
+      </c>
+      <c r="H44" t="n">
         <v>458.7733333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="n">
-        <v>452</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>464.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>459</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2211,24 +2251,29 @@
         <v>1.1</v>
       </c>
       <c r="G45" t="n">
+        <v>466.1199999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>458.9166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
-        <v>452</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>461</v>
+      </c>
+      <c r="L45" t="n">
+        <v>459</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2252,24 +2297,29 @@
         <v>148.8321</v>
       </c>
       <c r="G46" t="n">
+        <v>465.8533333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>458.8849999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
-        <v>452</v>
-      </c>
-      <c r="L46" t="inlineStr">
+        <v>464.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>459</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2293,24 +2343,29 @@
         <v>49.5217</v>
       </c>
       <c r="G47" t="n">
+        <v>465.6533333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>458.8749999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="n">
-        <v>452</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>461</v>
+      </c>
+      <c r="L47" t="n">
+        <v>459</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2334,24 +2389,29 @@
         <v>42.0397</v>
       </c>
       <c r="G48" t="n">
+        <v>465.3866666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>458.975</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="n">
-        <v>452</v>
-      </c>
-      <c r="L48" t="inlineStr">
+        <v>462</v>
+      </c>
+      <c r="L48" t="n">
+        <v>459</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2375,24 +2435,29 @@
         <v>40</v>
       </c>
       <c r="G49" t="n">
+        <v>465.2933333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>459.1366666666665</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="n">
-        <v>452</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>462</v>
+      </c>
+      <c r="L49" t="n">
+        <v>459</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,24 +2481,29 @@
         <v>88.0992</v>
       </c>
       <c r="G50" t="n">
+        <v>465.4533333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>459.3516666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="n">
-        <v>452</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>464.6</v>
+      </c>
+      <c r="L50" t="n">
+        <v>459</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2457,24 +2527,29 @@
         <v>449.6722</v>
       </c>
       <c r="G51" t="n">
+        <v>465.2533333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>459.6</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="n">
-        <v>452</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>467.9</v>
+      </c>
+      <c r="L51" t="n">
+        <v>459</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,24 +2573,29 @@
         <v>465.0703</v>
       </c>
       <c r="G52" t="n">
+        <v>465.58</v>
+      </c>
+      <c r="H52" t="n">
         <v>459.9983333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
-        <v>452</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>467.9</v>
+      </c>
+      <c r="L52" t="n">
+        <v>459</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,24 +2619,27 @@
         <v>2791.1452</v>
       </c>
       <c r="G53" t="n">
+        <v>466.0533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>460.4966666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>452</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>459</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2580,24 +2663,27 @@
         <v>1.11</v>
       </c>
       <c r="G54" t="n">
+        <v>467.8066666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>461.225</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>452</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>459</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2621,25 +2707,28 @@
         <v>49.6813</v>
       </c>
       <c r="G55" t="n">
+        <v>468.4733333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>461.6783333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>452</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1.050309734513274</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>459</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2662,18 +2751,27 @@
         <v>3.654</v>
       </c>
       <c r="G56" t="n">
+        <v>469.6333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>462.2133333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>459</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2697,18 +2795,27 @@
         <v>40</v>
       </c>
       <c r="G57" t="n">
+        <v>470.7333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>462.735</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>459</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2732,18 +2839,27 @@
         <v>80</v>
       </c>
       <c r="G58" t="n">
+        <v>471.8333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>463.2566666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>459</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2767,18 +2883,27 @@
         <v>643.3691</v>
       </c>
       <c r="G59" t="n">
+        <v>473.2333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>463.7883333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>459</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,18 +2927,27 @@
         <v>120.9211</v>
       </c>
       <c r="G60" t="n">
+        <v>474.3933333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>464.3866666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>459</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2837,18 +2971,27 @@
         <v>1599.7531</v>
       </c>
       <c r="G61" t="n">
+        <v>475.7933333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>464.8616666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>459</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2872,18 +3015,27 @@
         <v>597.6312</v>
       </c>
       <c r="G62" t="n">
+        <v>477.1266666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>465.3616666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>459</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2907,18 +3059,27 @@
         <v>334.3841</v>
       </c>
       <c r="G63" t="n">
+        <v>478.4</v>
+      </c>
+      <c r="H63" t="n">
         <v>465.7133333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>459</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2942,18 +3103,27 @@
         <v>122</v>
       </c>
       <c r="G64" t="n">
+        <v>479.16</v>
+      </c>
+      <c r="H64" t="n">
         <v>466.0466666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>459</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,18 +3147,27 @@
         <v>2</v>
       </c>
       <c r="G65" t="n">
+        <v>480.1</v>
+      </c>
+      <c r="H65" t="n">
         <v>466.53</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>459</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3012,18 +3191,27 @@
         <v>93.6618</v>
       </c>
       <c r="G66" t="n">
+        <v>480.24</v>
+      </c>
+      <c r="H66" t="n">
         <v>466.78</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>459</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3047,18 +3235,27 @@
         <v>1460.3172</v>
       </c>
       <c r="G67" t="n">
+        <v>479.8533333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>467.0316666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>459</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,18 +3279,27 @@
         <v>92.3455</v>
       </c>
       <c r="G68" t="n">
+        <v>479.2533333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>467.3699999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>459</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3117,18 +3323,27 @@
         <v>85.477</v>
       </c>
       <c r="G69" t="n">
+        <v>477.6666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>467.5866666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>459</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,18 +3367,27 @@
         <v>8.5197</v>
       </c>
       <c r="G70" t="n">
+        <v>477.0666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>467.8233333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>459</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3187,18 +3411,27 @@
         <v>253.4995</v>
       </c>
       <c r="G71" t="n">
+        <v>476.14</v>
+      </c>
+      <c r="H71" t="n">
         <v>468.0233333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>459</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,18 +3455,27 @@
         <v>1.1</v>
       </c>
       <c r="G72" t="n">
+        <v>475.7933333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>468.3116666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>459</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3257,18 +3499,27 @@
         <v>119.8806</v>
       </c>
       <c r="G73" t="n">
+        <v>474.74</v>
+      </c>
+      <c r="H73" t="n">
         <v>468.4233333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>459</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3292,18 +3543,27 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
+        <v>474.26</v>
+      </c>
+      <c r="H74" t="n">
         <v>468.6616666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>459</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3327,18 +3587,27 @@
         <v>2</v>
       </c>
       <c r="G75" t="n">
+        <v>473.8466666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>468.915</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>459</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,18 +3631,27 @@
         <v>1563.7498</v>
       </c>
       <c r="G76" t="n">
+        <v>472.9800000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>469.0483333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>459</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3397,18 +3675,27 @@
         <v>1.1</v>
       </c>
       <c r="G77" t="n">
+        <v>472.7066666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>469.3633333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>459</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,18 +3719,27 @@
         <v>1132</v>
       </c>
       <c r="G78" t="n">
+        <v>472.4333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>469.6633333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>459</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3467,18 +3763,27 @@
         <v>1739.6031</v>
       </c>
       <c r="G79" t="n">
+        <v>472.0333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>469.8466666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>459</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3502,18 +3807,27 @@
         <v>787</v>
       </c>
       <c r="G80" t="n">
+        <v>472.0333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>470.23</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>459</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3537,18 +3851,27 @@
         <v>100</v>
       </c>
       <c r="G81" t="n">
+        <v>472.4333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>470.4966666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>459</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,18 +3895,27 @@
         <v>951</v>
       </c>
       <c r="G82" t="n">
+        <v>473.2333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>470.8466666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>459</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,18 +3939,27 @@
         <v>1403.7738</v>
       </c>
       <c r="G83" t="n">
+        <v>474.1666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>471.2633333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>459</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3642,18 +3983,27 @@
         <v>1046.5009</v>
       </c>
       <c r="G84" t="n">
+        <v>475.2333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>471.7216666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>459</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,18 +4027,27 @@
         <v>1074.8758</v>
       </c>
       <c r="G85" t="n">
+        <v>476.3</v>
+      </c>
+      <c r="H85" t="n">
         <v>472.1216666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>459</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,18 +4071,27 @@
         <v>64.50490000000001</v>
       </c>
       <c r="G86" t="n">
+        <v>477.3666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>472.5216666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>459</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3747,18 +4115,27 @@
         <v>30.9011</v>
       </c>
       <c r="G87" t="n">
+        <v>478.18</v>
+      </c>
+      <c r="H87" t="n">
         <v>472.9383333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>459</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,18 +4159,27 @@
         <v>84.7174</v>
       </c>
       <c r="G88" t="n">
+        <v>479.6333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>473.24</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>459</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3817,18 +4203,27 @@
         <v>11.5218</v>
       </c>
       <c r="G89" t="n">
+        <v>480.4466666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>473.54</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>459</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3852,18 +4247,27 @@
         <v>168.3371</v>
       </c>
       <c r="G90" t="n">
+        <v>481.1266666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>473.8716666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>459</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3887,18 +4291,27 @@
         <v>1641.6896</v>
       </c>
       <c r="G91" t="n">
+        <v>481.5933333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>474.055</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>459</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,18 +4335,27 @@
         <v>520</v>
       </c>
       <c r="G92" t="n">
+        <v>482.3333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>474.455</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>459</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3957,18 +4379,27 @@
         <v>850</v>
       </c>
       <c r="G93" t="n">
+        <v>483.3333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>474.8883333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>459</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,18 +4423,27 @@
         <v>30.5897</v>
       </c>
       <c r="G94" t="n">
+        <v>484.8</v>
+      </c>
+      <c r="H94" t="n">
         <v>475.3216666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>459</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4027,18 +4467,27 @@
         <v>639</v>
       </c>
       <c r="G95" t="n">
+        <v>485.5333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>475.78</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>459</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4062,18 +4511,27 @@
         <v>900</v>
       </c>
       <c r="G96" t="n">
+        <v>486.68</v>
+      </c>
+      <c r="H96" t="n">
         <v>476.1516666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>459</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4097,18 +4555,27 @@
         <v>350.9527</v>
       </c>
       <c r="G97" t="n">
+        <v>487.08</v>
+      </c>
+      <c r="H97" t="n">
         <v>476.4366666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>459</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,18 +4599,27 @@
         <v>2083.1087</v>
       </c>
       <c r="G98" t="n">
+        <v>487.8933333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>476.8416666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>459</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,18 +4643,27 @@
         <v>623.3674999999999</v>
       </c>
       <c r="G99" t="n">
+        <v>488.7066666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>477.3533333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>459</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,18 +4687,27 @@
         <v>298</v>
       </c>
       <c r="G100" t="n">
+        <v>489.4533333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>477.8233333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>459</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4237,18 +4731,27 @@
         <v>399.1506</v>
       </c>
       <c r="G101" t="n">
+        <v>489.92</v>
+      </c>
+      <c r="H101" t="n">
         <v>478.265</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>459</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,18 +4775,27 @@
         <v>826.8638</v>
       </c>
       <c r="G102" t="n">
+        <v>489.6533333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>478.59</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>459</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4307,18 +4819,27 @@
         <v>1300</v>
       </c>
       <c r="G103" t="n">
+        <v>490.3866666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>479.1483333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>459</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,18 +4863,27 @@
         <v>3.2106</v>
       </c>
       <c r="G104" t="n">
+        <v>490.9666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>479.7266666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>459</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,18 +4907,27 @@
         <v>3705.9434</v>
       </c>
       <c r="G105" t="n">
+        <v>490.8333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>480.05</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>459</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,18 +4951,27 @@
         <v>654.6337</v>
       </c>
       <c r="G106" t="n">
+        <v>491.7733333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>480.535</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>459</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4447,18 +4995,27 @@
         <v>1000</v>
       </c>
       <c r="G107" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="H107" t="n">
         <v>481.1166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>459</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,18 +5039,27 @@
         <v>239.7603</v>
       </c>
       <c r="G108" t="n">
+        <v>492.3733333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>481.635</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>459</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4517,18 +5083,27 @@
         <v>1280.2058</v>
       </c>
       <c r="G109" t="n">
+        <v>492.5066666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>482.125</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>459</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4552,18 +5127,27 @@
         <v>2</v>
       </c>
       <c r="G110" t="n">
+        <v>492.84</v>
+      </c>
+      <c r="H110" t="n">
         <v>482.6266666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>459</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4587,18 +5171,27 @@
         <v>20</v>
       </c>
       <c r="G111" t="n">
+        <v>493.16</v>
+      </c>
+      <c r="H111" t="n">
         <v>483.1283333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>459</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,18 +5215,27 @@
         <v>1036.585</v>
       </c>
       <c r="G112" t="n">
+        <v>493.96</v>
+      </c>
+      <c r="H112" t="n">
         <v>483.5316666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>459</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4657,18 +5259,27 @@
         <v>514</v>
       </c>
       <c r="G113" t="n">
+        <v>494.28</v>
+      </c>
+      <c r="H113" t="n">
         <v>483.8983333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>459</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,18 +5303,27 @@
         <v>7571.69700648</v>
       </c>
       <c r="G114" t="n">
+        <v>494.7333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>484.085</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>459</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4727,18 +5347,27 @@
         <v>10166.84</v>
       </c>
       <c r="G115" t="n">
+        <v>495.1266666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>484.4866666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>459</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,18 +5391,27 @@
         <v>1301</v>
       </c>
       <c r="G116" t="n">
+        <v>496.0533333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>484.8699999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>459</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4797,18 +5435,27 @@
         <v>43.9</v>
       </c>
       <c r="G117" t="n">
+        <v>497.4533333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>485.2699999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>459</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,18 +5479,27 @@
         <v>79.60380000000001</v>
       </c>
       <c r="G118" t="n">
+        <v>497.9733333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>485.6833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>459</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4867,19 +5523,28 @@
         <v>3148.2944</v>
       </c>
       <c r="G119" t="n">
+        <v>498.2666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>485.9849999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
+      <c r="L119" t="n">
+        <v>459</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1.084542483660131</v>
       </c>
     </row>
     <row r="120">
@@ -4902,18 +5567,21 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
+        <v>499.6666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>486.3683333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4937,18 +5605,21 @@
         <v>324.8258</v>
       </c>
       <c r="G121" t="n">
+        <v>500.3933333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>486.6849999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4972,18 +5643,21 @@
         <v>239.1847</v>
       </c>
       <c r="G122" t="n">
+        <v>500.6666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>487.0016666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5007,18 +5681,21 @@
         <v>531.726</v>
       </c>
       <c r="G123" t="n">
+        <v>501.46</v>
+      </c>
+      <c r="H123" t="n">
         <v>487.3999999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,18 +5719,21 @@
         <v>15819.18905543</v>
       </c>
       <c r="G124" t="n">
+        <v>501.9933333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>487.8333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5077,18 +5757,21 @@
         <v>141.9492</v>
       </c>
       <c r="G125" t="n">
+        <v>502.3266666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>488.1833333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,18 +5795,21 @@
         <v>62.9397</v>
       </c>
       <c r="G126" t="n">
+        <v>502.66</v>
+      </c>
+      <c r="H126" t="n">
         <v>488.7333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5147,18 +5833,21 @@
         <v>36.585</v>
       </c>
       <c r="G127" t="n">
+        <v>502.84</v>
+      </c>
+      <c r="H127" t="n">
         <v>489.2783333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,18 +5871,21 @@
         <v>873.17</v>
       </c>
       <c r="G128" t="n">
+        <v>503.36</v>
+      </c>
+      <c r="H128" t="n">
         <v>489.925</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5217,18 +5909,21 @@
         <v>114.755</v>
       </c>
       <c r="G129" t="n">
+        <v>503.3666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>490.5099999999999</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,18 +5947,21 @@
         <v>445.0009</v>
       </c>
       <c r="G130" t="n">
+        <v>503.52</v>
+      </c>
+      <c r="H130" t="n">
         <v>491.1</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5287,18 +5985,21 @@
         <v>5</v>
       </c>
       <c r="G131" t="n">
+        <v>503.4</v>
+      </c>
+      <c r="H131" t="n">
         <v>491.6849999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,18 +6023,21 @@
         <v>199.0479</v>
       </c>
       <c r="G132" t="n">
+        <v>503.2733333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>492.1399999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5357,18 +6061,21 @@
         <v>95</v>
       </c>
       <c r="G133" t="n">
+        <v>502.8933333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>492.7216666666665</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,18 +6099,21 @@
         <v>2</v>
       </c>
       <c r="G134" t="n">
+        <v>503.3333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>493.2533333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5427,18 +6137,21 @@
         <v>19.4924</v>
       </c>
       <c r="G135" t="n">
+        <v>503.0666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>493.6733333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5462,18 +6175,21 @@
         <v>1940.7224</v>
       </c>
       <c r="G136" t="n">
+        <v>503.4133333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>494.2933333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,18 +6213,21 @@
         <v>380</v>
       </c>
       <c r="G137" t="n">
+        <v>503.3466666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>494.6616666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,18 +6251,21 @@
         <v>672.8098</v>
       </c>
       <c r="G138" t="n">
+        <v>503.08</v>
+      </c>
+      <c r="H138" t="n">
         <v>495.0616666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5567,18 +6289,21 @@
         <v>3811.7971</v>
       </c>
       <c r="G139" t="n">
+        <v>503.1800000000001</v>
+      </c>
+      <c r="H139" t="n">
         <v>495.6199999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5602,18 +6327,21 @@
         <v>1931.56384568</v>
       </c>
       <c r="G140" t="n">
+        <v>503.0466666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>495.9366666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5637,18 +6365,21 @@
         <v>1618.0582</v>
       </c>
       <c r="G141" t="n">
+        <v>503.2466666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>496.4366666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5672,18 +6403,21 @@
         <v>192.2107</v>
       </c>
       <c r="G142" t="n">
+        <v>503.1333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>496.7533333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5707,18 +6441,21 @@
         <v>197.585</v>
       </c>
       <c r="G143" t="n">
+        <v>502.6800000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>497.0533333333332</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5742,18 +6479,21 @@
         <v>2554.6509</v>
       </c>
       <c r="G144" t="n">
+        <v>502.4733333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>497.3199999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5777,18 +6517,21 @@
         <v>3459.8279</v>
       </c>
       <c r="G145" t="n">
+        <v>502.2466666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>497.5866666666665</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5812,18 +6555,21 @@
         <v>1592.3213</v>
       </c>
       <c r="G146" t="n">
+        <v>501.84</v>
+      </c>
+      <c r="H146" t="n">
         <v>497.8033333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5847,18 +6593,21 @@
         <v>1437.7161</v>
       </c>
       <c r="G147" t="n">
+        <v>501.4333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>497.9533333333332</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5882,18 +6631,21 @@
         <v>1342.514</v>
       </c>
       <c r="G148" t="n">
+        <v>501.2266666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>498.1199999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5917,18 +6669,21 @@
         <v>1077.2263</v>
       </c>
       <c r="G149" t="n">
+        <v>500.5133333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>498.2699999999999</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5952,18 +6707,21 @@
         <v>3758.6816</v>
       </c>
       <c r="G150" t="n">
+        <v>500.0466666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>498.4033333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5987,18 +6745,21 @@
         <v>3000</v>
       </c>
       <c r="G151" t="n">
+        <v>499.3666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>498.7366666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6022,18 +6783,21 @@
         <v>732.5</v>
       </c>
       <c r="G152" t="n">
+        <v>498.5666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>498.7199999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6057,18 +6821,21 @@
         <v>1462.2491</v>
       </c>
       <c r="G153" t="n">
+        <v>497.7</v>
+      </c>
+      <c r="H153" t="n">
         <v>498.6533333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6092,18 +6859,21 @@
         <v>2853.7737</v>
       </c>
       <c r="G154" t="n">
+        <v>496.6666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>498.5866666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6127,18 +6897,21 @@
         <v>1175.502</v>
       </c>
       <c r="G155" t="n">
+        <v>495.8</v>
+      </c>
+      <c r="H155" t="n">
         <v>498.5033333333332</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6162,18 +6935,21 @@
         <v>2876.7582</v>
       </c>
       <c r="G156" t="n">
+        <v>494.4</v>
+      </c>
+      <c r="H156" t="n">
         <v>498.3666666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6197,18 +6973,21 @@
         <v>6833.3342</v>
       </c>
       <c r="G157" t="n">
+        <v>493.0666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>498.2499999999999</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6232,18 +7011,21 @@
         <v>100</v>
       </c>
       <c r="G158" t="n">
+        <v>492</v>
+      </c>
+      <c r="H158" t="n">
         <v>498.0799999999999</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6267,18 +7049,21 @@
         <v>504.4414</v>
       </c>
       <c r="G159" t="n">
+        <v>490.6</v>
+      </c>
+      <c r="H159" t="n">
         <v>497.7933333333332</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6302,18 +7087,21 @@
         <v>1135.7518</v>
       </c>
       <c r="G160" t="n">
+        <v>489.0666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>497.4899999999998</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6337,18 +7125,21 @@
         <v>1733.7602</v>
       </c>
       <c r="G161" t="n">
+        <v>487.7333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>497.2566666666665</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6372,18 +7163,21 @@
         <v>96.0159</v>
       </c>
       <c r="G162" t="n">
+        <v>486.4</v>
+      </c>
+      <c r="H162" t="n">
         <v>497.1399999999998</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6407,18 +7201,21 @@
         <v>163.1244</v>
       </c>
       <c r="G163" t="n">
+        <v>485.0666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>496.7899999999998</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6442,18 +7239,21 @@
         <v>227.4393</v>
       </c>
       <c r="G164" t="n">
+        <v>483.8</v>
+      </c>
+      <c r="H164" t="n">
         <v>496.4783333333332</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6477,18 +7277,21 @@
         <v>301.4904</v>
       </c>
       <c r="G165" t="n">
+        <v>482.6666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>496.3616666666665</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6512,18 +7315,21 @@
         <v>38.7769</v>
       </c>
       <c r="G166" t="n">
+        <v>481.4</v>
+      </c>
+      <c r="H166" t="n">
         <v>496.1433333333332</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6547,18 +7353,21 @@
         <v>2595.7217</v>
       </c>
       <c r="G167" t="n">
+        <v>481.06</v>
+      </c>
+      <c r="H167" t="n">
         <v>495.9099999999999</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6582,18 +7391,21 @@
         <v>19117.8397</v>
       </c>
       <c r="G168" t="n">
+        <v>480.6533333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>495.7233333333332</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6617,18 +7429,21 @@
         <v>1547.0239</v>
       </c>
       <c r="G169" t="n">
+        <v>480.2533333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>495.5233333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6652,18 +7467,21 @@
         <v>563.9647</v>
       </c>
       <c r="G170" t="n">
+        <v>479.8066666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>495.2449999999999</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6687,18 +7505,21 @@
         <v>1555.8047</v>
       </c>
       <c r="G171" t="n">
+        <v>479.5266666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>494.9583333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6722,18 +7543,21 @@
         <v>240</v>
       </c>
       <c r="G172" t="n">
+        <v>479.5066666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>494.6366666666665</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6757,18 +7581,21 @@
         <v>938.3683</v>
       </c>
       <c r="G173" t="n">
+        <v>479.1999999999999</v>
+      </c>
+      <c r="H173" t="n">
         <v>494.3099999999999</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6792,18 +7619,21 @@
         <v>2697</v>
       </c>
       <c r="G174" t="n">
+        <v>479.2866666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>493.9316666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6827,18 +7657,21 @@
         <v>640</v>
       </c>
       <c r="G175" t="n">
+        <v>479.5066666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>493.5849999999999</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6862,18 +7695,21 @@
         <v>333.5499</v>
       </c>
       <c r="G176" t="n">
+        <v>479.7266666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>493.1749999999999</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6897,18 +7733,21 @@
         <v>8351.4745</v>
       </c>
       <c r="G177" t="n">
+        <v>479.1266666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>492.5583333333332</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6932,18 +7771,21 @@
         <v>477.8373</v>
       </c>
       <c r="G178" t="n">
+        <v>478.9933333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>492.0449999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6967,18 +7809,21 @@
         <v>5716.8034</v>
       </c>
       <c r="G179" t="n">
+        <v>479.0466666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>491.6733333333332</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7002,18 +7847,21 @@
         <v>1253.1817</v>
       </c>
       <c r="G180" t="n">
+        <v>479.1133333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>491.2233333333332</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7037,18 +7885,21 @@
         <v>2.5</v>
       </c>
       <c r="G181" t="n">
+        <v>479.46</v>
+      </c>
+      <c r="H181" t="n">
         <v>490.9099999999999</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7072,18 +7923,21 @@
         <v>1180.5675</v>
       </c>
       <c r="G182" t="n">
+        <v>479.4133333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>490.5966666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7107,18 +7961,21 @@
         <v>1786.0206</v>
       </c>
       <c r="G183" t="n">
+        <v>478.9533333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>490.0966666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7142,18 +7999,21 @@
         <v>470.341</v>
       </c>
       <c r="G184" t="n">
+        <v>478.4866666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>489.6466666666666</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7177,18 +8037,21 @@
         <v>269.3666</v>
       </c>
       <c r="G185" t="n">
+        <v>478.0666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>489.1799999999999</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7212,18 +8075,21 @@
         <v>1.1161</v>
       </c>
       <c r="G186" t="n">
+        <v>477.68</v>
+      </c>
+      <c r="H186" t="n">
         <v>488.7133333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7247,18 +8113,21 @@
         <v>21.05263157</v>
       </c>
       <c r="G187" t="n">
+        <v>477.3</v>
+      </c>
+      <c r="H187" t="n">
         <v>488.2516666666666</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,18 +8151,21 @@
         <v>20.7161</v>
       </c>
       <c r="G188" t="n">
+        <v>476.8733333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>487.6883333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7317,18 +8189,21 @@
         <v>6.2071</v>
       </c>
       <c r="G189" t="n">
+        <v>476.4533333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>487.2033333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7352,18 +8227,21 @@
         <v>72.4525</v>
       </c>
       <c r="G190" t="n">
+        <v>475.7666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>486.6466666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7387,18 +8265,21 @@
         <v>21.5345</v>
       </c>
       <c r="G191" t="n">
+        <v>474.7466666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>486.0116666666666</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7422,18 +8303,21 @@
         <v>999.0700000000001</v>
       </c>
       <c r="G192" t="n">
+        <v>474.3466666666666</v>
+      </c>
+      <c r="H192" t="n">
         <v>485.3266666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7457,18 +8341,21 @@
         <v>3893.8677</v>
       </c>
       <c r="G193" t="n">
+        <v>473.48</v>
+      </c>
+      <c r="H193" t="n">
         <v>484.6916666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7492,18 +8379,21 @@
         <v>64.93940000000001</v>
       </c>
       <c r="G194" t="n">
+        <v>472.4266666666666</v>
+      </c>
+      <c r="H194" t="n">
         <v>483.9466666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7527,18 +8417,21 @@
         <v>635.4112</v>
       </c>
       <c r="G195" t="n">
+        <v>471.36</v>
+      </c>
+      <c r="H195" t="n">
         <v>483.2966666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7562,18 +8455,21 @@
         <v>2428.7285</v>
       </c>
       <c r="G196" t="n">
+        <v>470.0133333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>482.56</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7597,18 +8493,21 @@
         <v>2118.436</v>
       </c>
       <c r="G197" t="n">
+        <v>468.0933333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>481.7833333333334</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7632,18 +8531,21 @@
         <v>1040.6276</v>
       </c>
       <c r="G198" t="n">
+        <v>467.2266666666666</v>
+      </c>
+      <c r="H198" t="n">
         <v>481.1333333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7667,18 +8569,21 @@
         <v>158.0234</v>
       </c>
       <c r="G199" t="n">
+        <v>466.4933333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>480.475</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7702,18 +8607,21 @@
         <v>2411.7766</v>
       </c>
       <c r="G200" t="n">
+        <v>465.8266666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>479.875</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7737,18 +8645,21 @@
         <v>664.1992</v>
       </c>
       <c r="G201" t="n">
+        <v>465.2</v>
+      </c>
+      <c r="H201" t="n">
         <v>479.2016666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7772,18 +8683,21 @@
         <v>1.1</v>
       </c>
       <c r="G202" t="n">
+        <v>464.84</v>
+      </c>
+      <c r="H202" t="n">
         <v>478.6783333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7807,18 +8721,21 @@
         <v>779</v>
       </c>
       <c r="G203" t="n">
+        <v>464.5533333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>478.1566666666666</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7842,18 +8759,21 @@
         <v>19.3889</v>
       </c>
       <c r="G204" t="n">
+        <v>464.0866666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>477.6066666666666</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7877,18 +8797,21 @@
         <v>579.8882</v>
       </c>
       <c r="G205" t="n">
+        <v>463.6866666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>477.0066666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7912,18 +8835,21 @@
         <v>1.1</v>
       </c>
       <c r="G206" t="n">
+        <v>463.6666666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>476.4683333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7947,18 +8873,21 @@
         <v>578.7881</v>
       </c>
       <c r="G207" t="n">
+        <v>463.9333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>475.9516666666667</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7982,18 +8911,21 @@
         <v>5.61</v>
       </c>
       <c r="G208" t="n">
+        <v>464.24</v>
+      </c>
+      <c r="H208" t="n">
         <v>475.4449999999999</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8017,18 +8949,21 @@
         <v>30.3855</v>
       </c>
       <c r="G209" t="n">
+        <v>464.5466666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>474.9549999999999</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8052,18 +8987,21 @@
         <v>340</v>
       </c>
       <c r="G210" t="n">
+        <v>465.08</v>
+      </c>
+      <c r="H210" t="n">
         <v>474.5549999999999</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8087,18 +9025,21 @@
         <v>1.2</v>
       </c>
       <c r="G211" t="n">
+        <v>465.5533333333334</v>
+      </c>
+      <c r="H211" t="n">
         <v>474.1066666666666</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8122,18 +9063,21 @@
         <v>1.1674</v>
       </c>
       <c r="G212" t="n">
+        <v>467.3133333333334</v>
+      </c>
+      <c r="H212" t="n">
         <v>473.9699999999999</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8157,18 +9101,21 @@
         <v>866.0587</v>
       </c>
       <c r="G213" t="n">
+        <v>468.5000000000001</v>
+      </c>
+      <c r="H213" t="n">
         <v>473.8333333333332</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8192,18 +9139,21 @@
         <v>1357.2097</v>
       </c>
       <c r="G214" t="n">
+        <v>469.4866666666668</v>
+      </c>
+      <c r="H214" t="n">
         <v>473.6799999999999</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8227,18 +9177,21 @@
         <v>24</v>
       </c>
       <c r="G215" t="n">
+        <v>470.0866666666668</v>
+      </c>
+      <c r="H215" t="n">
         <v>473.4466666666665</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8262,18 +9215,21 @@
         <v>5.271</v>
       </c>
       <c r="G216" t="n">
+        <v>470.7733333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>473.2949999999999</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8297,18 +9253,21 @@
         <v>182.925</v>
       </c>
       <c r="G217" t="n">
+        <v>471.1933333333334</v>
+      </c>
+      <c r="H217" t="n">
         <v>473.2099999999999</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8332,18 +9291,21 @@
         <v>89.7</v>
       </c>
       <c r="G218" t="n">
+        <v>471.6133333333334</v>
+      </c>
+      <c r="H218" t="n">
         <v>473.0599999999999</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8367,18 +9329,21 @@
         <v>7497.9198</v>
       </c>
       <c r="G219" t="n">
+        <v>472.2866666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>473.0283333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8402,18 +9367,21 @@
         <v>303.9847</v>
       </c>
       <c r="G220" t="n">
+        <v>473.3466666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>473.0766666666666</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8437,18 +9405,21 @@
         <v>112.9527</v>
       </c>
       <c r="G221" t="n">
+        <v>474.3666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>473.1266666666666</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8472,18 +9443,21 @@
         <v>53.7952</v>
       </c>
       <c r="G222" t="n">
+        <v>475.2933333333334</v>
+      </c>
+      <c r="H222" t="n">
         <v>473.175</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8507,18 +9481,21 @@
         <v>69.93380000000001</v>
       </c>
       <c r="G223" t="n">
+        <v>476.18</v>
+      </c>
+      <c r="H223" t="n">
         <v>473.2233333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8542,18 +9519,21 @@
         <v>39.7391</v>
       </c>
       <c r="G224" t="n">
+        <v>477.0066666666666</v>
+      </c>
+      <c r="H224" t="n">
         <v>473.2566666666666</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8577,18 +9557,21 @@
         <v>165.5981</v>
       </c>
       <c r="G225" t="n">
+        <v>477.6733333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>473.3066666666666</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8612,18 +9595,21 @@
         <v>40</v>
       </c>
       <c r="G226" t="n">
+        <v>478.6666666666666</v>
+      </c>
+      <c r="H226" t="n">
         <v>473.4233333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8647,18 +9633,21 @@
         <v>80</v>
       </c>
       <c r="G227" t="n">
+        <v>479.1533333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>473.4933333333332</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8682,18 +9671,21 @@
         <v>2689.4058</v>
       </c>
       <c r="G228" t="n">
+        <v>479.6933333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>473.5933333333332</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8717,18 +9709,21 @@
         <v>2609.4058</v>
       </c>
       <c r="G229" t="n">
+        <v>479.9733333333332</v>
+      </c>
+      <c r="H229" t="n">
         <v>473.6099999999999</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8752,18 +9747,21 @@
         <v>152.6802</v>
       </c>
       <c r="G230" t="n">
+        <v>480.5066666666665</v>
+      </c>
+      <c r="H230" t="n">
         <v>473.6216666666666</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8787,18 +9785,21 @@
         <v>1.1</v>
       </c>
       <c r="G231" t="n">
+        <v>480.9799999999999</v>
+      </c>
+      <c r="H231" t="n">
         <v>473.6583333333332</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8822,18 +9823,21 @@
         <v>2366.5155</v>
       </c>
       <c r="G232" t="n">
+        <v>480.9266666666666</v>
+      </c>
+      <c r="H232" t="n">
         <v>473.5649999999999</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8857,18 +9861,21 @@
         <v>81.29859999999999</v>
       </c>
       <c r="G233" t="n">
+        <v>481.1266666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>473.5416666666666</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8892,18 +9899,21 @@
         <v>160.9662</v>
       </c>
       <c r="G234" t="n">
+        <v>481.3199999999999</v>
+      </c>
+      <c r="H234" t="n">
         <v>473.5366666666666</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8927,18 +9937,21 @@
         <v>1.1</v>
       </c>
       <c r="G235" t="n">
+        <v>481.3333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>473.5333333333332</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8962,18 +9975,21 @@
         <v>1.1</v>
       </c>
       <c r="G236" t="n">
+        <v>481.34</v>
+      </c>
+      <c r="H236" t="n">
         <v>473.5299999999999</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8997,18 +10013,21 @@
         <v>1698.5039</v>
       </c>
       <c r="G237" t="n">
+        <v>481.14</v>
+      </c>
+      <c r="H237" t="n">
         <v>473.6783333333332</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9032,18 +10051,21 @@
         <v>1.1</v>
       </c>
       <c r="G238" t="n">
+        <v>480.9466666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>473.7116666666665</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,18 +10089,21 @@
         <v>1.1</v>
       </c>
       <c r="G239" t="n">
+        <v>480.8733333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>473.7133333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9102,18 +10127,21 @@
         <v>1.1</v>
       </c>
       <c r="G240" t="n">
+        <v>480.8066666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>473.7299999999999</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9137,18 +10165,21 @@
         <v>840</v>
       </c>
       <c r="G241" t="n">
+        <v>480.6</v>
+      </c>
+      <c r="H241" t="n">
         <v>473.7083333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9172,18 +10203,21 @@
         <v>71.8976</v>
       </c>
       <c r="G242" t="n">
+        <v>480.1866666666666</v>
+      </c>
+      <c r="H242" t="n">
         <v>473.6866666666666</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9207,18 +10241,21 @@
         <v>273.19</v>
       </c>
       <c r="G243" t="n">
+        <v>479.8133333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>473.8083333333333</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9242,18 +10279,21 @@
         <v>1585.9924</v>
       </c>
       <c r="G244" t="n">
+        <v>479.4933333333333</v>
+      </c>
+      <c r="H244" t="n">
         <v>473.8616666666666</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9277,18 +10317,21 @@
         <v>1.1</v>
       </c>
       <c r="G245" t="n">
+        <v>479.5133333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>473.9833333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9312,18 +10355,21 @@
         <v>80</v>
       </c>
       <c r="G246" t="n">
+        <v>479.7133333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>474.1666666666666</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9347,18 +10393,21 @@
         <v>1.1</v>
       </c>
       <c r="G247" t="n">
+        <v>480.5066666666666</v>
+      </c>
+      <c r="H247" t="n">
         <v>474.3666666666666</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9382,18 +10431,21 @@
         <v>114.0402</v>
       </c>
       <c r="G248" t="n">
+        <v>481.04</v>
+      </c>
+      <c r="H248" t="n">
         <v>474.5833333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9417,18 +10469,401 @@
         <v>51.1</v>
       </c>
       <c r="G249" t="n">
+        <v>481.6</v>
+      </c>
+      <c r="H249" t="n">
         <v>474.8233333333333</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="C250" t="n">
+        <v>492</v>
+      </c>
+      <c r="D250" t="n">
+        <v>492</v>
+      </c>
+      <c r="E250" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>600</v>
+      </c>
+      <c r="G250" t="n">
+        <v>482.3933333333333</v>
+      </c>
+      <c r="H250" t="n">
+        <v>475.1899999999999</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>488</v>
+      </c>
+      <c r="C251" t="n">
+        <v>488</v>
+      </c>
+      <c r="D251" t="n">
+        <v>488</v>
+      </c>
+      <c r="E251" t="n">
+        <v>488</v>
+      </c>
+      <c r="F251" t="n">
+        <v>40</v>
+      </c>
+      <c r="G251" t="n">
+        <v>482.9199999999999</v>
+      </c>
+      <c r="H251" t="n">
+        <v>475.5733333333333</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>488</v>
+      </c>
+      <c r="C252" t="n">
+        <v>488</v>
+      </c>
+      <c r="D252" t="n">
+        <v>488</v>
+      </c>
+      <c r="E252" t="n">
+        <v>488</v>
+      </c>
+      <c r="F252" t="n">
+        <v>17.6706</v>
+      </c>
+      <c r="G252" t="n">
+        <v>483.6599999999999</v>
+      </c>
+      <c r="H252" t="n">
+        <v>476.0066666666666</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>484</v>
+      </c>
+      <c r="C253" t="n">
+        <v>478.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>484</v>
+      </c>
+      <c r="E253" t="n">
+        <v>478.5</v>
+      </c>
+      <c r="F253" t="n">
+        <v>238.518</v>
+      </c>
+      <c r="G253" t="n">
+        <v>483.7599999999999</v>
+      </c>
+      <c r="H253" t="n">
+        <v>476.2816666666666</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>483</v>
+      </c>
+      <c r="C254" t="n">
+        <v>483</v>
+      </c>
+      <c r="D254" t="n">
+        <v>483</v>
+      </c>
+      <c r="E254" t="n">
+        <v>483</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G254" t="n">
+        <v>484.1</v>
+      </c>
+      <c r="H254" t="n">
+        <v>476.6316666666666</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>481</v>
+      </c>
+      <c r="C255" t="n">
+        <v>481</v>
+      </c>
+      <c r="D255" t="n">
+        <v>481</v>
+      </c>
+      <c r="E255" t="n">
+        <v>481</v>
+      </c>
+      <c r="F255" t="n">
+        <v>20.5097</v>
+      </c>
+      <c r="G255" t="n">
+        <v>484.2333333333333</v>
+      </c>
+      <c r="H255" t="n">
+        <v>476.9483333333333</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="E256" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2015.1182</v>
+      </c>
+      <c r="G256" t="n">
+        <v>484.1133333333333</v>
+      </c>
+      <c r="H256" t="n">
+        <v>477.2333333333333</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="E257" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>40</v>
+      </c>
+      <c r="G257" t="n">
+        <v>483.9933333333334</v>
+      </c>
+      <c r="H257" t="n">
+        <v>477.6616666666666</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>483</v>
+      </c>
+      <c r="D258" t="n">
+        <v>483</v>
+      </c>
+      <c r="E258" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>310</v>
+      </c>
+      <c r="G258" t="n">
+        <v>484.04</v>
+      </c>
+      <c r="H258" t="n">
+        <v>478.0116666666665</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>483</v>
+      </c>
+      <c r="C259" t="n">
+        <v>484.8</v>
+      </c>
+      <c r="D259" t="n">
+        <v>484.8</v>
+      </c>
+      <c r="E259" t="n">
+        <v>483</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G259" t="n">
+        <v>484.4800000000001</v>
+      </c>
+      <c r="H259" t="n">
+        <v>478.3583333333332</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest GXC.xlsx
+++ b/BackTest/2020-01-16 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N317"/>
+  <dimension ref="A1:M317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-6089.702730550002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-6553.647430550002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-6558.847430550002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-3425.438830550002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,21 @@
         <v>-3803.199430550002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>482.6</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +787,21 @@
         <v>-6203.069330550003</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +826,21 @@
         <v>-6199.927599910003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +865,21 @@
         <v>-5197.927599910003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>481.9</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +904,19 @@
         <v>-8197.960899910002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +943,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +978,19 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1017,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1052,19 @@
         <v>-9138.553699910002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1089,19 @@
         <v>-8785.863199910002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1126,19 @@
         <v>-10156.69379991</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1163,17 @@
         <v>-6348.138199910001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1198,15 @@
         <v>-6785.958999910002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1233,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1266,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1299,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1332,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1365,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1398,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1429,21 @@
         <v>-23636.65079991</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1470,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1505,21 @@
         <v>-24008.46479991</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>465.9</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1546,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1583,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1620,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1657,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1694,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1731,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1768,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1805,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1842,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1879,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1916,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1953,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1990,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2027,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2064,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2101,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2138,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2175,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2212,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2249,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2286,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2323,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2360,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2397,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2434,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2469,21 @@
         <v>-31606.03339990999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>450.1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2508,21 @@
         <v>-31248.97229990999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>446.1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2547,21 @@
         <v>-31292.97229990999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>453.5</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2588,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2623,21 @@
         <v>-31451.77819990999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2664,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2701,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2738,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2775,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2812,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2849,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2886,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2921,21 @@
         <v>-34391.94549990999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2962,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2999,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +3036,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +3073,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3110,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +3145,21 @@
         <v>-33621.59939990999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +3184,21 @@
         <v>-33621.59939990999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +3223,21 @@
         <v>-33621.59939990999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +3262,21 @@
         <v>-33587.13499990999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3301,21 @@
         <v>-33585.13499990999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3340,21 @@
         <v>-34221.00849990999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3379,21 @@
         <v>-35878.49949990999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3418,21 @@
         <v>-35443.33228252999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>456.5</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3457,21 @@
         <v>-35443.33228252999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3496,21 @@
         <v>-35403.33228252999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3535,21 @@
         <v>-35283.33228252999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3574,21 @@
         <v>-35280.99328252999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>468.9</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3615,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3652,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3689,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3726,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3761,21 @@
         <v>-36402.65678252999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3800,21 @@
         <v>-38058.05328253</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3839,21 @@
         <v>-35110.76658253</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>465.5</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3878,21 @@
         <v>-35110.76658253</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>470.9</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3917,21 @@
         <v>-35110.76658253</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>470.9</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3956,21 @@
         <v>-35425.16098253</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>470.9</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3995,21 @@
         <v>-35422.16098253</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>465.5</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +4034,21 @@
         <v>-35806.81238253</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +4073,21 @@
         <v>-35806.81238253</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>464.5</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +4112,21 @@
         <v>-35806.81238253</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>464.5</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +4151,21 @@
         <v>-35886.80308253</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>464.5</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,22 +4190,21 @@
         <v>-35885.70308253</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
         <v>461</v>
       </c>
-      <c r="K103" t="n">
-        <v>461</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4132,26 +4229,21 @@
         <v>-36034.53518253</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
         <v>464.6</v>
       </c>
-      <c r="K104" t="n">
-        <v>461</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4176,26 +4268,21 @@
         <v>-35985.01348253</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
         <v>461</v>
       </c>
-      <c r="K105" t="n">
-        <v>461</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4220,26 +4307,21 @@
         <v>-35985.01348253</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
         <v>462</v>
       </c>
-      <c r="K106" t="n">
-        <v>461</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4264,26 +4346,21 @@
         <v>-35945.01348253</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
         <v>462</v>
       </c>
-      <c r="K107" t="n">
-        <v>461</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4308,26 +4385,21 @@
         <v>-35856.91428253001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
         <v>464.6</v>
       </c>
-      <c r="K108" t="n">
-        <v>461</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4352,24 +4424,21 @@
         <v>-35856.91428253001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>467.9</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>461</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4394,24 +4463,21 @@
         <v>-35391.84398253001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>467.9</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>461</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4436,24 +4502,21 @@
         <v>-32600.69878253001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>475.8</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>461</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4480,22 +4543,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>461</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4522,22 +4580,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>461</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4564,22 +4617,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>461</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4606,22 +4654,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>461</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4646,24 +4689,19 @@
         <v>-32685.61608253001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>461</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4690,22 +4728,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>461</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4732,22 +4765,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>461</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4774,22 +4802,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>461</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4814,24 +4837,19 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>461</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1.040553145336226</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4858,16 +4876,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4894,16 +4913,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4930,16 +4950,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4966,16 +4987,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5002,16 +5024,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5038,16 +5061,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5074,16 +5098,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5110,16 +5135,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5146,16 +5172,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5182,16 +5209,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5218,16 +5246,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5254,16 +5283,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5290,16 +5320,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5326,16 +5357,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5362,16 +5394,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5398,16 +5431,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5434,16 +5468,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5470,16 +5505,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5506,16 +5542,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5542,16 +5579,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5578,16 +5616,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5614,16 +5653,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5650,16 +5690,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5686,16 +5727,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5722,16 +5764,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5758,16 +5801,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5794,16 +5838,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5830,16 +5875,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5866,16 +5912,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5902,16 +5949,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5938,16 +5986,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5974,16 +6023,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6010,16 +6060,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6046,16 +6097,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6082,16 +6134,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6118,16 +6171,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6152,18 +6206,17 @@
         <v>-29828.19368253</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6188,18 +6241,15 @@
         <v>-30126.19368253</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6224,18 +6274,15 @@
         <v>-30525.34428253</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6260,18 +6307,15 @@
         <v>-31352.20808253</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6296,18 +6340,15 @@
         <v>-30052.20808253</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6334,16 +6375,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6368,18 +6406,15 @@
         <v>-33761.36208253</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6404,18 +6439,15 @@
         <v>-33106.72838253</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6440,18 +6472,15 @@
         <v>-32106.72838253</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6476,18 +6505,15 @@
         <v>-32346.48868253001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6512,18 +6538,15 @@
         <v>-31066.28288253001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6548,18 +6571,15 @@
         <v>-31064.28288253001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6584,18 +6604,15 @@
         <v>-31064.28288253001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6620,18 +6637,15 @@
         <v>-30027.69788253001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6658,16 +6672,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6692,18 +6703,15 @@
         <v>-22456.00087605001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6730,16 +6738,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6764,18 +6769,15 @@
         <v>-31321.84087605001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6802,16 +6804,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6836,18 +6835,15 @@
         <v>-31198.33707605</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6872,18 +6868,15 @@
         <v>-34346.63147605</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6908,18 +6901,15 @@
         <v>-34345.63147605</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6944,18 +6934,15 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6980,18 +6967,15 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7018,16 +7002,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7052,18 +7033,15 @@
         <v>-49957.92033148</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7090,16 +7068,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7124,18 +7099,15 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7162,16 +7134,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7196,18 +7165,15 @@
         <v>-48979.38613147999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7234,16 +7200,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7268,18 +7231,15 @@
         <v>-48649.14023147999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7304,18 +7264,15 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7340,18 +7297,15 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7376,18 +7330,15 @@
         <v>-48749.14023147999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7414,16 +7365,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7450,16 +7398,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7486,16 +7431,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7522,16 +7464,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7558,16 +7497,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7594,16 +7530,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7628,18 +7561,15 @@
         <v>-44652.86717716</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7666,16 +7596,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7700,18 +7627,15 @@
         <v>-43227.01967716</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7738,16 +7662,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7774,16 +7695,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7810,16 +7728,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7846,16 +7761,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7882,16 +7794,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7918,16 +7827,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7954,16 +7860,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7990,16 +7893,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8026,16 +7926,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8062,16 +7959,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8098,16 +7992,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8134,16 +8025,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8170,16 +8058,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8206,16 +8091,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8242,16 +8124,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8278,16 +8157,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8314,16 +8190,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8350,16 +8223,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8386,16 +8256,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8422,16 +8289,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8458,16 +8322,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8494,16 +8355,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8530,16 +8388,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8566,16 +8421,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8602,16 +8454,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8638,16 +8487,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8674,16 +8520,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8710,16 +8553,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8746,16 +8586,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8782,16 +8619,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8818,16 +8652,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8854,16 +8685,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8890,16 +8718,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8926,16 +8751,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8962,16 +8784,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8998,16 +8817,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9034,16 +8850,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9070,16 +8883,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9106,16 +8916,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9142,16 +8949,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9178,16 +8982,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9214,16 +9015,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9250,16 +9048,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9286,16 +9081,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9322,16 +9114,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9358,16 +9147,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9394,16 +9180,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9430,16 +9213,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9466,16 +9246,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9502,16 +9279,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9538,16 +9312,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9572,24 +9343,15 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="n">
-        <v>462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9614,24 +9376,15 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="n">
-        <v>462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9656,24 +9409,15 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="n">
-        <v>462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9700,20 +9444,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9738,24 +9475,15 @@
         <v>-87041.67137715999</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="n">
-        <v>453.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9782,20 +9510,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9822,20 +9543,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9862,20 +9576,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9902,20 +9609,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9942,20 +9642,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9982,20 +9675,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10022,20 +9708,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10062,20 +9741,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10100,24 +9772,15 @@
         <v>-83046.96117715997</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>464.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10142,24 +9805,15 @@
         <v>-83041.35117715997</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10184,24 +9838,15 @@
         <v>-83041.35117715997</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>466.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10226,24 +9871,15 @@
         <v>-82701.35117715997</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>466.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10268,24 +9904,15 @@
         <v>-82702.55117715997</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="n">
-        <v>470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10310,24 +9937,15 @@
         <v>-82701.38377715996</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>469.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10354,20 +9972,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10394,20 +10005,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10434,20 +10038,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10474,20 +10071,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10512,24 +10102,15 @@
         <v>-84077.32247715998</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="n">
-        <v>475.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10556,20 +10137,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10596,20 +10170,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10636,20 +10203,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10676,20 +10236,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10716,20 +10269,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10756,20 +10302,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10796,20 +10335,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10836,20 +10368,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10876,20 +10401,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10916,20 +10434,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10956,20 +10467,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10996,20 +10500,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11036,20 +10533,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11076,20 +10566,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11116,20 +10599,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11156,20 +10632,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11196,20 +10665,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11236,20 +10698,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11276,20 +10731,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11316,20 +10764,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11354,24 +10795,15 @@
         <v>-79772.83627715996</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="n">
-        <v>476.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11396,24 +10828,15 @@
         <v>-79771.73627715996</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="n">
-        <v>477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11440,20 +10863,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11480,20 +10896,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11520,20 +10929,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11560,20 +10962,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11600,20 +10995,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11638,24 +11026,15 @@
         <v>-80242.33867715995</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="n">
-        <v>478.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11682,20 +11061,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11722,20 +11094,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11762,20 +11127,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11802,20 +11160,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11842,20 +11193,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11882,20 +11226,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11922,20 +11259,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11962,20 +11292,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12000,24 +11323,15 @@
         <v>-79787.55667715993</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="n">
-        <v>478.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12042,24 +11356,15 @@
         <v>-79808.06637715992</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12084,24 +11389,15 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="n">
-        <v>481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12126,24 +11422,15 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="n">
-        <v>479.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12168,24 +11455,15 @@
         <v>-81513.18457715992</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="n">
-        <v>479.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12210,26 +11488,17 @@
         <v>-80213.18457715992</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest GXC.xlsx
+++ b/BackTest/2020-01-16 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>-6089.702730550002</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-6553.647430550002</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6558.847430550002</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3425.438830550002</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,17 +748,11 @@
         <v>-3803.199430550002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>482.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -787,17 +781,11 @@
         <v>-6203.069330550003</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -826,17 +814,11 @@
         <v>-6199.927599910003</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,17 +847,11 @@
         <v>-5197.927599910003</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>481.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -904,15 +880,11 @@
         <v>-8197.960899910002</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -945,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -978,15 +946,11 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1019,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1052,15 +1012,11 @@
         <v>-9138.553699910002</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1089,15 +1045,11 @@
         <v>-8785.863199910002</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1126,15 +1078,11 @@
         <v>-10156.69379991</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1163,16 +1111,14 @@
         <v>-6348.138199910001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1198,7 +1144,7 @@
         <v>-6785.958999910002</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1231,7 +1177,7 @@
         <v>-6778.758999910002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1264,7 +1210,7 @@
         <v>-23944.05089991</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1297,7 +1243,7 @@
         <v>-22226.96979991</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1330,7 +1276,7 @@
         <v>-22230.96979991</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1363,7 +1309,7 @@
         <v>-21933.01939991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1396,7 +1342,7 @@
         <v>-21696.94859991</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1431,15 +1377,9 @@
       <c r="H30" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
-        <v>469</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1468,15 +1408,11 @@
         <v>-23636.65079991</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1507,15 +1443,9 @@
       <c r="H32" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
-        <v>465.9</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1544,15 +1474,11 @@
         <v>-23704.65099991</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1585,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1622,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1655,15 +1573,11 @@
         <v>-23095.86649991</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1696,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1733,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1770,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1807,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1844,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1881,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1918,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1955,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1992,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2029,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2066,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2103,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2140,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2177,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2214,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2251,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2288,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2325,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2362,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2399,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2436,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2469,17 +2299,11 @@
         <v>-31606.03339990999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>450.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2508,17 +2332,11 @@
         <v>-31248.97229990999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>446.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2547,17 +2365,11 @@
         <v>-31292.97229990999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>453.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2590,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2623,17 +2431,11 @@
         <v>-31451.77819990999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2666,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2703,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2740,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2777,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2814,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2851,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2888,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2921,17 +2695,11 @@
         <v>-34391.94549990999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2964,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3001,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3038,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3075,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3112,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3145,17 +2893,11 @@
         <v>-33621.59939990999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3184,17 +2926,11 @@
         <v>-33621.59939990999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3223,17 +2959,11 @@
         <v>-33621.59939990999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3262,17 +2992,11 @@
         <v>-33587.13499990999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3301,17 +3025,11 @@
         <v>-33585.13499990999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3340,17 +3058,11 @@
         <v>-34221.00849990999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3379,17 +3091,11 @@
         <v>-35878.49949990999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3418,17 +3124,11 @@
         <v>-35443.33228252999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>456.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3457,17 +3157,11 @@
         <v>-35443.33228252999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3496,17 +3190,11 @@
         <v>-35403.33228252999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3535,17 +3223,11 @@
         <v>-35283.33228252999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3574,17 +3256,11 @@
         <v>-35280.99328252999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>468.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3617,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3654,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3691,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3728,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3761,17 +3421,11 @@
         <v>-36402.65678252999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3800,17 +3454,11 @@
         <v>-38058.05328253</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3839,17 +3487,11 @@
         <v>-35110.76658253</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>465.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3878,17 +3520,11 @@
         <v>-35110.76658253</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>470.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3917,17 +3553,11 @@
         <v>-35110.76658253</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>470.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3956,17 +3586,11 @@
         <v>-35425.16098253</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>470.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3995,17 +3619,11 @@
         <v>-35422.16098253</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>465.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4034,17 +3652,11 @@
         <v>-35806.81238253</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4073,17 +3685,11 @@
         <v>-35806.81238253</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>464.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4112,17 +3718,11 @@
         <v>-35806.81238253</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>464.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4151,17 +3751,11 @@
         <v>-35886.80308253</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>464.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4190,17 +3784,11 @@
         <v>-35885.70308253</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4229,17 +3817,11 @@
         <v>-36034.53518253</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>464.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4268,17 +3850,11 @@
         <v>-35985.01348253</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4307,17 +3883,11 @@
         <v>-35985.01348253</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4346,17 +3916,11 @@
         <v>-35945.01348253</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4385,17 +3949,11 @@
         <v>-35856.91428253001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>464.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4424,17 +3982,11 @@
         <v>-35856.91428253001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>467.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4463,17 +4015,11 @@
         <v>-35391.84398253001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>467.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4502,17 +4048,11 @@
         <v>-32600.69878253001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>475.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4545,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4656,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4689,15 +4213,11 @@
         <v>-32685.61608253001</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4730,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4767,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4804,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4837,15 +4345,11 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4915,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4952,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4989,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5026,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5100,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5174,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5211,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5322,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5507,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5581,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5729,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5766,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5803,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5840,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5877,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5914,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5951,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5988,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6025,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6062,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6099,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6136,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6173,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6206,16 +5566,14 @@
         <v>-29828.19368253</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
       <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -6241,7 +5599,7 @@
         <v>-30126.19368253</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6274,7 +5632,7 @@
         <v>-30525.34428253</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6307,7 +5665,7 @@
         <v>-31352.20808253</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6340,7 +5698,7 @@
         <v>-30052.20808253</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6406,7 +5764,7 @@
         <v>-33761.36208253</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6439,7 +5797,7 @@
         <v>-33106.72838253</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6472,7 +5830,7 @@
         <v>-32106.72838253</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6505,7 +5863,7 @@
         <v>-32346.48868253001</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6538,7 +5896,7 @@
         <v>-31066.28288253001</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6571,7 +5929,7 @@
         <v>-31064.28288253001</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6604,7 +5962,7 @@
         <v>-31064.28288253001</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6637,7 +5995,7 @@
         <v>-30027.69788253001</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6670,7 +6028,7 @@
         <v>-30027.69788253001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6703,7 +6061,7 @@
         <v>-22456.00087605001</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6736,7 +6094,7 @@
         <v>-32622.84087605001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6769,7 +6127,7 @@
         <v>-31321.84087605001</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6802,7 +6160,7 @@
         <v>-31277.94087605</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6835,7 +6193,7 @@
         <v>-31198.33707605</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6868,7 +6226,7 @@
         <v>-34346.63147605</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6901,7 +6259,7 @@
         <v>-34345.63147605</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6934,7 +6292,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6967,7 +6325,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7000,7 +6358,7 @@
         <v>-34138.73127605</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7033,7 +6391,7 @@
         <v>-49957.92033148</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7066,7 +6424,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7099,7 +6457,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7132,7 +6490,7 @@
         <v>-49852.55613147999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7165,7 +6523,7 @@
         <v>-48979.38613147999</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7198,7 +6556,7 @@
         <v>-49094.14113147999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7231,7 +6589,7 @@
         <v>-48649.14023147999</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7264,7 +6622,7 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7297,7 +6655,7 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7330,7 +6688,7 @@
         <v>-48749.14023147999</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7363,7 +6721,7 @@
         <v>-48747.14023147999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7396,7 +6754,7 @@
         <v>-48766.63263148</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7429,7 +6787,7 @@
         <v>-46825.91023148</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7462,7 +6820,7 @@
         <v>-47205.91023148</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7495,7 +6853,7 @@
         <v>-46533.10043147999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7528,7 +6886,7 @@
         <v>-42721.30333148</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7561,7 +6919,7 @@
         <v>-44652.86717716</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7594,7 +6952,7 @@
         <v>-43034.80897716</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7627,7 +6985,7 @@
         <v>-43227.01967716</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7660,7 +7018,7 @@
         <v>-43227.01967716</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7693,7 +7051,7 @@
         <v>-45781.67057716</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7726,7 +7084,7 @@
         <v>-45781.67057716</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7759,7 +7117,7 @@
         <v>-47373.99187716001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7792,7 +7150,7 @@
         <v>-47373.99187716001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7825,7 +7183,7 @@
         <v>-47373.99187716001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7858,7 +7216,7 @@
         <v>-48451.21817716001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7891,7 +7249,7 @@
         <v>-52209.89977716001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7924,7 +7282,7 @@
         <v>-49209.89977716001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7957,7 +7315,7 @@
         <v>-49942.39977716001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7990,7 +7348,7 @@
         <v>-49942.39977716001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8023,7 +7381,7 @@
         <v>-49942.39977716001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8056,7 +7414,7 @@
         <v>-49942.39977716001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8089,7 +7447,7 @@
         <v>-52819.15797716001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8122,7 +7480,7 @@
         <v>-59652.49217716001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8155,7 +7513,7 @@
         <v>-59552.49217716001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8188,7 +7546,7 @@
         <v>-60056.93357716001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8221,7 +7579,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8254,7 +7612,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8287,7 +7645,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8320,7 +7678,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8353,7 +7711,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8386,7 +7744,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8419,7 +7777,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8452,7 +7810,7 @@
         <v>-58596.96367716001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8485,7 +7843,7 @@
         <v>-77714.80337716</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8518,7 +7876,7 @@
         <v>-76167.77947716</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9739,10 +9097,14 @@
         <v>-83625.74927715998</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>464</v>
+      </c>
+      <c r="J264" t="n">
+        <v>464</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
@@ -9772,11 +9134,19 @@
         <v>-83046.96117715997</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>464.7</v>
+      </c>
+      <c r="J265" t="n">
+        <v>464</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9805,11 +9175,19 @@
         <v>-83041.35117715997</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>466</v>
+      </c>
+      <c r="J266" t="n">
+        <v>464</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9838,10 +9216,14 @@
         <v>-83041.35117715997</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="J267" t="n">
+        <v>466.6</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
@@ -9874,8 +9256,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9907,8 +9295,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9937,10 +9331,14 @@
         <v>-82701.38377715996</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>469.1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>469.1</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
@@ -9970,11 +9368,19 @@
         <v>-82701.38377715996</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="J271" t="n">
+        <v>469.1</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10006,8 +9412,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>469.1</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10267,10 +9679,14 @@
         <v>-76126.56047715998</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>480</v>
+      </c>
+      <c r="J280" t="n">
+        <v>480</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
@@ -10300,11 +9716,19 @@
         <v>-76126.56047715998</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="J281" t="n">
+        <v>480</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10333,11 +9757,19 @@
         <v>-76166.29957715998</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="J282" t="n">
+        <v>480</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10531,10 +9963,14 @@
         <v>-75953.38167715998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>483</v>
+      </c>
+      <c r="J288" t="n">
+        <v>483</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
@@ -10564,11 +10000,19 @@
         <v>-75952.28167715998</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>482</v>
+      </c>
+      <c r="J289" t="n">
+        <v>483</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10597,11 +10041,19 @@
         <v>-78318.79717715997</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>483</v>
+      </c>
+      <c r="J290" t="n">
+        <v>483</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10630,11 +10082,19 @@
         <v>-78237.49857715997</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>475.1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>483</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10666,8 +10126,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>483</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10699,8 +10165,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>483</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10732,8 +10204,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>483</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10762,11 +10240,19 @@
         <v>-79773.93627715997</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>480.1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>483</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10795,11 +10281,19 @@
         <v>-79772.83627715996</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>476.9</v>
+      </c>
+      <c r="J296" t="n">
+        <v>483</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10828,11 +10322,19 @@
         <v>-79771.73627715996</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>477</v>
+      </c>
+      <c r="J297" t="n">
+        <v>483</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10861,11 +10363,19 @@
         <v>-79770.63627715995</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>477.9</v>
+      </c>
+      <c r="J298" t="n">
+        <v>483</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10894,11 +10404,19 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>479</v>
+      </c>
+      <c r="J299" t="n">
+        <v>483</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10927,11 +10445,19 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>480.9</v>
+      </c>
+      <c r="J300" t="n">
+        <v>483</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10960,11 +10486,19 @@
         <v>-78657.44627715995</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>480.9</v>
+      </c>
+      <c r="J301" t="n">
+        <v>483</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10993,11 +10527,19 @@
         <v>-80243.43867715995</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>482.3</v>
+      </c>
+      <c r="J302" t="n">
+        <v>483</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11026,11 +10568,19 @@
         <v>-80242.33867715995</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>478.2</v>
+      </c>
+      <c r="J303" t="n">
+        <v>483</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11059,11 +10609,19 @@
         <v>-80162.33867715995</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>482.3</v>
+      </c>
+      <c r="J304" t="n">
+        <v>483</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11092,11 +10650,19 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>486</v>
+      </c>
+      <c r="J305" t="n">
+        <v>483</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11125,11 +10691,19 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>487</v>
+      </c>
+      <c r="J306" t="n">
+        <v>483</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11158,11 +10732,19 @@
         <v>-80110.13867715994</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>487</v>
+      </c>
+      <c r="J307" t="n">
+        <v>483</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11191,11 +10773,19 @@
         <v>-79510.13867715994</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="J308" t="n">
+        <v>483</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11224,11 +10814,19 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>492</v>
+      </c>
+      <c r="J309" t="n">
+        <v>483</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11257,11 +10855,19 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>488</v>
+      </c>
+      <c r="J310" t="n">
+        <v>483</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11290,11 +10896,19 @@
         <v>-79788.65667715993</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>488</v>
+      </c>
+      <c r="J311" t="n">
+        <v>483</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11323,11 +10937,19 @@
         <v>-79787.55667715993</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>478.5</v>
+      </c>
+      <c r="J312" t="n">
+        <v>483</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11356,11 +10978,19 @@
         <v>-79808.06637715992</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>483</v>
+      </c>
+      <c r="J313" t="n">
+        <v>483</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11389,11 +11019,19 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>481</v>
+      </c>
+      <c r="J314" t="n">
+        <v>483</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11422,11 +11060,19 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>483</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11455,11 +11101,19 @@
         <v>-81513.18457715992</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>483</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11488,17 +11142,25 @@
         <v>-80213.18457715992</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>483</v>
+      </c>
+      <c r="J317" t="n">
+        <v>483</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
       <c r="M317" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest GXC.xlsx
+++ b/BackTest/2020-01-16 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17131.14079669</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-17651.95179696</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9797.661624070002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4224.698830550003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5390.502730550003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6089.702730550002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-6553.647430550002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6558.847430550002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3425.438830550002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3803.199430550002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-6203.069330550003</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-6199.927599910003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5197.927599910003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8197.960899910002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-9138.553699910002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-24091.75099991</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-23095.86649991</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-32649.27008253001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-32685.61608253001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-32376.63108253001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-32498.63108253001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-32496.63108253001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-32590.29288253001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-30525.34428253</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-30027.69788253001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-30027.69788253001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-22456.00087605001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-32622.84087605001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-31321.84087605001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-31277.94087605</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-34346.63147605</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-34345.63147605</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-34138.73127605</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-49957.92033148</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-49852.55613147999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-48979.38613147999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-49094.14113147999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-48649.14023147999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-48749.14023147999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-48747.14023147999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-48766.63263148</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-46825.91023148</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-47205.91023148</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-46533.10043147999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-42721.30333148</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-44652.86717716</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-43034.80897716</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-43227.01967716</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-43227.01967716</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-45781.67057716</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-45781.67057716</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-47373.99187716001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-47373.99187716001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-47373.99187716001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-48451.21817716001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-52209.89977716001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-49209.89977716001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-49942.39977716001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-49942.39977716001</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-49942.39977716001</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-49942.39977716001</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-52819.15797716001</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-59652.49217716001</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-59552.49217716001</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-60056.93357716001</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-61192.68537716001</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-58596.96367716001</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-77714.80337716</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-76167.77947716</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8635,11 +8635,17 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>465</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8674,17 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>462</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8713,17 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>462</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8752,17 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>462</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8791,17 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>462</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +8834,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8867,17 @@
         <v>-87041.67137715999</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>453.4</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +8910,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8943,17 @@
         <v>-84471.87137715999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>464</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +8986,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9023,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9060,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9097,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9134,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,15 +9167,15 @@
         <v>-83625.74927715998</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>464</v>
-      </c>
-      <c r="J264" t="n">
-        <v>464</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,17 +9204,13 @@
         <v>-83046.96117715997</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>464.7</v>
-      </c>
-      <c r="J265" t="n">
-        <v>464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -9175,17 +9241,13 @@
         <v>-83041.35117715997</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>466</v>
-      </c>
-      <c r="J266" t="n">
-        <v>464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L266" t="n">
@@ -9216,15 +9278,15 @@
         <v>-83041.35117715997</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="J267" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9256,12 +9318,10 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>466.6</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L268" t="n">
@@ -9295,12 +9355,10 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>466.6</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L269" t="n">
@@ -9331,15 +9389,15 @@
         <v>-82701.38377715996</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="J270" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9368,17 +9426,13 @@
         <v>-82701.38377715996</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="J271" t="n">
-        <v>469.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9412,12 +9466,10 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>469.1</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9452,7 +9504,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9485,7 +9541,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9518,7 +9578,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9551,7 +9615,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9584,7 +9652,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9617,7 +9689,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9650,7 +9726,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9684,10 +9764,12 @@
       <c r="I280" t="n">
         <v>480</v>
       </c>
-      <c r="J280" t="n">
-        <v>480</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9721,12 +9803,10 @@
       <c r="I281" t="n">
         <v>479.9</v>
       </c>
-      <c r="J281" t="n">
-        <v>480</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L281" t="n">
@@ -9762,12 +9842,10 @@
       <c r="I282" t="n">
         <v>479.9</v>
       </c>
-      <c r="J282" t="n">
-        <v>480</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -9802,7 +9880,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9835,7 +9917,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9868,7 +9954,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9901,7 +9991,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9934,7 +10028,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9963,15 +10061,15 @@
         <v>-75953.38167715998</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>483</v>
-      </c>
-      <c r="J288" t="n">
-        <v>483</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10000,17 +10098,13 @@
         <v>-75952.28167715998</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>482</v>
-      </c>
-      <c r="J289" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L289" t="n">
@@ -10046,12 +10140,10 @@
       <c r="I290" t="n">
         <v>483</v>
       </c>
-      <c r="J290" t="n">
-        <v>483</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L290" t="n">
@@ -10087,9 +10179,7 @@
       <c r="I291" t="n">
         <v>475.1</v>
       </c>
-      <c r="J291" t="n">
-        <v>483</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10126,9 +10216,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>483</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10165,9 +10253,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>483</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10204,9 +10290,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>483</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10240,14 +10324,10 @@
         <v>-79773.93627715997</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>480.1</v>
-      </c>
-      <c r="J295" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10281,14 +10361,10 @@
         <v>-79772.83627715996</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>476.9</v>
-      </c>
-      <c r="J296" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10322,14 +10398,10 @@
         <v>-79771.73627715996</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>477</v>
-      </c>
-      <c r="J297" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10363,14 +10435,10 @@
         <v>-79770.63627715995</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>477.9</v>
-      </c>
-      <c r="J298" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10404,14 +10472,10 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>479</v>
-      </c>
-      <c r="J299" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10445,14 +10509,10 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>480.9</v>
-      </c>
-      <c r="J300" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10486,14 +10546,10 @@
         <v>-78657.44627715995</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>480.9</v>
-      </c>
-      <c r="J301" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10527,14 +10583,10 @@
         <v>-80243.43867715995</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>482.3</v>
-      </c>
-      <c r="J302" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10568,14 +10620,10 @@
         <v>-80242.33867715995</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>478.2</v>
-      </c>
-      <c r="J303" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,14 +10657,10 @@
         <v>-80162.33867715995</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>482.3</v>
-      </c>
-      <c r="J304" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10650,14 +10694,10 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>486</v>
-      </c>
-      <c r="J305" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10691,14 +10731,10 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>487</v>
-      </c>
-      <c r="J306" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,14 +10768,10 @@
         <v>-80110.13867715994</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>487</v>
-      </c>
-      <c r="J307" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10773,14 +10805,10 @@
         <v>-79510.13867715994</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>488.4</v>
-      </c>
-      <c r="J308" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10814,14 +10842,10 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>492</v>
-      </c>
-      <c r="J309" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10855,14 +10879,10 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>488</v>
-      </c>
-      <c r="J310" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10896,14 +10916,10 @@
         <v>-79788.65667715993</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>488</v>
-      </c>
-      <c r="J311" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10937,14 +10953,10 @@
         <v>-79787.55667715993</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>478.5</v>
-      </c>
-      <c r="J312" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10978,14 +10990,10 @@
         <v>-79808.06637715992</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>483</v>
-      </c>
-      <c r="J313" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11019,14 +11027,10 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>481</v>
-      </c>
-      <c r="J314" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11060,14 +11064,10 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>479.1</v>
-      </c>
-      <c r="J315" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11101,14 +11101,10 @@
         <v>-81513.18457715992</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>479.1</v>
-      </c>
-      <c r="J316" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11142,14 +11138,10 @@
         <v>-80213.18457715992</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>483</v>
-      </c>
-      <c r="J317" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,6 +11153,6 @@
       <c r="M317" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest GXC.xlsx
+++ b/BackTest/2020-01-16 BackTest GXC.xlsx
@@ -451,7 +451,7 @@
         <v>-17131.14079669</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-17651.95179696</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9797.661624070002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4224.698830550003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-5390.502730550003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6089.702730550002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-6553.647430550002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-6558.847430550002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-3425.438830550002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-3803.199430550002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-6203.069330550003</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-6199.927599910003</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5197.927599910003</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8197.960899910002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8785.863199910002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-10156.69379991</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-6348.138199910001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-6785.958999910002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-6778.758999910002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-23944.05089991</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-22226.96979991</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-22230.96979991</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-21933.01939991</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-21696.94859991</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-23636.65079991</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-23636.65079991</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-24008.46479991</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-23704.65099991</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-24091.75099991</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-32649.27008253001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-32685.61608253001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-32376.63108253001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-32498.63108253001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-32496.63108253001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-32590.29288253001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-30027.69788253001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-30027.69788253001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-22456.00087605001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-32622.84087605001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-31321.84087605001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-31277.94087605</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-31198.33707605</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-34346.63147605</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-34345.63147605</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-34138.73127605</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-49957.92033148</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-49852.55613147999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-49094.14113147999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -8635,1293 +8635,1189 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>455</v>
+      </c>
+      <c r="C251" t="n">
+        <v>462</v>
+      </c>
+      <c r="D251" t="n">
+        <v>462</v>
+      </c>
+      <c r="E251" t="n">
+        <v>454</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3893.8677</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-85963.86297716</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>461</v>
+      </c>
+      <c r="C252" t="n">
+        <v>462</v>
+      </c>
+      <c r="D252" t="n">
+        <v>462</v>
+      </c>
+      <c r="E252" t="n">
+        <v>461</v>
+      </c>
+      <c r="F252" t="n">
+        <v>64.93940000000001</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-85963.86297716</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>462</v>
+      </c>
+      <c r="C253" t="n">
+        <v>462</v>
+      </c>
+      <c r="D253" t="n">
+        <v>462</v>
+      </c>
+      <c r="E253" t="n">
+        <v>462</v>
+      </c>
+      <c r="F253" t="n">
+        <v>635.4112</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-85963.86297716</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>462</v>
+      </c>
+      <c r="C254" t="n">
+        <v>462</v>
+      </c>
+      <c r="D254" t="n">
+        <v>462</v>
+      </c>
+      <c r="E254" t="n">
+        <v>462</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2428.7285</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-85963.86297716</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>462</v>
+      </c>
+      <c r="C255" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="D255" t="n">
+        <v>462</v>
+      </c>
+      <c r="E255" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2118.436</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-88082.29897716</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>462</v>
+      </c>
+      <c r="C256" t="n">
+        <v>462</v>
+      </c>
+      <c r="D256" t="n">
+        <v>462</v>
+      </c>
+      <c r="E256" t="n">
+        <v>461</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1040.6276</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-87041.67137715999</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="J256" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>462</v>
+      </c>
+      <c r="C257" t="n">
+        <v>464</v>
+      </c>
+      <c r="D257" t="n">
+        <v>464</v>
+      </c>
+      <c r="E257" t="n">
+        <v>462</v>
+      </c>
+      <c r="F257" t="n">
+        <v>158.0234</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-86883.64797715998</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>464</v>
+      </c>
+      <c r="C258" t="n">
         <v>465</v>
       </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
+      <c r="D258" t="n">
+        <v>465</v>
+      </c>
+      <c r="E258" t="n">
+        <v>464</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2411.7766</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-84471.87137715999</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>453.4</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>465.6</v>
+      </c>
+      <c r="C259" t="n">
+        <v>465.6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>465.6</v>
+      </c>
+      <c r="E259" t="n">
+        <v>465.6</v>
+      </c>
+      <c r="F259" t="n">
+        <v>664.1992</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-83807.67217715998</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>469.6</v>
+      </c>
+      <c r="C260" t="n">
+        <v>469.6</v>
+      </c>
+      <c r="D260" t="n">
+        <v>469.6</v>
+      </c>
+      <c r="E260" t="n">
+        <v>469.6</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-83806.57217715998</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>469.7</v>
+      </c>
+      <c r="C261" t="n">
+        <v>469.7</v>
+      </c>
+      <c r="D261" t="n">
+        <v>469.7</v>
+      </c>
+      <c r="E261" t="n">
+        <v>469.7</v>
+      </c>
+      <c r="F261" t="n">
+        <v>779</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-83027.57217715998</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>467</v>
+      </c>
+      <c r="C262" t="n">
+        <v>467</v>
+      </c>
+      <c r="D262" t="n">
+        <v>467</v>
+      </c>
+      <c r="E262" t="n">
+        <v>467</v>
+      </c>
+      <c r="F262" t="n">
+        <v>19.3889</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-83046.96107715998</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>464</v>
+      </c>
+      <c r="C263" t="n">
+        <v>464</v>
+      </c>
+      <c r="D263" t="n">
+        <v>464</v>
+      </c>
+      <c r="E263" t="n">
+        <v>464</v>
+      </c>
+      <c r="F263" t="n">
+        <v>579.8882</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-83626.84927715998</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>464.7</v>
+      </c>
+      <c r="C264" t="n">
+        <v>464.7</v>
+      </c>
+      <c r="D264" t="n">
+        <v>464.7</v>
+      </c>
+      <c r="E264" t="n">
+        <v>464.7</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-83625.74927715998</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>465.9</v>
+      </c>
+      <c r="C265" t="n">
+        <v>466</v>
+      </c>
+      <c r="D265" t="n">
+        <v>466</v>
+      </c>
+      <c r="E265" t="n">
+        <v>465.9</v>
+      </c>
+      <c r="F265" t="n">
+        <v>578.7881</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-83046.96117715997</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="C266" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="E266" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="F266" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-83041.35117715997</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="C267" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="D267" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="E267" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="F267" t="n">
+        <v>30.3855</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-83041.35117715997</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>469.7</v>
+      </c>
+      <c r="C268" t="n">
+        <v>470</v>
+      </c>
+      <c r="D268" t="n">
+        <v>470</v>
+      </c>
+      <c r="E268" t="n">
+        <v>469.7</v>
+      </c>
+      <c r="F268" t="n">
+        <v>340</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-82701.35117715997</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>469.1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>469.1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>469.1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>469.1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-82702.55117715997</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="C270" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="D270" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="E270" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1.1674</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-82701.38377715996</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="C271" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="D271" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="E271" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="F271" t="n">
+        <v>866.0587</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-82701.38377715996</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>473.4</v>
+      </c>
+      <c r="C272" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="D272" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="E272" t="n">
+        <v>471.1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1357.2097</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-84058.59347715997</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>474</v>
+      </c>
+      <c r="C273" t="n">
+        <v>474</v>
+      </c>
+      <c r="D273" t="n">
+        <v>474</v>
+      </c>
+      <c r="E273" t="n">
+        <v>474</v>
+      </c>
+      <c r="F273" t="n">
+        <v>24</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-84082.59347715997</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="J273" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="C274" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="D274" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="E274" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="F274" t="n">
+        <v>5.271</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-84077.32247715998</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="C275" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="D275" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="E275" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="F275" t="n">
+        <v>182.925</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-84077.32247715998</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="C276" t="n">
+        <v>476</v>
+      </c>
+      <c r="D276" t="n">
+        <v>476</v>
+      </c>
+      <c r="E276" t="n">
+        <v>475.9</v>
+      </c>
+      <c r="F276" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-83987.62247715998</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>477</v>
+      </c>
+      <c r="C277" t="n">
+        <v>477.1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>478</v>
+      </c>
+      <c r="E277" t="n">
+        <v>477</v>
+      </c>
+      <c r="F277" t="n">
+        <v>7497.9198</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-76489.70267715998</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>479</v>
+      </c>
+      <c r="C278" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="D278" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="E278" t="n">
+        <v>479</v>
+      </c>
+      <c r="F278" t="n">
+        <v>303.9847</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-76185.71797715998</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>480</v>
+      </c>
+      <c r="C279" t="n">
+        <v>480</v>
+      </c>
+      <c r="D279" t="n">
+        <v>480</v>
+      </c>
+      <c r="E279" t="n">
+        <v>480</v>
+      </c>
+      <c r="F279" t="n">
+        <v>112.9527</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-76072.76527715998</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="C280" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="D280" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="E280" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="F280" t="n">
+        <v>53.7952</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-76126.56047715998</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="C281" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="D281" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="E281" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="F281" t="n">
+        <v>69.93380000000001</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-76126.56047715998</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="J281" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>479</v>
+      </c>
+      <c r="C282" t="n">
+        <v>479</v>
+      </c>
+      <c r="D282" t="n">
+        <v>479</v>
+      </c>
+      <c r="E282" t="n">
+        <v>479</v>
+      </c>
+      <c r="F282" t="n">
+        <v>39.7391</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-76166.29957715998</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>480</v>
+      </c>
+      <c r="C283" t="n">
+        <v>480</v>
+      </c>
+      <c r="D283" t="n">
+        <v>480</v>
+      </c>
+      <c r="E283" t="n">
+        <v>480</v>
+      </c>
+      <c r="F283" t="n">
+        <v>165.5981</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-76000.70147715998</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>480</v>
+      </c>
+      <c r="C284" t="n">
+        <v>484</v>
+      </c>
+      <c r="D284" t="n">
+        <v>484</v>
+      </c>
+      <c r="E284" t="n">
+        <v>480</v>
+      </c>
+      <c r="F284" t="n">
+        <v>40</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-75960.70147715998</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>480</v>
+      </c>
+      <c r="J284" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>455</v>
-      </c>
-      <c r="C251" t="n">
-        <v>462</v>
-      </c>
-      <c r="D251" t="n">
-        <v>462</v>
-      </c>
-      <c r="E251" t="n">
-        <v>454</v>
-      </c>
-      <c r="F251" t="n">
-        <v>3893.8677</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-85963.86297716</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>462</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>461</v>
-      </c>
-      <c r="C252" t="n">
-        <v>462</v>
-      </c>
-      <c r="D252" t="n">
-        <v>462</v>
-      </c>
-      <c r="E252" t="n">
-        <v>461</v>
-      </c>
-      <c r="F252" t="n">
-        <v>64.93940000000001</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-85963.86297716</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>462</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>462</v>
-      </c>
-      <c r="C253" t="n">
-        <v>462</v>
-      </c>
-      <c r="D253" t="n">
-        <v>462</v>
-      </c>
-      <c r="E253" t="n">
-        <v>462</v>
-      </c>
-      <c r="F253" t="n">
-        <v>635.4112</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-85963.86297716</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>462</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>462</v>
-      </c>
-      <c r="C254" t="n">
-        <v>462</v>
-      </c>
-      <c r="D254" t="n">
-        <v>462</v>
-      </c>
-      <c r="E254" t="n">
-        <v>462</v>
-      </c>
-      <c r="F254" t="n">
-        <v>2428.7285</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-85963.86297716</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>462</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>462</v>
-      </c>
-      <c r="C255" t="n">
-        <v>453.4</v>
-      </c>
-      <c r="D255" t="n">
-        <v>462</v>
-      </c>
-      <c r="E255" t="n">
-        <v>453.4</v>
-      </c>
-      <c r="F255" t="n">
-        <v>2118.436</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-88082.29897716</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>462</v>
-      </c>
-      <c r="C256" t="n">
-        <v>462</v>
-      </c>
-      <c r="D256" t="n">
-        <v>462</v>
-      </c>
-      <c r="E256" t="n">
-        <v>461</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1040.6276</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-87041.67137715999</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>453.4</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>462</v>
-      </c>
-      <c r="C257" t="n">
-        <v>464</v>
-      </c>
-      <c r="D257" t="n">
-        <v>464</v>
-      </c>
-      <c r="E257" t="n">
-        <v>462</v>
-      </c>
-      <c r="F257" t="n">
-        <v>158.0234</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-86883.64797715998</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>464</v>
-      </c>
-      <c r="C258" t="n">
-        <v>465</v>
-      </c>
-      <c r="D258" t="n">
-        <v>465</v>
-      </c>
-      <c r="E258" t="n">
-        <v>464</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2411.7766</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-84471.87137715999</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>464</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>465.6</v>
-      </c>
-      <c r="C259" t="n">
-        <v>465.6</v>
-      </c>
-      <c r="D259" t="n">
-        <v>465.6</v>
-      </c>
-      <c r="E259" t="n">
-        <v>465.6</v>
-      </c>
-      <c r="F259" t="n">
-        <v>664.1992</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-83807.67217715998</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>469.6</v>
-      </c>
-      <c r="C260" t="n">
-        <v>469.6</v>
-      </c>
-      <c r="D260" t="n">
-        <v>469.6</v>
-      </c>
-      <c r="E260" t="n">
-        <v>469.6</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-83806.57217715998</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>469.7</v>
-      </c>
-      <c r="C261" t="n">
-        <v>469.7</v>
-      </c>
-      <c r="D261" t="n">
-        <v>469.7</v>
-      </c>
-      <c r="E261" t="n">
-        <v>469.7</v>
-      </c>
-      <c r="F261" t="n">
-        <v>779</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-83027.57217715998</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>467</v>
-      </c>
-      <c r="C262" t="n">
-        <v>467</v>
-      </c>
-      <c r="D262" t="n">
-        <v>467</v>
-      </c>
-      <c r="E262" t="n">
-        <v>467</v>
-      </c>
-      <c r="F262" t="n">
-        <v>19.3889</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-83046.96107715998</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>464</v>
-      </c>
-      <c r="C263" t="n">
-        <v>464</v>
-      </c>
-      <c r="D263" t="n">
-        <v>464</v>
-      </c>
-      <c r="E263" t="n">
-        <v>464</v>
-      </c>
-      <c r="F263" t="n">
-        <v>579.8882</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-83626.84927715998</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>464.7</v>
-      </c>
-      <c r="C264" t="n">
-        <v>464.7</v>
-      </c>
-      <c r="D264" t="n">
-        <v>464.7</v>
-      </c>
-      <c r="E264" t="n">
-        <v>464.7</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-83625.74927715998</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>465.9</v>
-      </c>
-      <c r="C265" t="n">
-        <v>466</v>
-      </c>
-      <c r="D265" t="n">
-        <v>466</v>
-      </c>
-      <c r="E265" t="n">
-        <v>465.9</v>
-      </c>
-      <c r="F265" t="n">
-        <v>578.7881</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-83046.96117715997</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="C266" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="D266" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="E266" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="F266" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-83041.35117715997</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="C267" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="D267" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="E267" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="F267" t="n">
-        <v>30.3855</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-83041.35117715997</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>469.7</v>
-      </c>
-      <c r="C268" t="n">
-        <v>470</v>
-      </c>
-      <c r="D268" t="n">
-        <v>470</v>
-      </c>
-      <c r="E268" t="n">
-        <v>469.7</v>
-      </c>
-      <c r="F268" t="n">
-        <v>340</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-82701.35117715997</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="C269" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="D269" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="E269" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-82702.55117715997</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="C270" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="D270" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="E270" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1.1674</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-82701.38377715996</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="C271" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="D271" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="E271" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="F271" t="n">
-        <v>866.0587</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-82701.38377715996</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>473.4</v>
-      </c>
-      <c r="C272" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="D272" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="E272" t="n">
-        <v>471.1</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1357.2097</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-84058.59347715997</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>474</v>
-      </c>
-      <c r="C273" t="n">
-        <v>474</v>
-      </c>
-      <c r="D273" t="n">
-        <v>474</v>
-      </c>
-      <c r="E273" t="n">
-        <v>474</v>
-      </c>
-      <c r="F273" t="n">
-        <v>24</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-84082.59347715997</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="C274" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="D274" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="E274" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="F274" t="n">
-        <v>5.271</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-84077.32247715998</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="C275" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="D275" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="E275" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="F275" t="n">
-        <v>182.925</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-84077.32247715998</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="C276" t="n">
-        <v>476</v>
-      </c>
-      <c r="D276" t="n">
-        <v>476</v>
-      </c>
-      <c r="E276" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="F276" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-83987.62247715998</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>477</v>
-      </c>
-      <c r="C277" t="n">
-        <v>477.1</v>
-      </c>
-      <c r="D277" t="n">
-        <v>478</v>
-      </c>
-      <c r="E277" t="n">
-        <v>477</v>
-      </c>
-      <c r="F277" t="n">
-        <v>7497.9198</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-76489.70267715998</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>479</v>
-      </c>
-      <c r="C278" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="D278" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="E278" t="n">
-        <v>479</v>
-      </c>
-      <c r="F278" t="n">
-        <v>303.9847</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-76185.71797715998</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>480</v>
-      </c>
-      <c r="C279" t="n">
-        <v>480</v>
-      </c>
-      <c r="D279" t="n">
-        <v>480</v>
-      </c>
-      <c r="E279" t="n">
-        <v>480</v>
-      </c>
-      <c r="F279" t="n">
-        <v>112.9527</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-76072.76527715998</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="C280" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="D280" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="E280" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="F280" t="n">
-        <v>53.7952</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-76126.56047715998</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>480</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="C281" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="D281" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="E281" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="F281" t="n">
-        <v>69.93380000000001</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-76126.56047715998</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>479</v>
-      </c>
-      <c r="C282" t="n">
-        <v>479</v>
-      </c>
-      <c r="D282" t="n">
-        <v>479</v>
-      </c>
-      <c r="E282" t="n">
-        <v>479</v>
-      </c>
-      <c r="F282" t="n">
-        <v>39.7391</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-76166.29957715998</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>480</v>
-      </c>
-      <c r="C283" t="n">
-        <v>480</v>
-      </c>
-      <c r="D283" t="n">
-        <v>480</v>
-      </c>
-      <c r="E283" t="n">
-        <v>480</v>
-      </c>
-      <c r="F283" t="n">
-        <v>165.5981</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-76000.70147715998</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>480</v>
-      </c>
-      <c r="C284" t="n">
-        <v>484</v>
-      </c>
-      <c r="D284" t="n">
-        <v>484</v>
-      </c>
-      <c r="E284" t="n">
-        <v>480</v>
-      </c>
-      <c r="F284" t="n">
-        <v>40</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-75960.70147715998</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9953,7 +9849,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9990,7 +9888,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10027,7 +9927,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10061,10 +9963,14 @@
         <v>-75953.38167715998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>483</v>
+      </c>
+      <c r="J288" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10098,10 +10004,14 @@
         <v>-75952.28167715998</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>482</v>
+      </c>
+      <c r="J289" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10140,7 +10050,9 @@
       <c r="I290" t="n">
         <v>483</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10179,7 +10091,9 @@
       <c r="I291" t="n">
         <v>475.1</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10213,10 +10127,14 @@
         <v>-78076.53237715998</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>479</v>
+      </c>
+      <c r="J292" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10250,10 +10168,14 @@
         <v>-78075.43237715997</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>480</v>
+      </c>
+      <c r="J293" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10287,10 +10209,14 @@
         <v>-78075.43237715997</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>480.1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10324,10 +10250,14 @@
         <v>-79773.93627715997</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>480.1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10361,10 +10291,14 @@
         <v>-79772.83627715996</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>476.9</v>
+      </c>
+      <c r="J296" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10398,10 +10332,14 @@
         <v>-79771.73627715996</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>477</v>
+      </c>
+      <c r="J297" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10435,10 +10373,14 @@
         <v>-79770.63627715995</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>477.9</v>
+      </c>
+      <c r="J298" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10472,10 +10414,14 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>479</v>
+      </c>
+      <c r="J299" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10509,10 +10455,14 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>480.9</v>
+      </c>
+      <c r="J300" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10546,10 +10496,14 @@
         <v>-78657.44627715995</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>480.9</v>
+      </c>
+      <c r="J301" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10583,10 +10537,14 @@
         <v>-80243.43867715995</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>482.3</v>
+      </c>
+      <c r="J302" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10620,10 +10578,14 @@
         <v>-80242.33867715995</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>478.2</v>
+      </c>
+      <c r="J303" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10657,10 +10619,14 @@
         <v>-80162.33867715995</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>482.3</v>
+      </c>
+      <c r="J304" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10694,10 +10660,14 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>486</v>
+      </c>
+      <c r="J305" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10731,10 +10701,14 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>487</v>
+      </c>
+      <c r="J306" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10768,10 +10742,14 @@
         <v>-80110.13867715994</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>487</v>
+      </c>
+      <c r="J307" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10805,10 +10783,14 @@
         <v>-79510.13867715994</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>488.4</v>
+      </c>
+      <c r="J308" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10842,10 +10824,14 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>492</v>
+      </c>
+      <c r="J309" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10879,10 +10865,14 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>488</v>
+      </c>
+      <c r="J310" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10916,10 +10906,14 @@
         <v>-79788.65667715993</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>488</v>
+      </c>
+      <c r="J311" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10953,10 +10947,14 @@
         <v>-79787.55667715993</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>478.5</v>
+      </c>
+      <c r="J312" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10990,10 +10988,14 @@
         <v>-79808.06637715992</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>483</v>
+      </c>
+      <c r="J313" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11027,10 +11029,14 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>481</v>
+      </c>
+      <c r="J314" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11064,10 +11070,14 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11101,10 +11111,14 @@
         <v>-81513.18457715992</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>479.1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11138,10 +11152,14 @@
         <v>-80213.18457715992</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>483</v>
+      </c>
+      <c r="J317" t="n">
+        <v>479.9</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-16 BackTest GXC.xlsx
+++ b/BackTest/2020-01-16 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M317"/>
+  <dimension ref="A1:L317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>179.78936605</v>
       </c>
       <c r="G2" t="n">
-        <v>-17131.14079669</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>520.81100027</v>
       </c>
       <c r="G3" t="n">
-        <v>-17651.95179696</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>7854.29017289</v>
       </c>
       <c r="G4" t="n">
-        <v>-9797.661624070002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5572.96279352</v>
       </c>
       <c r="G5" t="n">
-        <v>-4224.698830550003</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1165.8039</v>
       </c>
       <c r="G6" t="n">
-        <v>-5390.502730550003</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>699.2</v>
       </c>
       <c r="G7" t="n">
-        <v>-6089.702730550002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>463.9447</v>
       </c>
       <c r="G8" t="n">
-        <v>-6553.647430550002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>5.2</v>
       </c>
       <c r="G9" t="n">
-        <v>-6558.847430550002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3133.4086</v>
       </c>
       <c r="G10" t="n">
-        <v>-3425.438830550002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>377.7606</v>
       </c>
       <c r="G11" t="n">
-        <v>-3803.199430550002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2399.8699</v>
       </c>
       <c r="G12" t="n">
-        <v>-6203.069330550003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>3.14173064</v>
       </c>
       <c r="G13" t="n">
-        <v>-6199.927599910003</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1002</v>
       </c>
       <c r="G14" t="n">
-        <v>-5197.927599910003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3000.0333</v>
       </c>
       <c r="G15" t="n">
-        <v>-8197.960899910002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1561.5737</v>
       </c>
       <c r="G16" t="n">
-        <v>-6636.387199910002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4029.70500609</v>
       </c>
       <c r="G17" t="n">
-        <v>-6636.387199910002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1208.7665</v>
       </c>
       <c r="G18" t="n">
-        <v>-7845.153699910002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1293.4</v>
       </c>
       <c r="G19" t="n">
-        <v>-9138.553699910002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>352.6905</v>
       </c>
       <c r="G20" t="n">
-        <v>-8785.863199910002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1370.8306</v>
       </c>
       <c r="G21" t="n">
-        <v>-10156.69379991</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3808.5556</v>
       </c>
       <c r="G22" t="n">
-        <v>-6348.138199910001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>437.8208</v>
       </c>
       <c r="G23" t="n">
-        <v>-6785.958999910002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7.2</v>
       </c>
       <c r="G24" t="n">
-        <v>-6778.758999910002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>17165.2919</v>
       </c>
       <c r="G25" t="n">
-        <v>-23944.05089991</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1717.0811</v>
       </c>
       <c r="G26" t="n">
-        <v>-22226.96979991</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>-22230.96979991</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>297.9504</v>
       </c>
       <c r="G28" t="n">
-        <v>-21933.01939991</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>236.0708</v>
       </c>
       <c r="G29" t="n">
-        <v>-21696.94859991</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1939.7022</v>
       </c>
       <c r="G30" t="n">
-        <v>-23636.65079991</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>322.0819</v>
       </c>
       <c r="G31" t="n">
-        <v>-23636.65079991</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>371.814</v>
       </c>
       <c r="G32" t="n">
-        <v>-24008.46479991</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>303.8138</v>
       </c>
       <c r="G33" t="n">
-        <v>-23704.65099991</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>587</v>
       </c>
       <c r="G34" t="n">
-        <v>-24291.65099991</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>199.9</v>
       </c>
       <c r="G35" t="n">
-        <v>-24091.75099991</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>995.8845</v>
       </c>
       <c r="G36" t="n">
-        <v>-23095.86649991</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1160.5701</v>
       </c>
       <c r="G37" t="n">
-        <v>-24256.43659991</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1432.2445</v>
       </c>
       <c r="G38" t="n">
-        <v>-24256.43659991</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3029.6815</v>
       </c>
       <c r="G39" t="n">
-        <v>-27286.11809991</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>119.8806</v>
       </c>
       <c r="G40" t="n">
-        <v>-27166.23749991</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>64.20959999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-27230.44709990999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>202.088</v>
       </c>
       <c r="G42" t="n">
-        <v>-27028.35909990999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1086.0398</v>
       </c>
       <c r="G43" t="n">
-        <v>-28114.39889990999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1123.2156</v>
       </c>
       <c r="G44" t="n">
-        <v>-26991.18329990999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1149.2264</v>
       </c>
       <c r="G45" t="n">
-        <v>-28140.40969990999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>823.1069</v>
       </c>
       <c r="G46" t="n">
-        <v>-28963.51659990999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>64.62949999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-29028.14609990999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>148.3395</v>
       </c>
       <c r="G48" t="n">
-        <v>-28879.80659990999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>29.6607</v>
       </c>
       <c r="G49" t="n">
-        <v>-28909.46729990999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>147.1067</v>
       </c>
       <c r="G50" t="n">
-        <v>-29056.57399990999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>3556.6637</v>
       </c>
       <c r="G51" t="n">
-        <v>-32613.23769990999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2799.9388</v>
       </c>
       <c r="G52" t="n">
-        <v>-32613.23769990999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1222.1883</v>
       </c>
       <c r="G53" t="n">
-        <v>-31391.04939990999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,21 @@
         <v>446.5218</v>
       </c>
       <c r="G54" t="n">
-        <v>-31391.04939990999</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>449.8</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2039,19 @@
         <v>150</v>
       </c>
       <c r="G55" t="n">
-        <v>-31541.04939990999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2073,19 @@
         <v>121.5997</v>
       </c>
       <c r="G56" t="n">
-        <v>-31541.04939990999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2107,21 @@
         <v>42</v>
       </c>
       <c r="G57" t="n">
-        <v>-31499.04939990999</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>449.7</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2143,21 @@
         <v>106.984</v>
       </c>
       <c r="G58" t="n">
-        <v>-31606.03339990999</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>450.1</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2179,21 @@
         <v>357.0611</v>
       </c>
       <c r="G59" t="n">
-        <v>-31248.97229990999</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>446.1</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2215,21 @@
         <v>44</v>
       </c>
       <c r="G60" t="n">
-        <v>-31292.97229990999</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>453.5</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2251,21 @@
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>-31290.97229990999</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2287,21 @@
         <v>160.8059</v>
       </c>
       <c r="G62" t="n">
-        <v>-31451.77819990999</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2323,19 @@
         <v>2053.3665</v>
       </c>
       <c r="G63" t="n">
-        <v>-33505.14469990999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2357,19 @@
         <v>502.8001</v>
       </c>
       <c r="G64" t="n">
-        <v>-33002.34459990999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2391,19 @@
         <v>1450.0294</v>
       </c>
       <c r="G65" t="n">
-        <v>-34452.37399990999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2425,19 @@
         <v>1424.2599</v>
       </c>
       <c r="G66" t="n">
-        <v>-35876.63389990999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2459,19 @@
         <v>990.539</v>
       </c>
       <c r="G67" t="n">
-        <v>-34886.09489990999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2493,19 @@
         <v>85.7</v>
       </c>
       <c r="G68" t="n">
-        <v>-34971.79489990999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2527,19 @@
         <v>577.8493999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>-34393.94549990999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2561,19 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>-34391.94549990999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2595,19 @@
         <v>336.2973</v>
       </c>
       <c r="G71" t="n">
-        <v>-34391.94549990999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2629,19 @@
         <v>693.2079</v>
       </c>
       <c r="G72" t="n">
-        <v>-33698.73759990999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2663,19 @@
         <v>1.1</v>
       </c>
       <c r="G73" t="n">
-        <v>-33697.63759990999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2697,19 @@
         <v>140</v>
       </c>
       <c r="G74" t="n">
-        <v>-33557.63759990999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2731,19 @@
         <v>63.9618</v>
       </c>
       <c r="G75" t="n">
-        <v>-33621.59939990999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2765,19 @@
         <v>282.9821</v>
       </c>
       <c r="G76" t="n">
-        <v>-33621.59939990999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2799,19 @@
         <v>90.3994</v>
       </c>
       <c r="G77" t="n">
-        <v>-33621.59939990999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2833,19 @@
         <v>421.7501</v>
       </c>
       <c r="G78" t="n">
-        <v>-33621.59939990999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2867,19 @@
         <v>34.4644</v>
       </c>
       <c r="G79" t="n">
-        <v>-33587.13499990999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2901,19 @@
         <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>-33585.13499990999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2935,19 @@
         <v>635.8735</v>
       </c>
       <c r="G81" t="n">
-        <v>-34221.00849990999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2969,19 @@
         <v>1657.491</v>
       </c>
       <c r="G82" t="n">
-        <v>-35878.49949990999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3003,19 @@
         <v>435.16721738</v>
       </c>
       <c r="G83" t="n">
-        <v>-35443.33228252999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3037,19 @@
         <v>2942.8518</v>
       </c>
       <c r="G84" t="n">
-        <v>-35443.33228252999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3071,19 @@
         <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>-35403.33228252999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3105,19 @@
         <v>120</v>
       </c>
       <c r="G86" t="n">
-        <v>-35283.33228252999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3139,19 @@
         <v>2.339</v>
       </c>
       <c r="G87" t="n">
-        <v>-35280.99328252999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3173,19 @@
         <v>1222.6059</v>
       </c>
       <c r="G88" t="n">
-        <v>-36503.59918252999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3207,19 @@
         <v>338.1418</v>
       </c>
       <c r="G89" t="n">
-        <v>-36841.74098252999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3241,19 @@
         <v>2568.9158</v>
       </c>
       <c r="G90" t="n">
-        <v>-36841.74098252999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3275,19 @@
         <v>439.0842</v>
       </c>
       <c r="G91" t="n">
-        <v>-36402.65678252999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3309,19 @@
         <v>160</v>
       </c>
       <c r="G92" t="n">
-        <v>-36402.65678252999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3343,19 @@
         <v>1655.3965</v>
       </c>
       <c r="G93" t="n">
-        <v>-38058.05328253</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3377,19 @@
         <v>2947.2867</v>
       </c>
       <c r="G94" t="n">
-        <v>-35110.76658253</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3411,19 @@
         <v>120</v>
       </c>
       <c r="G95" t="n">
-        <v>-35110.76658253</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3445,19 @@
         <v>10.61796559</v>
       </c>
       <c r="G96" t="n">
-        <v>-35110.76658253</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3479,19 @@
         <v>314.3944</v>
       </c>
       <c r="G97" t="n">
-        <v>-35425.16098253</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3513,19 @@
         <v>3</v>
       </c>
       <c r="G98" t="n">
-        <v>-35422.16098253</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3547,19 @@
         <v>384.6514</v>
       </c>
       <c r="G99" t="n">
-        <v>-35806.81238253</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3581,19 @@
         <v>3658.1671</v>
       </c>
       <c r="G100" t="n">
-        <v>-35806.81238253</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3615,19 @@
         <v>453.8673</v>
       </c>
       <c r="G101" t="n">
-        <v>-35806.81238253</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3649,19 @@
         <v>79.9907</v>
       </c>
       <c r="G102" t="n">
-        <v>-35886.80308253</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3683,19 @@
         <v>1.1</v>
       </c>
       <c r="G103" t="n">
-        <v>-35885.70308253</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3717,19 @@
         <v>148.8321</v>
       </c>
       <c r="G104" t="n">
-        <v>-36034.53518253</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3751,19 @@
         <v>49.5217</v>
       </c>
       <c r="G105" t="n">
-        <v>-35985.01348253</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3785,19 @@
         <v>42.0397</v>
       </c>
       <c r="G106" t="n">
-        <v>-35985.01348253</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3819,19 @@
         <v>40</v>
       </c>
       <c r="G107" t="n">
-        <v>-35945.01348253</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3853,19 @@
         <v>88.0992</v>
       </c>
       <c r="G108" t="n">
-        <v>-35856.91428253001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3887,19 @@
         <v>449.6722</v>
       </c>
       <c r="G109" t="n">
-        <v>-35856.91428253001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3921,19 @@
         <v>465.0703</v>
       </c>
       <c r="G110" t="n">
-        <v>-35391.84398253001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3955,19 @@
         <v>2791.1452</v>
       </c>
       <c r="G111" t="n">
-        <v>-32600.69878253001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3989,19 @@
         <v>1.11</v>
       </c>
       <c r="G112" t="n">
-        <v>-32599.58878253001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4023,19 @@
         <v>49.6813</v>
       </c>
       <c r="G113" t="n">
-        <v>-32649.27008253001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4057,19 @@
         <v>3.654</v>
       </c>
       <c r="G114" t="n">
-        <v>-32645.61608253001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4091,19 @@
         <v>40</v>
       </c>
       <c r="G115" t="n">
-        <v>-32685.61608253001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4125,19 @@
         <v>80</v>
       </c>
       <c r="G116" t="n">
-        <v>-32685.61608253001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4159,19 @@
         <v>643.3691</v>
       </c>
       <c r="G117" t="n">
-        <v>-32042.24698253001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4193,19 @@
         <v>120.9211</v>
       </c>
       <c r="G118" t="n">
-        <v>-32042.24698253001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4227,19 @@
         <v>1599.7531</v>
       </c>
       <c r="G119" t="n">
-        <v>-32042.24698253001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4261,19 @@
         <v>597.6312</v>
       </c>
       <c r="G120" t="n">
-        <v>-32042.24698253001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4295,19 @@
         <v>334.3841</v>
       </c>
       <c r="G121" t="n">
-        <v>-32376.63108253001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4329,19 @@
         <v>122</v>
       </c>
       <c r="G122" t="n">
-        <v>-32498.63108253001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4363,19 @@
         <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>-32496.63108253001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4397,19 @@
         <v>93.6618</v>
       </c>
       <c r="G124" t="n">
-        <v>-32590.29288253001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4431,19 @@
         <v>1460.3172</v>
       </c>
       <c r="G125" t="n">
-        <v>-32590.29288253001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4465,19 @@
         <v>92.3455</v>
       </c>
       <c r="G126" t="n">
-        <v>-32682.63838253001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4499,19 @@
         <v>85.477</v>
       </c>
       <c r="G127" t="n">
-        <v>-32768.11538253001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4533,19 @@
         <v>8.5197</v>
       </c>
       <c r="G128" t="n">
-        <v>-32768.11538253001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4567,19 @@
         <v>253.4995</v>
       </c>
       <c r="G129" t="n">
-        <v>-32768.11538253001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4601,19 @@
         <v>1.1</v>
       </c>
       <c r="G130" t="n">
-        <v>-32767.01538253001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4635,19 @@
         <v>119.8806</v>
       </c>
       <c r="G131" t="n">
-        <v>-32886.89598253001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4669,19 @@
         <v>2</v>
       </c>
       <c r="G132" t="n">
-        <v>-32884.89598253001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4703,19 @@
         <v>2</v>
       </c>
       <c r="G133" t="n">
-        <v>-32882.89598253001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4737,19 @@
         <v>1563.7498</v>
       </c>
       <c r="G134" t="n">
-        <v>-34446.64578253001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4771,19 @@
         <v>1.1</v>
       </c>
       <c r="G135" t="n">
-        <v>-34445.54578253001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4805,19 @@
         <v>1132</v>
       </c>
       <c r="G136" t="n">
-        <v>-35577.54578253001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4839,19 @@
         <v>1739.6031</v>
       </c>
       <c r="G137" t="n">
-        <v>-37317.14888253001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4873,19 @@
         <v>787</v>
       </c>
       <c r="G138" t="n">
-        <v>-36530.14888253001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4907,19 @@
         <v>100</v>
       </c>
       <c r="G139" t="n">
-        <v>-36630.14888253001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4941,19 @@
         <v>951</v>
       </c>
       <c r="G140" t="n">
-        <v>-35679.14888253001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4975,19 @@
         <v>1403.7738</v>
       </c>
       <c r="G141" t="n">
-        <v>-34275.37508253001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5009,19 @@
         <v>1046.5009</v>
       </c>
       <c r="G142" t="n">
-        <v>-33228.87418253001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5043,19 @@
         <v>1074.8758</v>
       </c>
       <c r="G143" t="n">
-        <v>-33228.87418253001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5077,19 @@
         <v>64.50490000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>-33228.87418253001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5111,19 @@
         <v>30.9011</v>
       </c>
       <c r="G145" t="n">
-        <v>-33197.97308253001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5145,19 @@
         <v>84.7174</v>
       </c>
       <c r="G146" t="n">
-        <v>-33282.69048253001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5179,19 @@
         <v>11.5218</v>
       </c>
       <c r="G147" t="n">
-        <v>-33282.69048253001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5213,19 @@
         <v>168.3371</v>
       </c>
       <c r="G148" t="n">
-        <v>-33451.02758253001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5247,19 @@
         <v>1641.6896</v>
       </c>
       <c r="G149" t="n">
-        <v>-35092.71718253</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5281,19 @@
         <v>520</v>
       </c>
       <c r="G150" t="n">
-        <v>-34572.71718253</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5315,19 @@
         <v>850</v>
       </c>
       <c r="G151" t="n">
-        <v>-33722.71718253</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5349,19 @@
         <v>30.5897</v>
       </c>
       <c r="G152" t="n">
-        <v>-33722.71718253</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5383,19 @@
         <v>639</v>
       </c>
       <c r="G153" t="n">
-        <v>-33083.71718253</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5417,19 @@
         <v>900</v>
       </c>
       <c r="G154" t="n">
-        <v>-32183.71718253</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5451,19 @@
         <v>350.9527</v>
       </c>
       <c r="G155" t="n">
-        <v>-32534.66988253</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5485,19 @@
         <v>2083.1087</v>
       </c>
       <c r="G156" t="n">
-        <v>-30451.56118253</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5519,19 @@
         <v>623.3674999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>-29828.19368253</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5553,19 @@
         <v>298</v>
       </c>
       <c r="G158" t="n">
-        <v>-30126.19368253</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5587,19 @@
         <v>399.1506</v>
       </c>
       <c r="G159" t="n">
-        <v>-30525.34428253</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5621,19 @@
         <v>826.8638</v>
       </c>
       <c r="G160" t="n">
-        <v>-31352.20808253</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5655,19 @@
         <v>1300</v>
       </c>
       <c r="G161" t="n">
-        <v>-30052.20808253</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5689,19 @@
         <v>3.2106</v>
       </c>
       <c r="G162" t="n">
-        <v>-30055.41868253</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5723,19 @@
         <v>3705.9434</v>
       </c>
       <c r="G163" t="n">
-        <v>-33761.36208253</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5757,19 @@
         <v>654.6337</v>
       </c>
       <c r="G164" t="n">
-        <v>-33106.72838253</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5791,19 @@
         <v>1000</v>
       </c>
       <c r="G165" t="n">
-        <v>-32106.72838253</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5825,19 @@
         <v>239.7603</v>
       </c>
       <c r="G166" t="n">
-        <v>-32346.48868253001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5859,19 @@
         <v>1280.2058</v>
       </c>
       <c r="G167" t="n">
-        <v>-31066.28288253001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5893,19 @@
         <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>-31064.28288253001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5927,19 @@
         <v>20</v>
       </c>
       <c r="G169" t="n">
-        <v>-31064.28288253001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5961,19 @@
         <v>1036.585</v>
       </c>
       <c r="G170" t="n">
-        <v>-30027.69788253001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5995,19 @@
         <v>514</v>
       </c>
       <c r="G171" t="n">
-        <v>-30027.69788253001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +6029,19 @@
         <v>7571.69700648</v>
       </c>
       <c r="G172" t="n">
-        <v>-22456.00087605001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6063,19 @@
         <v>10166.84</v>
       </c>
       <c r="G173" t="n">
-        <v>-32622.84087605001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6097,19 @@
         <v>1301</v>
       </c>
       <c r="G174" t="n">
-        <v>-31321.84087605001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6131,19 @@
         <v>43.9</v>
       </c>
       <c r="G175" t="n">
-        <v>-31277.94087605</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6165,19 @@
         <v>79.60380000000001</v>
       </c>
       <c r="G176" t="n">
-        <v>-31198.33707605</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6199,19 @@
         <v>3148.2944</v>
       </c>
       <c r="G177" t="n">
-        <v>-34346.63147605</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6233,19 @@
         <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>-34345.63147605</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6267,19 @@
         <v>324.8258</v>
       </c>
       <c r="G179" t="n">
-        <v>-34670.45727605</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6301,19 @@
         <v>239.1847</v>
       </c>
       <c r="G180" t="n">
-        <v>-34670.45727605</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6335,19 @@
         <v>531.726</v>
       </c>
       <c r="G181" t="n">
-        <v>-34138.73127605</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6369,17 @@
         <v>15819.18905543</v>
       </c>
       <c r="G182" t="n">
-        <v>-49957.92033148</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6401,15 @@
         <v>141.9492</v>
       </c>
       <c r="G183" t="n">
-        <v>-49815.97113147999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6431,15 @@
         <v>62.9397</v>
       </c>
       <c r="G184" t="n">
-        <v>-49815.97113147999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6461,15 @@
         <v>36.585</v>
       </c>
       <c r="G185" t="n">
-        <v>-49852.55613147999</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6491,15 @@
         <v>873.17</v>
       </c>
       <c r="G186" t="n">
-        <v>-48979.38613147999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6521,15 @@
         <v>114.755</v>
       </c>
       <c r="G187" t="n">
-        <v>-49094.14113147999</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6551,15 @@
         <v>445.0009</v>
       </c>
       <c r="G188" t="n">
-        <v>-48649.14023147999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6581,15 @@
         <v>5</v>
       </c>
       <c r="G189" t="n">
-        <v>-48654.14023147999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6611,15 @@
         <v>199.0479</v>
       </c>
       <c r="G190" t="n">
-        <v>-48654.14023147999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6641,15 @@
         <v>95</v>
       </c>
       <c r="G191" t="n">
-        <v>-48749.14023147999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6671,15 @@
         <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>-48747.14023147999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6701,15 @@
         <v>19.4924</v>
       </c>
       <c r="G193" t="n">
-        <v>-48766.63263148</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6731,15 @@
         <v>1940.7224</v>
       </c>
       <c r="G194" t="n">
-        <v>-46825.91023148</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6761,15 @@
         <v>380</v>
       </c>
       <c r="G195" t="n">
-        <v>-47205.91023148</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6791,15 @@
         <v>672.8098</v>
       </c>
       <c r="G196" t="n">
-        <v>-46533.10043147999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6821,15 @@
         <v>3811.7971</v>
       </c>
       <c r="G197" t="n">
-        <v>-42721.30333148</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6851,15 @@
         <v>1931.56384568</v>
       </c>
       <c r="G198" t="n">
-        <v>-44652.86717716</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6881,15 @@
         <v>1618.0582</v>
       </c>
       <c r="G199" t="n">
-        <v>-43034.80897716</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6911,15 @@
         <v>192.2107</v>
       </c>
       <c r="G200" t="n">
-        <v>-43227.01967716</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6941,15 @@
         <v>197.585</v>
       </c>
       <c r="G201" t="n">
-        <v>-43227.01967716</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6971,15 @@
         <v>2554.6509</v>
       </c>
       <c r="G202" t="n">
-        <v>-45781.67057716</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +7001,15 @@
         <v>3459.8279</v>
       </c>
       <c r="G203" t="n">
-        <v>-45781.67057716</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +7031,15 @@
         <v>1592.3213</v>
       </c>
       <c r="G204" t="n">
-        <v>-47373.99187716001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +7061,15 @@
         <v>1437.7161</v>
       </c>
       <c r="G205" t="n">
-        <v>-47373.99187716001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +7091,15 @@
         <v>1342.514</v>
       </c>
       <c r="G206" t="n">
-        <v>-47373.99187716001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +7121,15 @@
         <v>1077.2263</v>
       </c>
       <c r="G207" t="n">
-        <v>-48451.21817716001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7151,15 @@
         <v>3758.6816</v>
       </c>
       <c r="G208" t="n">
-        <v>-52209.89977716001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7181,15 @@
         <v>3000</v>
       </c>
       <c r="G209" t="n">
-        <v>-49209.89977716001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7211,15 @@
         <v>732.5</v>
       </c>
       <c r="G210" t="n">
-        <v>-49942.39977716001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +7241,15 @@
         <v>1462.2491</v>
       </c>
       <c r="G211" t="n">
-        <v>-49942.39977716001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7271,15 @@
         <v>2853.7737</v>
       </c>
       <c r="G212" t="n">
-        <v>-49942.39977716001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7301,15 @@
         <v>1175.502</v>
       </c>
       <c r="G213" t="n">
-        <v>-49942.39977716001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7331,15 @@
         <v>2876.7582</v>
       </c>
       <c r="G214" t="n">
-        <v>-52819.15797716001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7361,15 @@
         <v>6833.3342</v>
       </c>
       <c r="G215" t="n">
-        <v>-59652.49217716001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7391,15 @@
         <v>100</v>
       </c>
       <c r="G216" t="n">
-        <v>-59552.49217716001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7421,15 @@
         <v>504.4414</v>
       </c>
       <c r="G217" t="n">
-        <v>-60056.93357716001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7451,15 @@
         <v>1135.7518</v>
       </c>
       <c r="G218" t="n">
-        <v>-61192.68537716001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7481,15 @@
         <v>1733.7602</v>
       </c>
       <c r="G219" t="n">
-        <v>-61192.68537716001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7511,15 @@
         <v>96.0159</v>
       </c>
       <c r="G220" t="n">
-        <v>-61192.68537716001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7541,15 @@
         <v>163.1244</v>
       </c>
       <c r="G221" t="n">
-        <v>-61192.68537716001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7571,15 @@
         <v>227.4393</v>
       </c>
       <c r="G222" t="n">
-        <v>-61192.68537716001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7601,15 @@
         <v>301.4904</v>
       </c>
       <c r="G223" t="n">
-        <v>-61192.68537716001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7631,15 @@
         <v>38.7769</v>
       </c>
       <c r="G224" t="n">
-        <v>-61192.68537716001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7661,15 @@
         <v>2595.7217</v>
       </c>
       <c r="G225" t="n">
-        <v>-58596.96367716001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7691,15 @@
         <v>19117.8397</v>
       </c>
       <c r="G226" t="n">
-        <v>-77714.80337716</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7721,15 @@
         <v>1547.0239</v>
       </c>
       <c r="G227" t="n">
-        <v>-76167.77947716</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7751,15 @@
         <v>563.9647</v>
       </c>
       <c r="G228" t="n">
-        <v>-76731.74417716</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7781,15 @@
         <v>1555.8047</v>
       </c>
       <c r="G229" t="n">
-        <v>-78287.54887715999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7811,15 @@
         <v>240</v>
       </c>
       <c r="G230" t="n">
-        <v>-78527.54887715999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7841,15 @@
         <v>938.3683</v>
       </c>
       <c r="G231" t="n">
-        <v>-79465.91717715999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7871,15 @@
         <v>2697</v>
       </c>
       <c r="G232" t="n">
-        <v>-82162.91717715999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7901,15 @@
         <v>640</v>
       </c>
       <c r="G233" t="n">
-        <v>-82162.91717715999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7931,15 @@
         <v>333.5499</v>
       </c>
       <c r="G234" t="n">
-        <v>-82162.91717715999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7961,15 @@
         <v>8351.4745</v>
       </c>
       <c r="G235" t="n">
-        <v>-90514.39167715999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7991,15 @@
         <v>477.8373</v>
       </c>
       <c r="G236" t="n">
-        <v>-90036.55437715999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +8021,15 @@
         <v>5716.8034</v>
       </c>
       <c r="G237" t="n">
-        <v>-84319.75097715999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +8051,15 @@
         <v>1253.1817</v>
       </c>
       <c r="G238" t="n">
-        <v>-83066.56927715999</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +8081,15 @@
         <v>2.5</v>
       </c>
       <c r="G239" t="n">
-        <v>-83064.06927715999</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +8111,15 @@
         <v>1180.5675</v>
       </c>
       <c r="G240" t="n">
-        <v>-83064.06927715999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +8141,15 @@
         <v>1786.0206</v>
       </c>
       <c r="G241" t="n">
-        <v>-84850.08987715999</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +8171,15 @@
         <v>470.341</v>
       </c>
       <c r="G242" t="n">
-        <v>-84850.08987715999</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +8201,15 @@
         <v>269.3666</v>
       </c>
       <c r="G243" t="n">
-        <v>-84850.08987715999</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +8231,15 @@
         <v>1.1161</v>
       </c>
       <c r="G244" t="n">
-        <v>-84850.08987715999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +8261,15 @@
         <v>21.05263157</v>
       </c>
       <c r="G245" t="n">
-        <v>-84850.08987715999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +8291,15 @@
         <v>20.7161</v>
       </c>
       <c r="G246" t="n">
-        <v>-84870.80597715999</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +8321,15 @@
         <v>6.2071</v>
       </c>
       <c r="G247" t="n">
-        <v>-84870.80597715999</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +8351,15 @@
         <v>72.4525</v>
       </c>
       <c r="G248" t="n">
-        <v>-84943.25847715999</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +8381,15 @@
         <v>21.5345</v>
       </c>
       <c r="G249" t="n">
-        <v>-84964.79297715999</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +8411,15 @@
         <v>999.0700000000001</v>
       </c>
       <c r="G250" t="n">
-        <v>-85963.86297716</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +8441,15 @@
         <v>3893.8677</v>
       </c>
       <c r="G251" t="n">
-        <v>-85963.86297716</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +8471,15 @@
         <v>64.93940000000001</v>
       </c>
       <c r="G252" t="n">
-        <v>-85963.86297716</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8501,19 @@
         <v>635.4112</v>
       </c>
       <c r="G253" t="n">
-        <v>-85963.86297716</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="I253" t="n">
+        <v>462</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8535,23 @@
         <v>2428.7285</v>
       </c>
       <c r="G254" t="n">
-        <v>-85963.86297716</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="I254" t="n">
+        <v>462</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8573,23 @@
         <v>2118.436</v>
       </c>
       <c r="G255" t="n">
-        <v>-88082.29897716</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="I255" t="n">
+        <v>462</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,22 +8611,23 @@
         <v>1040.6276</v>
       </c>
       <c r="G256" t="n">
-        <v>-87041.67137715999</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>453.4</v>
       </c>
       <c r="I256" t="n">
-        <v>453.4</v>
-      </c>
-      <c r="J256" t="n">
-        <v>453.4</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8867,24 +8649,21 @@
         <v>158.0234</v>
       </c>
       <c r="G257" t="n">
-        <v>-86883.64797715998</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>453.4</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>462</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8906,24 +8685,21 @@
         <v>2411.7766</v>
       </c>
       <c r="G258" t="n">
-        <v>-84471.87137715999</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>453.4</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>462</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8945,18 +8721,21 @@
         <v>664.1992</v>
       </c>
       <c r="G259" t="n">
-        <v>-83807.67217715998</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>462</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8978,18 +8757,21 @@
         <v>1.1</v>
       </c>
       <c r="G260" t="n">
-        <v>-83806.57217715998</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>462</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9011,18 +8793,21 @@
         <v>779</v>
       </c>
       <c r="G261" t="n">
-        <v>-83027.57217715998</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>462</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9044,18 +8829,23 @@
         <v>19.3889</v>
       </c>
       <c r="G262" t="n">
-        <v>-83046.96107715998</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>469.7</v>
+      </c>
+      <c r="I262" t="n">
+        <v>462</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9077,18 +8867,23 @@
         <v>579.8882</v>
       </c>
       <c r="G263" t="n">
-        <v>-83626.84927715998</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>467</v>
+      </c>
+      <c r="I263" t="n">
+        <v>462</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9110,18 +8905,23 @@
         <v>1.1</v>
       </c>
       <c r="G264" t="n">
-        <v>-83625.74927715998</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>464</v>
+      </c>
+      <c r="I264" t="n">
+        <v>462</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9143,18 +8943,23 @@
         <v>578.7881</v>
       </c>
       <c r="G265" t="n">
-        <v>-83046.96117715997</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>464.7</v>
+      </c>
+      <c r="I265" t="n">
+        <v>462</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9176,18 +8981,23 @@
         <v>5.61</v>
       </c>
       <c r="G266" t="n">
-        <v>-83041.35117715997</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>466</v>
+      </c>
+      <c r="I266" t="n">
+        <v>462</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9209,18 +9019,23 @@
         <v>30.3855</v>
       </c>
       <c r="G267" t="n">
-        <v>-83041.35117715997</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>466.6</v>
+      </c>
+      <c r="I267" t="n">
+        <v>462</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9242,18 +9057,23 @@
         <v>340</v>
       </c>
       <c r="G268" t="n">
-        <v>-82701.35117715997</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>466.6</v>
+      </c>
+      <c r="I268" t="n">
+        <v>462</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9275,18 +9095,23 @@
         <v>1.2</v>
       </c>
       <c r="G269" t="n">
-        <v>-82702.55117715997</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>470</v>
+      </c>
+      <c r="I269" t="n">
+        <v>462</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9308,18 +9133,23 @@
         <v>1.1674</v>
       </c>
       <c r="G270" t="n">
-        <v>-82701.38377715996</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>469.1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>462</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9341,18 +9171,21 @@
         <v>866.0587</v>
       </c>
       <c r="G271" t="n">
-        <v>-82701.38377715996</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>462</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9374,18 +9207,21 @@
         <v>1357.2097</v>
       </c>
       <c r="G272" t="n">
-        <v>-84058.59347715997</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>462</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9407,22 +9243,21 @@
         <v>24</v>
       </c>
       <c r="G273" t="n">
-        <v>-84082.59347715997</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="J273" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9444,24 +9279,21 @@
         <v>5.271</v>
       </c>
       <c r="G274" t="n">
-        <v>-84077.32247715998</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>462</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9483,24 +9315,21 @@
         <v>182.925</v>
       </c>
       <c r="G275" t="n">
-        <v>-84077.32247715998</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>462</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9522,18 +9351,21 @@
         <v>89.7</v>
       </c>
       <c r="G276" t="n">
-        <v>-83987.62247715998</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="n">
+        <v>462</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9555,18 +9387,21 @@
         <v>7497.9198</v>
       </c>
       <c r="G277" t="n">
-        <v>-76489.70267715998</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="n">
+        <v>462</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9588,18 +9423,21 @@
         <v>303.9847</v>
       </c>
       <c r="G278" t="n">
-        <v>-76185.71797715998</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>462</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9621,18 +9459,21 @@
         <v>112.9527</v>
       </c>
       <c r="G279" t="n">
-        <v>-76072.76527715998</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>462</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9654,18 +9495,21 @@
         <v>53.7952</v>
       </c>
       <c r="G280" t="n">
-        <v>-76126.56047715998</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>462</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9687,22 +9531,21 @@
         <v>69.93380000000001</v>
       </c>
       <c r="G281" t="n">
-        <v>-76126.56047715998</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="J281" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9724,24 +9567,21 @@
         <v>39.7391</v>
       </c>
       <c r="G282" t="n">
-        <v>-76166.29957715998</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="n">
+        <v>462</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9763,24 +9603,21 @@
         <v>165.5981</v>
       </c>
       <c r="G283" t="n">
-        <v>-76000.70147715998</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="n">
+        <v>462</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9802,26 +9639,21 @@
         <v>40</v>
       </c>
       <c r="G284" t="n">
-        <v>-75960.70147715998</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="n">
-        <v>480</v>
-      </c>
-      <c r="J284" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9843,24 +9675,21 @@
         <v>80</v>
       </c>
       <c r="G285" t="n">
-        <v>-75880.70147715998</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="n">
+        <v>462</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9882,24 +9711,21 @@
         <v>2689.4058</v>
       </c>
       <c r="G286" t="n">
-        <v>-73191.29567715999</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="n">
+        <v>462</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9921,24 +9747,21 @@
         <v>2609.4058</v>
       </c>
       <c r="G287" t="n">
-        <v>-75800.70147715998</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="n">
+        <v>462</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9960,26 +9783,21 @@
         <v>152.6802</v>
       </c>
       <c r="G288" t="n">
-        <v>-75953.38167715998</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>483</v>
-      </c>
-      <c r="J288" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10001,26 +9819,21 @@
         <v>1.1</v>
       </c>
       <c r="G289" t="n">
-        <v>-75952.28167715998</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="n">
-        <v>482</v>
-      </c>
-      <c r="J289" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10042,26 +9855,21 @@
         <v>2366.5155</v>
       </c>
       <c r="G290" t="n">
-        <v>-78318.79717715997</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
-        <v>483</v>
-      </c>
-      <c r="J290" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10083,26 +9891,21 @@
         <v>81.29859999999999</v>
       </c>
       <c r="G291" t="n">
-        <v>-78237.49857715997</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="n">
-        <v>475.1</v>
-      </c>
-      <c r="J291" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10124,26 +9927,21 @@
         <v>160.9662</v>
       </c>
       <c r="G292" t="n">
-        <v>-78076.53237715998</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="n">
-        <v>479</v>
-      </c>
-      <c r="J292" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10165,26 +9963,21 @@
         <v>1.1</v>
       </c>
       <c r="G293" t="n">
-        <v>-78075.43237715997</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="n">
-        <v>480</v>
-      </c>
-      <c r="J293" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10206,26 +9999,21 @@
         <v>1.1</v>
       </c>
       <c r="G294" t="n">
-        <v>-78075.43237715997</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="n">
-        <v>480.1</v>
-      </c>
-      <c r="J294" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10247,26 +10035,21 @@
         <v>1698.5039</v>
       </c>
       <c r="G295" t="n">
-        <v>-79773.93627715997</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="n">
-        <v>480.1</v>
-      </c>
-      <c r="J295" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10288,26 +10071,21 @@
         <v>1.1</v>
       </c>
       <c r="G296" t="n">
-        <v>-79772.83627715996</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
-        <v>476.9</v>
-      </c>
-      <c r="J296" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10329,26 +10107,21 @@
         <v>1.1</v>
       </c>
       <c r="G297" t="n">
-        <v>-79771.73627715996</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="n">
-        <v>477</v>
-      </c>
-      <c r="J297" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10370,26 +10143,21 @@
         <v>1.1</v>
       </c>
       <c r="G298" t="n">
-        <v>-79770.63627715995</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="n">
-        <v>477.9</v>
-      </c>
-      <c r="J298" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10411,26 +10179,21 @@
         <v>840</v>
       </c>
       <c r="G299" t="n">
-        <v>-78930.63627715995</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="n">
-        <v>479</v>
-      </c>
-      <c r="J299" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10452,26 +10215,21 @@
         <v>71.8976</v>
       </c>
       <c r="G300" t="n">
-        <v>-78930.63627715995</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="n">
-        <v>480.9</v>
-      </c>
-      <c r="J300" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10493,26 +10251,21 @@
         <v>273.19</v>
       </c>
       <c r="G301" t="n">
-        <v>-78657.44627715995</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="n">
-        <v>480.9</v>
-      </c>
-      <c r="J301" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10534,26 +10287,21 @@
         <v>1585.9924</v>
       </c>
       <c r="G302" t="n">
-        <v>-80243.43867715995</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="n">
-        <v>482.3</v>
-      </c>
-      <c r="J302" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10575,26 +10323,21 @@
         <v>1.1</v>
       </c>
       <c r="G303" t="n">
-        <v>-80242.33867715995</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="n">
-        <v>478.2</v>
-      </c>
-      <c r="J303" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10616,26 +10359,21 @@
         <v>80</v>
       </c>
       <c r="G304" t="n">
-        <v>-80162.33867715995</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="n">
-        <v>482.3</v>
-      </c>
-      <c r="J304" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10657,26 +10395,21 @@
         <v>1.1</v>
       </c>
       <c r="G305" t="n">
-        <v>-80161.23867715994</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="n">
-        <v>486</v>
-      </c>
-      <c r="J305" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10698,26 +10431,21 @@
         <v>114.0402</v>
       </c>
       <c r="G306" t="n">
-        <v>-80161.23867715994</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="n">
-        <v>487</v>
-      </c>
-      <c r="J306" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10739,26 +10467,21 @@
         <v>51.1</v>
       </c>
       <c r="G307" t="n">
-        <v>-80110.13867715994</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="n">
-        <v>487</v>
-      </c>
-      <c r="J307" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10780,26 +10503,21 @@
         <v>600</v>
       </c>
       <c r="G308" t="n">
-        <v>-79510.13867715994</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="n">
-        <v>488.4</v>
-      </c>
-      <c r="J308" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10821,26 +10539,21 @@
         <v>40</v>
       </c>
       <c r="G309" t="n">
-        <v>-79550.13867715994</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="n">
-        <v>492</v>
-      </c>
-      <c r="J309" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10862,26 +10575,21 @@
         <v>17.6706</v>
       </c>
       <c r="G310" t="n">
-        <v>-79550.13867715994</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="n">
-        <v>488</v>
-      </c>
-      <c r="J310" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10903,26 +10611,21 @@
         <v>238.518</v>
       </c>
       <c r="G311" t="n">
-        <v>-79788.65667715993</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="n">
-        <v>488</v>
-      </c>
-      <c r="J311" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10944,26 +10647,21 @@
         <v>1.1</v>
       </c>
       <c r="G312" t="n">
-        <v>-79787.55667715993</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="n">
-        <v>478.5</v>
-      </c>
-      <c r="J312" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10985,26 +10683,21 @@
         <v>20.5097</v>
       </c>
       <c r="G313" t="n">
-        <v>-79808.06637715992</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="n">
-        <v>483</v>
-      </c>
-      <c r="J313" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11026,26 +10719,21 @@
         <v>2015.1182</v>
       </c>
       <c r="G314" t="n">
-        <v>-81823.18457715992</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="n">
-        <v>481</v>
-      </c>
-      <c r="J314" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11067,26 +10755,21 @@
         <v>40</v>
       </c>
       <c r="G315" t="n">
-        <v>-81823.18457715992</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="n">
-        <v>479.1</v>
-      </c>
-      <c r="J315" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11108,26 +10791,21 @@
         <v>310</v>
       </c>
       <c r="G316" t="n">
-        <v>-81513.18457715992</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="n">
-        <v>479.1</v>
-      </c>
-      <c r="J316" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11149,26 +10827,21 @@
         <v>1300</v>
       </c>
       <c r="G317" t="n">
-        <v>-80213.18457715992</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="n">
-        <v>483</v>
-      </c>
-      <c r="J317" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
